--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="702">
   <si>
     <t>Function</t>
   </si>
@@ -2663,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:107</v>
+        <v>Done:119</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -3756,7 +3756,9 @@
       <c r="A111" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B111" s="21"/>
+      <c r="B111" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C111" s="21"/>
       <c r="D111" s="22" t="s">
         <v>474</v>
@@ -3766,7 +3768,9 @@
       <c r="A112" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C112" s="21"/>
       <c r="D112" s="22" t="s">
         <v>475</v>
@@ -3776,7 +3780,9 @@
       <c r="A113" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C113" s="21"/>
       <c r="D113" s="22" t="s">
         <v>476</v>
@@ -3786,7 +3792,9 @@
       <c r="A114" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B114" s="21"/>
+      <c r="B114" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C114" s="21"/>
       <c r="D114" s="22" t="s">
         <v>477</v>
@@ -3796,7 +3804,9 @@
       <c r="A115" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C115" s="21"/>
       <c r="D115" s="22" t="s">
         <v>478</v>
@@ -3842,7 +3852,9 @@
       <c r="A119" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C119" s="21"/>
       <c r="D119" s="22" t="s">
         <v>482</v>
@@ -3852,7 +3864,9 @@
       <c r="A120" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C120" s="21"/>
       <c r="D120" s="22" t="s">
         <v>483</v>
@@ -3862,7 +3876,9 @@
       <c r="A121" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B121" s="21"/>
+      <c r="B121" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C121" s="21"/>
       <c r="D121" s="22" t="s">
         <v>484</v>
@@ -3872,7 +3888,9 @@
       <c r="A122" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C122" s="21"/>
       <c r="D122" s="22" t="s">
         <v>485</v>
@@ -3894,7 +3912,9 @@
       <c r="A124" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B124" s="21"/>
+      <c r="B124" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C124" s="21"/>
       <c r="D124" s="22" t="s">
         <v>487</v>
@@ -3904,7 +3924,9 @@
       <c r="A125" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C125" s="21"/>
       <c r="D125" s="22" t="s">
         <v>488</v>
@@ -3914,7 +3936,9 @@
       <c r="A126" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="B126" s="21"/>
+      <c r="B126" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="C126" s="21"/>
       <c r="D126" s="22" t="s">
         <v>489</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="703">
   <si>
     <t>Function</t>
   </si>
@@ -2120,6 +2120,9 @@
   </si>
   <si>
     <t>maths</t>
+  </si>
+  <si>
+    <t>zdrv</t>
   </si>
 </sst>
 </file>
@@ -2663,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C666" sqref="C666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2686,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:119</v>
+        <v>Done:125</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:19</v>
+        <v>Classes:20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,50 +8722,74 @@
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
-      <c r="C664" s="5"/>
-      <c r="D664" s="7" t="s">
+      <c r="A664" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B664" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C664" s="10"/>
+      <c r="D664" s="11" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
-      <c r="C665" s="5"/>
-      <c r="D665" s="7" t="s">
+      <c r="A665" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B665" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C665" s="10"/>
+      <c r="D665" s="11" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
-      <c r="C666" s="5"/>
-      <c r="D666" s="7" t="s">
+      <c r="A666" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B666" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C666" s="10"/>
+      <c r="D666" s="11" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
-      <c r="C667" s="5"/>
-      <c r="D667" s="7" t="s">
+      <c r="A667" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B667" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C667" s="10"/>
+      <c r="D667" s="11" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
-      <c r="C668" s="5"/>
-      <c r="D668" s="7" t="s">
+      <c r="A668" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B668" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C668" s="10"/>
+      <c r="D668" s="11" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
-      <c r="C669" s="5"/>
-      <c r="D669" s="7" t="s">
+      <c r="A669" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B669" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C669" s="10"/>
+      <c r="D669" s="11" t="s">
         <v>668</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="703">
   <si>
     <t>Function</t>
   </si>
@@ -2666,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C666" sqref="C666"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:125</v>
+        <v>Done:141</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:8</v>
+        <v>Inp:6</v>
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -5058,10 +5058,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="7" t="s">
+      <c r="A242" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="C242" s="21"/>
+      <c r="D242" s="22" t="s">
         <v>561</v>
       </c>
     </row>
@@ -5526,10 +5530,14 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="5"/>
-      <c r="D290" s="7" t="s">
+      <c r="A290" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C290" s="10"/>
+      <c r="D290" s="11" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5577,7 +5585,9 @@
       <c r="A296" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B296" s="9"/>
+      <c r="B296" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C296" s="10"/>
       <c r="D296" s="11" t="s">
         <v>602</v>
@@ -5599,7 +5609,9 @@
       <c r="A298" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B298" s="9"/>
+      <c r="B298" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C298" s="10"/>
       <c r="D298" s="11" t="s">
         <v>604</v>
@@ -5610,7 +5622,7 @@
         <v>687</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="11" t="s">
@@ -5621,7 +5633,9 @@
       <c r="A300" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B300" s="9"/>
+      <c r="B300" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C300" s="10"/>
       <c r="D300" s="11" t="s">
         <v>606</v>
@@ -5631,7 +5645,9 @@
       <c r="A301" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B301" s="9"/>
+      <c r="B301" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C301" s="10"/>
       <c r="D301" s="11" t="s">
         <v>607</v>
@@ -5641,7 +5657,9 @@
       <c r="A302" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B302" s="9"/>
+      <c r="B302" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C302" s="10"/>
       <c r="D302" s="11" t="s">
         <v>608</v>
@@ -5651,7 +5669,9 @@
       <c r="A303" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B303" s="9"/>
+      <c r="B303" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C303" s="10"/>
       <c r="D303" s="11" t="s">
         <v>609</v>
@@ -5661,7 +5681,9 @@
       <c r="A304" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B304" s="9"/>
+      <c r="B304" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C304" s="10"/>
       <c r="D304" s="11" t="s">
         <v>610</v>
@@ -5671,7 +5693,9 @@
       <c r="A305" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B305" s="9"/>
+      <c r="B305" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C305" s="10"/>
       <c r="D305" s="11" t="s">
         <v>611</v>
@@ -5693,7 +5717,9 @@
       <c r="A307" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B307" s="9"/>
+      <c r="B307" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C307" s="10"/>
       <c r="D307" s="11" t="s">
         <v>613</v>
@@ -5703,7 +5729,9 @@
       <c r="A308" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B308" s="9"/>
+      <c r="B308" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C308" s="10"/>
       <c r="D308" s="11" t="s">
         <v>614</v>
@@ -5713,7 +5741,9 @@
       <c r="A309" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B309" s="9"/>
+      <c r="B309" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C309" s="10"/>
       <c r="D309" s="11" t="s">
         <v>615</v>
@@ -5723,7 +5753,9 @@
       <c r="A310" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B310" s="9"/>
+      <c r="B310" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C310" s="10"/>
       <c r="D310" s="11" t="s">
         <v>616</v>
@@ -5734,7 +5766,7 @@
         <v>687</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C311" s="20"/>
       <c r="D311" s="14" t="s">

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="4305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="704">
   <si>
     <t>Function</t>
   </si>
@@ -73,9 +73,6 @@
     <t>fullscrn_setWindowFlagsDisDlg</t>
   </si>
   <si>
-    <t>sub_1003F10</t>
-  </si>
-  <si>
     <t>sub_101CEB6</t>
   </si>
   <si>
@@ -2123,6 +2120,12 @@
   </si>
   <si>
     <t>zdrv</t>
+  </si>
+  <si>
+    <t>fullscrn_fillRect</t>
+  </si>
+  <si>
+    <t>sub/bad regs</t>
   </si>
 </sst>
 </file>
@@ -2666,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,11 +2689,11 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:141</v>
+        <v>Done:151</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:6</v>
+        <v>Inp:5</v>
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -2699,13 +2702,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>0</v>
@@ -2713,13 +2716,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>6</v>
@@ -2727,13 +2730,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>7</v>
@@ -2741,13 +2744,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>2</v>
@@ -2755,13 +2758,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>8</v>
@@ -2769,13 +2772,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -2783,13 +2786,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>10</v>
@@ -2797,13 +2800,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
@@ -2811,13 +2814,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>12</v>
@@ -2825,27 +2828,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>3</v>
@@ -2853,13 +2856,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
@@ -2867,13 +2870,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>13</v>
@@ -2881,13 +2884,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>5</v>
@@ -2895,61 +2898,61 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>1</v>
@@ -2960,7 +2963,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,19 +2971,19 @@
       <c r="B23" s="2"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2991,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +2999,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +3007,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,21 +3015,21 @@
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,7 +3037,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,7 +3045,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,7 +3053,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,7 +3061,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,7 +3069,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,7 +3077,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,7 +3085,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,7 +3093,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,7 +3101,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,7 +3109,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,7 +3117,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,7 +3133,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,7 +3141,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,7 +3149,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,7 +3157,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,15 +3165,19 @@
       <c r="B46" s="2"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="7" t="s">
-        <v>449</v>
+      <c r="A47" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,7 +3185,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,19 +3193,19 @@
       <c r="B49" s="2"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,7 +3213,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,7 +3221,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,7 +3229,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,7 +3237,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,7 +3245,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,7 +3253,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3261,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,7 +3269,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3277,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,7 +3285,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,7 +3293,7 @@
       <c r="B61" s="2"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,33 +3301,33 @@
       <c r="B62" s="2"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,7 +3335,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,7 +3343,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,7 +3351,7 @@
       <c r="B67" s="2"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,7 +3359,7 @@
       <c r="B68" s="2"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,7 +3367,7 @@
       <c r="B69" s="2"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3375,7 @@
       <c r="B70" s="2"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,7 +3383,7 @@
       <c r="B71" s="2"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,19 +3391,19 @@
       <c r="B72" s="2"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,7 +3411,7 @@
       <c r="B74" s="2"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,7 +3419,7 @@
       <c r="B75" s="2"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,7 +3427,7 @@
       <c r="B76" s="2"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,21 +3435,21 @@
       <c r="B77" s="2"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,7 +3457,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,7 +3465,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,7 +3473,7 @@
       <c r="B81" s="2"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3481,7 @@
       <c r="B82" s="2"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,7 +3489,7 @@
       <c r="B83" s="2"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,7 +3497,7 @@
       <c r="B84" s="2"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,7 +3505,7 @@
       <c r="B85" s="2"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,7 +3513,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,7 +3521,7 @@
       <c r="B87" s="2"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,7 +3529,7 @@
       <c r="B88" s="2"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,7 +3537,7 @@
       <c r="B89" s="2"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,7 +3545,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,7 +3553,7 @@
       <c r="B91" s="2"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,7 +3561,7 @@
       <c r="B92" s="2"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,7 +3569,7 @@
       <c r="B93" s="2"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3570,38 +3577,42 @@
       <c r="B94" s="2"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B95" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B96" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>15</v>
@@ -3609,13 +3620,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>16</v>
@@ -3623,23 +3634,25 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B99" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C99" s="10"/>
       <c r="D99" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>17</v>
@@ -3647,340 +3660,354 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C101" s="10"/>
+        <v>668</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>703</v>
+      </c>
       <c r="D101" s="11" t="s">
-        <v>467</v>
+        <v>702</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B102" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C102" s="10"/>
       <c r="D102" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="11" t="s">
-        <v>14</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B104" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C104" s="10"/>
       <c r="D104" s="11" t="s">
-        <v>469</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B105" s="9"/>
+        <v>673</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C105" s="10"/>
       <c r="D105" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>676</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C108" s="10"/>
       <c r="D108" s="11" t="s">
-        <v>18</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
+        <v>673</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>675</v>
+      </c>
       <c r="D109" s="11" t="s">
-        <v>473</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="7" t="s">
-        <v>77</v>
+      <c r="A110" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22" t="s">
-        <v>474</v>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C113" s="21"/>
       <c r="D113" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C120" s="21"/>
       <c r="D120" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C121" s="21"/>
       <c r="D121" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C122" s="21"/>
       <c r="D122" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C124" s="21"/>
       <c r="D124" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C125" s="21"/>
       <c r="D125" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>490</v>
+      <c r="A127" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="12" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="D128" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="7" t="s">
-        <v>492</v>
+      <c r="A129" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,7 +4015,7 @@
       <c r="B130" s="2"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,7 +4023,7 @@
       <c r="B131" s="2"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,7 +4031,7 @@
       <c r="B132" s="2"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,7 +4039,7 @@
       <c r="B133" s="2"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4047,7 @@
       <c r="B134" s="2"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,7 +4055,7 @@
       <c r="B135" s="2"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7" t="s">
-        <v>493</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4036,7 +4063,7 @@
       <c r="B136" s="2"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7" t="s">
-        <v>83</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,7 +4071,7 @@
       <c r="B137" s="2"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7" t="s">
-        <v>494</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,7 +4079,7 @@
       <c r="B138" s="2"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,7 +4087,7 @@
       <c r="B139" s="2"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,7 +4095,7 @@
       <c r="B140" s="2"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,7 +4103,7 @@
       <c r="B141" s="2"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,7 +4111,7 @@
       <c r="B142" s="2"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,7 +4119,7 @@
       <c r="B143" s="2"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7" t="s">
-        <v>84</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,7 +4127,7 @@
       <c r="B144" s="2"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7" t="s">
-        <v>500</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,7 +4135,7 @@
       <c r="B145" s="2"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7" t="s">
-        <v>85</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,7 +4143,7 @@
       <c r="B146" s="2"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,7 +4151,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4159,7 @@
       <c r="B148" s="2"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4167,7 @@
       <c r="B149" s="2"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,7 +4175,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7" t="s">
-        <v>501</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,7 +4183,7 @@
       <c r="B151" s="2"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7" t="s">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,7 +4191,7 @@
       <c r="B152" s="2"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,7 +4199,7 @@
       <c r="B153" s="2"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4207,7 @@
       <c r="B154" s="2"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,7 +4215,7 @@
       <c r="B155" s="2"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,7 +4223,7 @@
       <c r="B156" s="2"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,7 +4231,7 @@
       <c r="B157" s="2"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,7 +4239,7 @@
       <c r="B158" s="2"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,7 +4247,7 @@
       <c r="B159" s="2"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,7 +4255,7 @@
       <c r="B160" s="2"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4236,7 +4263,7 @@
       <c r="B161" s="2"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,7 +4271,7 @@
       <c r="B162" s="2"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7" t="s">
-        <v>502</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,7 +4279,7 @@
       <c r="B163" s="2"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,7 +4287,7 @@
       <c r="B164" s="2"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,183 +4295,183 @@
       <c r="B165" s="2"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="11" t="s">
-        <v>506</v>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="7" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="7" t="s">
-        <v>101</v>
+      <c r="A180" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,7 +4479,7 @@
       <c r="B181" s="2"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,7 +4487,7 @@
       <c r="B182" s="2"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,7 +4495,7 @@
       <c r="B183" s="2"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,7 +4503,7 @@
       <c r="B184" s="2"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,7 +4511,7 @@
       <c r="B185" s="2"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,7 +4519,7 @@
       <c r="B186" s="2"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,7 +4527,7 @@
       <c r="B187" s="2"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,7 +4535,7 @@
       <c r="B188" s="2"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7" t="s">
-        <v>520</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,7 +4543,7 @@
       <c r="B189" s="2"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,7 +4551,7 @@
       <c r="B190" s="2"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4532,7 +4559,7 @@
       <c r="B191" s="2"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7" t="s">
-        <v>109</v>
+        <v>521</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4540,7 +4567,7 @@
       <c r="B192" s="2"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,7 +4575,7 @@
       <c r="B193" s="2"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,85 +4583,85 @@
       <c r="B194" s="2"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>523</v>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B198" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B200" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="C198" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D198" s="11" t="s">
+      <c r="C200" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D200" s="12" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4642,7 +4669,7 @@
       <c r="B201" s="2"/>
       <c r="C201" s="5"/>
       <c r="D201" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,7 +4677,7 @@
       <c r="B202" s="2"/>
       <c r="C202" s="5"/>
       <c r="D202" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4658,7 +4685,7 @@
       <c r="B203" s="2"/>
       <c r="C203" s="5"/>
       <c r="D203" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,7 +4693,7 @@
       <c r="B204" s="2"/>
       <c r="C204" s="5"/>
       <c r="D204" s="7" t="s">
-        <v>113</v>
+        <v>530</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,7 +4701,7 @@
       <c r="B205" s="2"/>
       <c r="C205" s="5"/>
       <c r="D205" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,7 +4709,7 @@
       <c r="B206" s="2"/>
       <c r="C206" s="5"/>
       <c r="D206" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,7 +4717,7 @@
       <c r="B207" s="2"/>
       <c r="C207" s="5"/>
       <c r="D207" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4698,7 +4725,7 @@
       <c r="B208" s="2"/>
       <c r="C208" s="5"/>
       <c r="D208" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,7 +4733,7 @@
       <c r="B209" s="2"/>
       <c r="C209" s="5"/>
       <c r="D209" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4714,7 +4741,7 @@
       <c r="B210" s="2"/>
       <c r="C210" s="5"/>
       <c r="D210" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4722,7 +4749,7 @@
       <c r="B211" s="2"/>
       <c r="C211" s="5"/>
       <c r="D211" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,7 +4757,7 @@
       <c r="B212" s="2"/>
       <c r="C212" s="5"/>
       <c r="D212" s="7" t="s">
-        <v>532</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4765,7 @@
       <c r="B213" s="2"/>
       <c r="C213" s="5"/>
       <c r="D213" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,7 +4773,7 @@
       <c r="B214" s="2"/>
       <c r="C214" s="5"/>
       <c r="D214" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,7 +4781,7 @@
       <c r="B215" s="2"/>
       <c r="C215" s="5"/>
       <c r="D215" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,651 +4789,651 @@
       <c r="B216" s="2"/>
       <c r="C216" s="5"/>
       <c r="D216" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="11" t="s">
-        <v>537</v>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="7" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>679</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>545</v>
+      <c r="A225" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="11" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="B227" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="11" t="s">
-        <v>547</v>
+      <c r="B227" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B230" s="9"/>
+        <v>680</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C230" s="10"/>
       <c r="D230" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>669</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B232" s="9"/>
+        <v>680</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C232" s="10"/>
       <c r="D232" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>669</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B239" s="9"/>
+        <v>680</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C239" s="10"/>
       <c r="D239" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="10"/>
       <c r="D240" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B241" s="9"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C243" s="18"/>
+      <c r="D243" s="12" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="B242" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="C242" s="21"/>
-      <c r="D242" s="22" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C243" s="10"/>
-      <c r="D243" s="11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B251" s="15"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="12" t="s">
-        <v>570</v>
+      <c r="A251" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B252" s="15"/>
       <c r="C252" s="18"/>
       <c r="D252" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B253" s="15"/>
       <c r="C253" s="18"/>
       <c r="D253" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B254" s="15"/>
       <c r="C254" s="18"/>
       <c r="D254" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B255" s="15" t="s">
-        <v>669</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B255" s="15"/>
       <c r="C255" s="18"/>
       <c r="D255" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B256" s="15"/>
+        <v>683</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C256" s="18"/>
       <c r="D256" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B257" s="15"/>
       <c r="C257" s="18"/>
       <c r="D257" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B258" s="15"/>
       <c r="C258" s="18"/>
       <c r="D258" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B259" s="15"/>
       <c r="C259" s="18"/>
       <c r="D259" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B260" s="15"/>
       <c r="C260" s="18"/>
       <c r="D260" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B261" s="15"/>
       <c r="C261" s="18"/>
       <c r="D261" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B262" s="15"/>
       <c r="C262" s="18"/>
       <c r="D262" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B263" s="15"/>
       <c r="C263" s="18"/>
       <c r="D263" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B264" s="15"/>
       <c r="C264" s="18"/>
       <c r="D264" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>669</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B265" s="15"/>
       <c r="C265" s="18"/>
       <c r="D265" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B266" s="15"/>
+        <v>683</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C266" s="18"/>
       <c r="D266" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B267" s="15"/>
       <c r="C267" s="18"/>
       <c r="D267" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>669</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B268" s="15"/>
       <c r="C268" s="18"/>
       <c r="D268" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B269" s="15"/>
+        <v>683</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C269" s="18"/>
       <c r="D269" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B270" s="15"/>
       <c r="C270" s="18"/>
       <c r="D270" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B271" s="15"/>
       <c r="C271" s="18"/>
       <c r="D271" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B272" s="15"/>
       <c r="C272" s="18"/>
       <c r="D272" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B273" s="15"/>
       <c r="C273" s="18"/>
       <c r="D273" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="5"/>
-      <c r="D274" s="7" t="s">
-        <v>593</v>
+      <c r="A274" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B274" s="15"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="12" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,7 +5441,7 @@
       <c r="B275" s="2"/>
       <c r="C275" s="5"/>
       <c r="D275" s="7" t="s">
-        <v>122</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5422,7 +5449,7 @@
       <c r="B276" s="2"/>
       <c r="C276" s="5"/>
       <c r="D276" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,7 +5457,7 @@
       <c r="B277" s="2"/>
       <c r="C277" s="5"/>
       <c r="D277" s="7" t="s">
-        <v>594</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5438,7 +5465,7 @@
       <c r="B278" s="2"/>
       <c r="C278" s="5"/>
       <c r="D278" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,7 +5473,7 @@
       <c r="B279" s="2"/>
       <c r="C279" s="5"/>
       <c r="D279" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,7 +5481,7 @@
       <c r="B280" s="2"/>
       <c r="C280" s="5"/>
       <c r="D280" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,7 +5489,7 @@
       <c r="B281" s="2"/>
       <c r="C281" s="5"/>
       <c r="D281" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,7 +5497,7 @@
       <c r="B282" s="2"/>
       <c r="C282" s="5"/>
       <c r="D282" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5478,7 +5505,7 @@
       <c r="B283" s="2"/>
       <c r="C283" s="5"/>
       <c r="D283" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5486,7 +5513,7 @@
       <c r="B284" s="2"/>
       <c r="C284" s="5"/>
       <c r="D284" s="7" t="s">
-        <v>124</v>
+        <v>599</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5494,7 +5521,7 @@
       <c r="B285" s="2"/>
       <c r="C285" s="5"/>
       <c r="D285" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,7 +5529,7 @@
       <c r="B286" s="2"/>
       <c r="C286" s="5"/>
       <c r="D286" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,7 +5537,7 @@
       <c r="B287" s="2"/>
       <c r="C287" s="5"/>
       <c r="D287" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,7 +5545,7 @@
       <c r="B288" s="2"/>
       <c r="C288" s="5"/>
       <c r="D288" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5526,27 +5553,27 @@
       <c r="B289" s="2"/>
       <c r="C289" s="5"/>
       <c r="D289" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C290" s="10"/>
-      <c r="D290" s="11" t="s">
-        <v>601</v>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="5"/>
-      <c r="D291" s="7" t="s">
-        <v>130</v>
+      <c r="A291" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C291" s="10"/>
+      <c r="D291" s="11" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5554,7 +5581,7 @@
       <c r="B292" s="2"/>
       <c r="C292" s="5"/>
       <c r="D292" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,7 +5589,7 @@
       <c r="B293" s="2"/>
       <c r="C293" s="5"/>
       <c r="D293" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,7 +5597,7 @@
       <c r="B294" s="2"/>
       <c r="C294" s="5"/>
       <c r="D294" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,207 +5605,207 @@
       <c r="B295" s="2"/>
       <c r="C295" s="5"/>
       <c r="D295" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C296" s="10"/>
-      <c r="D296" s="11" t="s">
-        <v>602</v>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C300" s="10"/>
       <c r="D300" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C301" s="10"/>
       <c r="D301" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C311" s="20"/>
       <c r="D311" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="13" t="s">
-        <v>135</v>
+      <c r="A312" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C312" s="20"/>
+      <c r="D312" s="14" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5786,7 +5813,7 @@
       <c r="B313" s="16"/>
       <c r="C313" s="19"/>
       <c r="D313" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,7 +5821,7 @@
       <c r="B314" s="16"/>
       <c r="C314" s="19"/>
       <c r="D314" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,7 +5829,7 @@
       <c r="B315" s="16"/>
       <c r="C315" s="19"/>
       <c r="D315" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,7 +5837,7 @@
       <c r="B316" s="16"/>
       <c r="C316" s="19"/>
       <c r="D316" s="13" t="s">
-        <v>618</v>
+        <v>137</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,7 +5845,7 @@
       <c r="B317" s="16"/>
       <c r="C317" s="19"/>
       <c r="D317" s="13" t="s">
-        <v>139</v>
+        <v>617</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,7 +5853,7 @@
       <c r="B318" s="16"/>
       <c r="C318" s="19"/>
       <c r="D318" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5834,7 +5861,7 @@
       <c r="B319" s="16"/>
       <c r="C319" s="19"/>
       <c r="D319" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5842,7 +5869,7 @@
       <c r="B320" s="16"/>
       <c r="C320" s="19"/>
       <c r="D320" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,7 +5877,7 @@
       <c r="B321" s="16"/>
       <c r="C321" s="19"/>
       <c r="D321" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,7 +5885,7 @@
       <c r="B322" s="16"/>
       <c r="C322" s="19"/>
       <c r="D322" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,7 +5893,7 @@
       <c r="B323" s="16"/>
       <c r="C323" s="19"/>
       <c r="D323" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5874,7 +5901,7 @@
       <c r="B324" s="16"/>
       <c r="C324" s="19"/>
       <c r="D324" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,7 +5909,7 @@
       <c r="B325" s="2"/>
       <c r="C325" s="5"/>
       <c r="D325" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5890,7 +5917,7 @@
       <c r="B326" s="2"/>
       <c r="C326" s="5"/>
       <c r="D326" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,111 +5925,111 @@
       <c r="B327" s="2"/>
       <c r="C327" s="5"/>
       <c r="D327" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C328" s="10"/>
-      <c r="D328" s="11" t="s">
-        <v>619</v>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C329" s="10"/>
       <c r="D329" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="B330" s="9"/>
+        <v>687</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C330" s="10"/>
       <c r="D330" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>669</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="B332" s="9"/>
+        <v>687</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C332" s="10"/>
       <c r="D332" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="5"/>
-      <c r="D337" s="7" t="s">
-        <v>628</v>
+      <c r="A337" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B337" s="9"/>
+      <c r="C337" s="10"/>
+      <c r="D337" s="11" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6010,7 +6037,7 @@
       <c r="B338" s="2"/>
       <c r="C338" s="5"/>
       <c r="D338" s="7" t="s">
-        <v>150</v>
+        <v>627</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,7 +6045,7 @@
       <c r="B339" s="2"/>
       <c r="C339" s="5"/>
       <c r="D339" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,7 +6053,7 @@
       <c r="B340" s="2"/>
       <c r="C340" s="5"/>
       <c r="D340" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,7 +6061,7 @@
       <c r="B341" s="2"/>
       <c r="C341" s="5"/>
       <c r="D341" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,7 +6069,7 @@
       <c r="B342" s="2"/>
       <c r="C342" s="5"/>
       <c r="D342" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,7 +6077,7 @@
       <c r="B343" s="2"/>
       <c r="C343" s="5"/>
       <c r="D343" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,7 +6085,7 @@
       <c r="B344" s="2"/>
       <c r="C344" s="5"/>
       <c r="D344" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6066,7 +6093,7 @@
       <c r="B345" s="2"/>
       <c r="C345" s="5"/>
       <c r="D345" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,7 +6101,7 @@
       <c r="B346" s="2"/>
       <c r="C346" s="5"/>
       <c r="D346" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,7 +6117,7 @@
       <c r="B348" s="2"/>
       <c r="C348" s="5"/>
       <c r="D348" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6098,7 +6125,7 @@
       <c r="B349" s="2"/>
       <c r="C349" s="5"/>
       <c r="D349" s="7" t="s">
-        <v>629</v>
+        <v>159</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,7 +6133,7 @@
       <c r="B350" s="2"/>
       <c r="C350" s="5"/>
       <c r="D350" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,7 +6141,7 @@
       <c r="B351" s="2"/>
       <c r="C351" s="5"/>
       <c r="D351" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,7 +6149,7 @@
       <c r="B352" s="2"/>
       <c r="C352" s="5"/>
       <c r="D352" s="7" t="s">
-        <v>161</v>
+        <v>630</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,7 +6157,7 @@
       <c r="B353" s="2"/>
       <c r="C353" s="5"/>
       <c r="D353" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,7 +6165,7 @@
       <c r="B354" s="2"/>
       <c r="C354" s="5"/>
       <c r="D354" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,7 +6173,7 @@
       <c r="B355" s="2"/>
       <c r="C355" s="5"/>
       <c r="D355" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,7 +6181,7 @@
       <c r="B356" s="2"/>
       <c r="C356" s="5"/>
       <c r="D356" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,7 +6189,7 @@
       <c r="B357" s="2"/>
       <c r="C357" s="5"/>
       <c r="D357" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,7 +6197,7 @@
       <c r="B358" s="2"/>
       <c r="C358" s="5"/>
       <c r="D358" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,7 +6205,7 @@
       <c r="B359" s="2"/>
       <c r="C359" s="5"/>
       <c r="D359" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,129 +6213,129 @@
       <c r="B360" s="2"/>
       <c r="C360" s="5"/>
       <c r="D360" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B361" s="9"/>
-      <c r="C361" s="10"/>
-      <c r="D361" s="11" t="s">
-        <v>171</v>
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B364" s="9" t="s">
-        <v>670</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B365" s="9"/>
+        <v>688</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C365" s="10"/>
       <c r="D365" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>669</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="11" t="s">
-        <v>698</v>
+        <v>178</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="B371" s="9"/>
+        <v>688</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C371" s="10"/>
       <c r="D371" s="11" t="s">
-        <v>180</v>
+        <v>697</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="5"/>
-      <c r="D372" s="7" t="s">
-        <v>170</v>
+      <c r="A372" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B372" s="9"/>
+      <c r="C372" s="10"/>
+      <c r="D372" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,7 +6343,7 @@
       <c r="B373" s="2"/>
       <c r="C373" s="5"/>
       <c r="D373" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,7 +6351,7 @@
       <c r="B374" s="2"/>
       <c r="C374" s="5"/>
       <c r="D374" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6332,7 +6359,7 @@
       <c r="B375" s="2"/>
       <c r="C375" s="5"/>
       <c r="D375" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,7 +6367,7 @@
       <c r="B376" s="2"/>
       <c r="C376" s="5"/>
       <c r="D376" s="7" t="s">
-        <v>632</v>
+        <v>182</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,7 +6375,7 @@
       <c r="B377" s="2"/>
       <c r="C377" s="5"/>
       <c r="D377" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6356,7 +6383,7 @@
       <c r="B378" s="2"/>
       <c r="C378" s="5"/>
       <c r="D378" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,7 +6391,7 @@
       <c r="B379" s="2"/>
       <c r="C379" s="5"/>
       <c r="D379" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,7 +6399,7 @@
       <c r="B380" s="2"/>
       <c r="C380" s="5"/>
       <c r="D380" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6380,7 +6407,7 @@
       <c r="B381" s="2"/>
       <c r="C381" s="5"/>
       <c r="D381" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -6388,7 +6415,7 @@
       <c r="B382" s="2"/>
       <c r="C382" s="5"/>
       <c r="D382" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,7 +6423,7 @@
       <c r="B383" s="2"/>
       <c r="C383" s="5"/>
       <c r="D383" s="7" t="s">
-        <v>184</v>
+        <v>637</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,7 +6431,7 @@
       <c r="B384" s="2"/>
       <c r="C384" s="5"/>
       <c r="D384" s="7" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,7 +6439,7 @@
       <c r="B385" s="2"/>
       <c r="C385" s="5"/>
       <c r="D385" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -6420,7 +6447,7 @@
       <c r="B386" s="2"/>
       <c r="C386" s="5"/>
       <c r="D386" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6455,7 @@
       <c r="B387" s="2"/>
       <c r="C387" s="5"/>
       <c r="D387" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -6436,7 +6463,7 @@
       <c r="B388" s="2"/>
       <c r="C388" s="5"/>
       <c r="D388" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,7 +6471,7 @@
       <c r="B389" s="2"/>
       <c r="C389" s="5"/>
       <c r="D389" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,7 +6479,7 @@
       <c r="B390" s="2"/>
       <c r="C390" s="5"/>
       <c r="D390" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,7 +6487,7 @@
       <c r="B391" s="2"/>
       <c r="C391" s="5"/>
       <c r="D391" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -6468,7 +6495,7 @@
       <c r="B392" s="2"/>
       <c r="C392" s="5"/>
       <c r="D392" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,7 +6503,7 @@
       <c r="B393" s="2"/>
       <c r="C393" s="5"/>
       <c r="D393" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,7 +6511,7 @@
       <c r="B394" s="2"/>
       <c r="C394" s="5"/>
       <c r="D394" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,7 +6519,7 @@
       <c r="B395" s="2"/>
       <c r="C395" s="5"/>
       <c r="D395" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6500,7 +6527,7 @@
       <c r="B396" s="2"/>
       <c r="C396" s="5"/>
       <c r="D396" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,7 +6535,7 @@
       <c r="B397" s="2"/>
       <c r="C397" s="5"/>
       <c r="D397" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -6516,7 +6543,7 @@
       <c r="B398" s="2"/>
       <c r="C398" s="5"/>
       <c r="D398" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,7 +6551,7 @@
       <c r="B399" s="2"/>
       <c r="C399" s="5"/>
       <c r="D399" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -6532,7 +6559,7 @@
       <c r="B400" s="2"/>
       <c r="C400" s="5"/>
       <c r="D400" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,7 +6567,7 @@
       <c r="B401" s="2"/>
       <c r="C401" s="5"/>
       <c r="D401" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6548,7 +6575,7 @@
       <c r="B402" s="2"/>
       <c r="C402" s="5"/>
       <c r="D402" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6556,7 +6583,7 @@
       <c r="B403" s="2"/>
       <c r="C403" s="5"/>
       <c r="D403" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,7 +6591,7 @@
       <c r="B404" s="2"/>
       <c r="C404" s="5"/>
       <c r="D404" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,7 +6599,7 @@
       <c r="B405" s="2"/>
       <c r="C405" s="5"/>
       <c r="D405" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,7 +6607,7 @@
       <c r="B406" s="2"/>
       <c r="C406" s="5"/>
       <c r="D406" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,7 +6615,7 @@
       <c r="B407" s="2"/>
       <c r="C407" s="5"/>
       <c r="D407" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -6596,7 +6623,7 @@
       <c r="B408" s="2"/>
       <c r="C408" s="5"/>
       <c r="D408" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -6604,7 +6631,7 @@
       <c r="B409" s="2"/>
       <c r="C409" s="5"/>
       <c r="D409" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -6612,7 +6639,7 @@
       <c r="B410" s="2"/>
       <c r="C410" s="5"/>
       <c r="D410" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,7 +6647,7 @@
       <c r="B411" s="2"/>
       <c r="C411" s="5"/>
       <c r="D411" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,7 +6655,7 @@
       <c r="B412" s="2"/>
       <c r="C412" s="5"/>
       <c r="D412" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -6636,7 +6663,7 @@
       <c r="B413" s="2"/>
       <c r="C413" s="5"/>
       <c r="D413" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -6644,7 +6671,7 @@
       <c r="B414" s="2"/>
       <c r="C414" s="5"/>
       <c r="D414" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,7 +6679,7 @@
       <c r="B415" s="2"/>
       <c r="C415" s="5"/>
       <c r="D415" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -6660,7 +6687,7 @@
       <c r="B416" s="2"/>
       <c r="C416" s="5"/>
       <c r="D416" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,7 +6695,7 @@
       <c r="B417" s="2"/>
       <c r="C417" s="5"/>
       <c r="D417" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,7 +6703,7 @@
       <c r="B418" s="2"/>
       <c r="C418" s="5"/>
       <c r="D418" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,7 +6711,7 @@
       <c r="B419" s="2"/>
       <c r="C419" s="5"/>
       <c r="D419" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -6692,7 +6719,7 @@
       <c r="B420" s="2"/>
       <c r="C420" s="5"/>
       <c r="D420" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,7 +6727,7 @@
       <c r="B421" s="2"/>
       <c r="C421" s="5"/>
       <c r="D421" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -6708,7 +6735,7 @@
       <c r="B422" s="2"/>
       <c r="C422" s="5"/>
       <c r="D422" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -6716,7 +6743,7 @@
       <c r="B423" s="2"/>
       <c r="C423" s="5"/>
       <c r="D423" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -6724,7 +6751,7 @@
       <c r="B424" s="2"/>
       <c r="C424" s="5"/>
       <c r="D424" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -6732,7 +6759,7 @@
       <c r="B425" s="2"/>
       <c r="C425" s="5"/>
       <c r="D425" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -6740,7 +6767,7 @@
       <c r="B426" s="2"/>
       <c r="C426" s="5"/>
       <c r="D426" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -6748,7 +6775,7 @@
       <c r="B427" s="2"/>
       <c r="C427" s="5"/>
       <c r="D427" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,7 +6783,7 @@
       <c r="B428" s="2"/>
       <c r="C428" s="5"/>
       <c r="D428" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,7 +6791,7 @@
       <c r="B429" s="2"/>
       <c r="C429" s="5"/>
       <c r="D429" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -6772,7 +6799,7 @@
       <c r="B430" s="2"/>
       <c r="C430" s="5"/>
       <c r="D430" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,7 +6807,7 @@
       <c r="B431" s="2"/>
       <c r="C431" s="5"/>
       <c r="D431" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,7 +6815,7 @@
       <c r="B432" s="2"/>
       <c r="C432" s="5"/>
       <c r="D432" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -6796,7 +6823,7 @@
       <c r="B433" s="2"/>
       <c r="C433" s="5"/>
       <c r="D433" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,7 +6831,7 @@
       <c r="B434" s="2"/>
       <c r="C434" s="5"/>
       <c r="D434" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -6812,7 +6839,7 @@
       <c r="B435" s="2"/>
       <c r="C435" s="5"/>
       <c r="D435" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -6820,7 +6847,7 @@
       <c r="B436" s="2"/>
       <c r="C436" s="5"/>
       <c r="D436" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -6828,7 +6855,7 @@
       <c r="B437" s="2"/>
       <c r="C437" s="5"/>
       <c r="D437" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -6836,7 +6863,7 @@
       <c r="B438" s="2"/>
       <c r="C438" s="5"/>
       <c r="D438" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,7 +6871,7 @@
       <c r="B439" s="2"/>
       <c r="C439" s="5"/>
       <c r="D439" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,7 +6879,7 @@
       <c r="B440" s="2"/>
       <c r="C440" s="5"/>
       <c r="D440" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -6860,7 +6887,7 @@
       <c r="B441" s="2"/>
       <c r="C441" s="5"/>
       <c r="D441" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6868,7 +6895,7 @@
       <c r="B442" s="2"/>
       <c r="C442" s="5"/>
       <c r="D442" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -6876,7 +6903,7 @@
       <c r="B443" s="2"/>
       <c r="C443" s="5"/>
       <c r="D443" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6884,7 +6911,7 @@
       <c r="B444" s="2"/>
       <c r="C444" s="5"/>
       <c r="D444" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6892,7 +6919,7 @@
       <c r="B445" s="2"/>
       <c r="C445" s="5"/>
       <c r="D445" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,7 +6927,7 @@
       <c r="B446" s="2"/>
       <c r="C446" s="5"/>
       <c r="D446" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -6908,7 +6935,7 @@
       <c r="B447" s="2"/>
       <c r="C447" s="5"/>
       <c r="D447" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -6916,7 +6943,7 @@
       <c r="B448" s="2"/>
       <c r="C448" s="5"/>
       <c r="D448" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -6924,7 +6951,7 @@
       <c r="B449" s="2"/>
       <c r="C449" s="5"/>
       <c r="D449" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,7 +6959,7 @@
       <c r="B450" s="2"/>
       <c r="C450" s="5"/>
       <c r="D450" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -6940,7 +6967,7 @@
       <c r="B451" s="2"/>
       <c r="C451" s="5"/>
       <c r="D451" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -6948,7 +6975,7 @@
       <c r="B452" s="2"/>
       <c r="C452" s="5"/>
       <c r="D452" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,7 +6983,7 @@
       <c r="B453" s="2"/>
       <c r="C453" s="5"/>
       <c r="D453" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -6964,7 +6991,7 @@
       <c r="B454" s="2"/>
       <c r="C454" s="5"/>
       <c r="D454" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,7 +6999,7 @@
       <c r="B455" s="2"/>
       <c r="C455" s="5"/>
       <c r="D455" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -6980,7 +7007,7 @@
       <c r="B456" s="2"/>
       <c r="C456" s="5"/>
       <c r="D456" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -6988,7 +7015,7 @@
       <c r="B457" s="2"/>
       <c r="C457" s="5"/>
       <c r="D457" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -6996,7 +7023,7 @@
       <c r="B458" s="2"/>
       <c r="C458" s="5"/>
       <c r="D458" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,7 +7031,7 @@
       <c r="B459" s="2"/>
       <c r="C459" s="5"/>
       <c r="D459" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,7 +7039,7 @@
       <c r="B460" s="2"/>
       <c r="C460" s="5"/>
       <c r="D460" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,7 +7047,7 @@
       <c r="B461" s="2"/>
       <c r="C461" s="5"/>
       <c r="D461" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,7 +7055,7 @@
       <c r="B462" s="2"/>
       <c r="C462" s="5"/>
       <c r="D462" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -7036,7 +7063,7 @@
       <c r="B463" s="2"/>
       <c r="C463" s="5"/>
       <c r="D463" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,7 +7071,7 @@
       <c r="B464" s="2"/>
       <c r="C464" s="5"/>
       <c r="D464" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -7052,7 +7079,7 @@
       <c r="B465" s="2"/>
       <c r="C465" s="5"/>
       <c r="D465" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,7 +7087,7 @@
       <c r="B466" s="2"/>
       <c r="C466" s="5"/>
       <c r="D466" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,7 +7095,7 @@
       <c r="B467" s="2"/>
       <c r="C467" s="5"/>
       <c r="D467" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -7076,7 +7103,7 @@
       <c r="B468" s="2"/>
       <c r="C468" s="5"/>
       <c r="D468" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -7084,7 +7111,7 @@
       <c r="B469" s="2"/>
       <c r="C469" s="5"/>
       <c r="D469" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -7092,7 +7119,7 @@
       <c r="B470" s="2"/>
       <c r="C470" s="5"/>
       <c r="D470" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -7100,7 +7127,7 @@
       <c r="B471" s="2"/>
       <c r="C471" s="5"/>
       <c r="D471" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -7108,7 +7135,7 @@
       <c r="B472" s="2"/>
       <c r="C472" s="5"/>
       <c r="D472" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -7116,7 +7143,7 @@
       <c r="B473" s="2"/>
       <c r="C473" s="5"/>
       <c r="D473" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,7 +7151,7 @@
       <c r="B474" s="2"/>
       <c r="C474" s="5"/>
       <c r="D474" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -7132,7 +7159,7 @@
       <c r="B475" s="2"/>
       <c r="C475" s="5"/>
       <c r="D475" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -7140,7 +7167,7 @@
       <c r="B476" s="2"/>
       <c r="C476" s="5"/>
       <c r="D476" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,7 +7175,7 @@
       <c r="B477" s="2"/>
       <c r="C477" s="5"/>
       <c r="D477" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,7 +7183,7 @@
       <c r="B478" s="2"/>
       <c r="C478" s="5"/>
       <c r="D478" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,7 +7191,7 @@
       <c r="B479" s="2"/>
       <c r="C479" s="5"/>
       <c r="D479" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -7172,7 +7199,7 @@
       <c r="B480" s="2"/>
       <c r="C480" s="5"/>
       <c r="D480" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,7 +7207,7 @@
       <c r="B481" s="2"/>
       <c r="C481" s="5"/>
       <c r="D481" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -7188,7 +7215,7 @@
       <c r="B482" s="2"/>
       <c r="C482" s="5"/>
       <c r="D482" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,7 +7223,7 @@
       <c r="B483" s="2"/>
       <c r="C483" s="5"/>
       <c r="D483" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -7204,7 +7231,7 @@
       <c r="B484" s="2"/>
       <c r="C484" s="5"/>
       <c r="D484" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -7212,7 +7239,7 @@
       <c r="B485" s="2"/>
       <c r="C485" s="5"/>
       <c r="D485" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -7220,7 +7247,7 @@
       <c r="B486" s="2"/>
       <c r="C486" s="5"/>
       <c r="D486" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -7228,7 +7255,7 @@
       <c r="B487" s="2"/>
       <c r="C487" s="5"/>
       <c r="D487" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,7 +7263,7 @@
       <c r="B488" s="2"/>
       <c r="C488" s="5"/>
       <c r="D488" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -7244,7 +7271,7 @@
       <c r="B489" s="2"/>
       <c r="C489" s="5"/>
       <c r="D489" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -7252,7 +7279,7 @@
       <c r="B490" s="2"/>
       <c r="C490" s="5"/>
       <c r="D490" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -7260,7 +7287,7 @@
       <c r="B491" s="2"/>
       <c r="C491" s="5"/>
       <c r="D491" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -7268,7 +7295,7 @@
       <c r="B492" s="2"/>
       <c r="C492" s="5"/>
       <c r="D492" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -7276,7 +7303,7 @@
       <c r="B493" s="2"/>
       <c r="C493" s="5"/>
       <c r="D493" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,7 +7311,7 @@
       <c r="B494" s="2"/>
       <c r="C494" s="5"/>
       <c r="D494" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,7 +7319,7 @@
       <c r="B495" s="2"/>
       <c r="C495" s="5"/>
       <c r="D495" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -7300,7 +7327,7 @@
       <c r="B496" s="2"/>
       <c r="C496" s="5"/>
       <c r="D496" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,7 +7335,7 @@
       <c r="B497" s="2"/>
       <c r="C497" s="5"/>
       <c r="D497" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -7316,7 +7343,7 @@
       <c r="B498" s="2"/>
       <c r="C498" s="5"/>
       <c r="D498" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,7 +7351,7 @@
       <c r="B499" s="2"/>
       <c r="C499" s="5"/>
       <c r="D499" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,7 +7359,7 @@
       <c r="B500" s="2"/>
       <c r="C500" s="5"/>
       <c r="D500" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -7340,7 +7367,7 @@
       <c r="B501" s="2"/>
       <c r="C501" s="5"/>
       <c r="D501" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,7 +7375,7 @@
       <c r="B502" s="2"/>
       <c r="C502" s="5"/>
       <c r="D502" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,7 +7383,7 @@
       <c r="B503" s="2"/>
       <c r="C503" s="5"/>
       <c r="D503" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -7364,7 +7391,7 @@
       <c r="B504" s="2"/>
       <c r="C504" s="5"/>
       <c r="D504" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -7372,7 +7399,7 @@
       <c r="B505" s="2"/>
       <c r="C505" s="5"/>
       <c r="D505" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -7380,7 +7407,7 @@
       <c r="B506" s="2"/>
       <c r="C506" s="5"/>
       <c r="D506" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -7388,7 +7415,7 @@
       <c r="B507" s="2"/>
       <c r="C507" s="5"/>
       <c r="D507" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -7396,7 +7423,7 @@
       <c r="B508" s="2"/>
       <c r="C508" s="5"/>
       <c r="D508" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -7404,7 +7431,7 @@
       <c r="B509" s="2"/>
       <c r="C509" s="5"/>
       <c r="D509" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -7412,7 +7439,7 @@
       <c r="B510" s="2"/>
       <c r="C510" s="5"/>
       <c r="D510" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -7420,7 +7447,7 @@
       <c r="B511" s="2"/>
       <c r="C511" s="5"/>
       <c r="D511" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,7 +7455,7 @@
       <c r="B512" s="2"/>
       <c r="C512" s="5"/>
       <c r="D512" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -7436,7 +7463,7 @@
       <c r="B513" s="2"/>
       <c r="C513" s="5"/>
       <c r="D513" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -7444,7 +7471,7 @@
       <c r="B514" s="2"/>
       <c r="C514" s="5"/>
       <c r="D514" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -7452,7 +7479,7 @@
       <c r="B515" s="2"/>
       <c r="C515" s="5"/>
       <c r="D515" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,7 +7487,7 @@
       <c r="B516" s="2"/>
       <c r="C516" s="5"/>
       <c r="D516" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -7468,7 +7495,7 @@
       <c r="B517" s="2"/>
       <c r="C517" s="5"/>
       <c r="D517" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,7 +7503,7 @@
       <c r="B518" s="2"/>
       <c r="C518" s="5"/>
       <c r="D518" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -7484,7 +7511,7 @@
       <c r="B519" s="2"/>
       <c r="C519" s="5"/>
       <c r="D519" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -7492,7 +7519,7 @@
       <c r="B520" s="2"/>
       <c r="C520" s="5"/>
       <c r="D520" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,7 +7527,7 @@
       <c r="B521" s="2"/>
       <c r="C521" s="5"/>
       <c r="D521" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -7508,7 +7535,7 @@
       <c r="B522" s="2"/>
       <c r="C522" s="5"/>
       <c r="D522" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -7516,7 +7543,7 @@
       <c r="B523" s="2"/>
       <c r="C523" s="5"/>
       <c r="D523" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,7 +7551,7 @@
       <c r="B524" s="2"/>
       <c r="C524" s="5"/>
       <c r="D524" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,7 +7559,7 @@
       <c r="B525" s="16"/>
       <c r="C525" s="16"/>
       <c r="D525" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,7 +7567,7 @@
       <c r="B526" s="2"/>
       <c r="C526" s="5"/>
       <c r="D526" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,7 +7575,7 @@
       <c r="B527" s="2"/>
       <c r="C527" s="5"/>
       <c r="D527" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -7556,7 +7583,7 @@
       <c r="B528" s="2"/>
       <c r="C528" s="5"/>
       <c r="D528" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -7564,7 +7591,7 @@
       <c r="B529" s="2"/>
       <c r="C529" s="5"/>
       <c r="D529" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,7 +7599,7 @@
       <c r="B530" s="2"/>
       <c r="C530" s="5"/>
       <c r="D530" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -7580,7 +7607,7 @@
       <c r="B531" s="2"/>
       <c r="C531" s="5"/>
       <c r="D531" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,7 +7615,7 @@
       <c r="B532" s="2"/>
       <c r="C532" s="5"/>
       <c r="D532" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,7 +7623,7 @@
       <c r="B533" s="2"/>
       <c r="C533" s="5"/>
       <c r="D533" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -7604,7 +7631,7 @@
       <c r="B534" s="2"/>
       <c r="C534" s="5"/>
       <c r="D534" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -7612,7 +7639,7 @@
       <c r="B535" s="2"/>
       <c r="C535" s="5"/>
       <c r="D535" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -7620,7 +7647,7 @@
       <c r="B536" s="2"/>
       <c r="C536" s="5"/>
       <c r="D536" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -7628,7 +7655,7 @@
       <c r="B537" s="2"/>
       <c r="C537" s="5"/>
       <c r="D537" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,7 +7663,7 @@
       <c r="B538" s="2"/>
       <c r="C538" s="5"/>
       <c r="D538" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,7 +7671,7 @@
       <c r="B539" s="2"/>
       <c r="C539" s="5"/>
       <c r="D539" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -7652,7 +7679,7 @@
       <c r="B540" s="2"/>
       <c r="C540" s="5"/>
       <c r="D540" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -7660,7 +7687,7 @@
       <c r="B541" s="2"/>
       <c r="C541" s="5"/>
       <c r="D541" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -7668,231 +7695,231 @@
       <c r="B542" s="2"/>
       <c r="C542" s="5"/>
       <c r="D542" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C543" s="10"/>
       <c r="D543" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B544" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C544" s="17"/>
       <c r="D544" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B545" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C545" s="17"/>
       <c r="D545" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B546" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C546" s="10"/>
       <c r="D546" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B547" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C547" s="10"/>
       <c r="D547" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C548" s="10"/>
       <c r="D548" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B549" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C549" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D549" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B550" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C550" s="18"/>
       <c r="D550" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B551" s="15"/>
       <c r="C551" s="18"/>
       <c r="D551" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B552" s="15"/>
       <c r="C552" s="18"/>
       <c r="D552" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B553" s="15"/>
       <c r="C553" s="18"/>
       <c r="D553" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B554" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C554" s="18"/>
       <c r="D554" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B555" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C555" s="18"/>
       <c r="D555" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B556" s="15"/>
       <c r="C556" s="18"/>
       <c r="D556" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B557" s="15"/>
       <c r="C557" s="18"/>
       <c r="D557" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B558" s="15"/>
       <c r="C558" s="18"/>
       <c r="D558" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B559" s="15"/>
       <c r="C559" s="18"/>
       <c r="D559" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B560" s="15"/>
       <c r="C560" s="18"/>
       <c r="D560" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B561" s="15"/>
       <c r="C561" s="18"/>
       <c r="D561" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B562" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C562" s="18"/>
       <c r="D562" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,7 +7927,7 @@
       <c r="B563" s="2"/>
       <c r="C563" s="5"/>
       <c r="D563" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,7 +7935,7 @@
       <c r="B564" s="2"/>
       <c r="C564" s="5"/>
       <c r="D564" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -7916,7 +7943,7 @@
       <c r="B565" s="2"/>
       <c r="C565" s="5"/>
       <c r="D565" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -7924,7 +7951,7 @@
       <c r="B566" s="2"/>
       <c r="C566" s="5"/>
       <c r="D566" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,7 +7959,7 @@
       <c r="B567" s="2"/>
       <c r="C567" s="5"/>
       <c r="D567" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -7940,7 +7967,7 @@
       <c r="B568" s="2"/>
       <c r="C568" s="5"/>
       <c r="D568" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -7948,7 +7975,7 @@
       <c r="B569" s="16"/>
       <c r="C569" s="16"/>
       <c r="D569" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,7 +7983,7 @@
       <c r="B570" s="16"/>
       <c r="C570" s="16"/>
       <c r="D570" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -7964,7 +7991,7 @@
       <c r="B571" s="16"/>
       <c r="C571" s="16"/>
       <c r="D571" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,7 +7999,7 @@
       <c r="B572" s="16"/>
       <c r="C572" s="16"/>
       <c r="D572" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -7980,7 +8007,7 @@
       <c r="B573" s="16"/>
       <c r="C573" s="16"/>
       <c r="D573" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,7 +8015,7 @@
       <c r="B574" s="16"/>
       <c r="C574" s="16"/>
       <c r="D574" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,7 +8023,7 @@
       <c r="B575" s="16"/>
       <c r="C575" s="16"/>
       <c r="D575" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,7 +8031,7 @@
       <c r="B576" s="16"/>
       <c r="C576" s="16"/>
       <c r="D576" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -8012,7 +8039,7 @@
       <c r="B577" s="16"/>
       <c r="C577" s="16"/>
       <c r="D577" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,7 +8047,7 @@
       <c r="B578" s="16"/>
       <c r="C578" s="16"/>
       <c r="D578" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -8028,7 +8055,7 @@
       <c r="B579" s="16"/>
       <c r="C579" s="16"/>
       <c r="D579" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -8036,7 +8063,7 @@
       <c r="B580" s="16"/>
       <c r="C580" s="16"/>
       <c r="D580" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,7 +8071,7 @@
       <c r="B581" s="16"/>
       <c r="C581" s="16"/>
       <c r="D581" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -8052,7 +8079,7 @@
       <c r="B582" s="16"/>
       <c r="C582" s="16"/>
       <c r="D582" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -8060,7 +8087,7 @@
       <c r="B583" s="16"/>
       <c r="C583" s="16"/>
       <c r="D583" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -8068,7 +8095,7 @@
       <c r="B584" s="16"/>
       <c r="C584" s="16"/>
       <c r="D584" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,7 +8103,7 @@
       <c r="B585" s="16"/>
       <c r="C585" s="16"/>
       <c r="D585" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -8084,7 +8111,7 @@
       <c r="B586" s="16"/>
       <c r="C586" s="16"/>
       <c r="D586" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -8092,7 +8119,7 @@
       <c r="B587" s="16"/>
       <c r="C587" s="16"/>
       <c r="D587" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,7 +8127,7 @@
       <c r="B588" s="16"/>
       <c r="C588" s="16"/>
       <c r="D588" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -8108,7 +8135,7 @@
       <c r="B589" s="16"/>
       <c r="C589" s="16"/>
       <c r="D589" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -8116,7 +8143,7 @@
       <c r="B590" s="16"/>
       <c r="C590" s="16"/>
       <c r="D590" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -8124,7 +8151,7 @@
       <c r="B591" s="16"/>
       <c r="C591" s="16"/>
       <c r="D591" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,7 +8159,7 @@
       <c r="B592" s="2"/>
       <c r="C592" s="5"/>
       <c r="D592" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -8140,7 +8167,7 @@
       <c r="B593" s="2"/>
       <c r="C593" s="5"/>
       <c r="D593" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -8148,7 +8175,7 @@
       <c r="B594" s="2"/>
       <c r="C594" s="5"/>
       <c r="D594" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -8156,7 +8183,7 @@
       <c r="B595" s="2"/>
       <c r="C595" s="5"/>
       <c r="D595" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,7 +8191,7 @@
       <c r="B596" s="2"/>
       <c r="C596" s="5"/>
       <c r="D596" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,7 +8199,7 @@
       <c r="B597" s="2"/>
       <c r="C597" s="5"/>
       <c r="D597" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -8180,7 +8207,7 @@
       <c r="B598" s="2"/>
       <c r="C598" s="5"/>
       <c r="D598" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,7 +8215,7 @@
       <c r="B599" s="2"/>
       <c r="C599" s="5"/>
       <c r="D599" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,7 +8223,7 @@
       <c r="B600" s="2"/>
       <c r="C600" s="5"/>
       <c r="D600" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,7 +8231,7 @@
       <c r="B601" s="2"/>
       <c r="C601" s="5"/>
       <c r="D601" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,7 +8239,7 @@
       <c r="B602" s="2"/>
       <c r="C602" s="5"/>
       <c r="D602" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -8220,7 +8247,7 @@
       <c r="B603" s="2"/>
       <c r="C603" s="5"/>
       <c r="D603" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -8228,7 +8255,7 @@
       <c r="B604" s="2"/>
       <c r="C604" s="5"/>
       <c r="D604" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -8236,7 +8263,7 @@
       <c r="B605" s="2"/>
       <c r="C605" s="5"/>
       <c r="D605" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,7 +8271,7 @@
       <c r="B606" s="2"/>
       <c r="C606" s="5"/>
       <c r="D606" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,89 +8279,89 @@
       <c r="B607" s="2"/>
       <c r="C607" s="5"/>
       <c r="D607" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B608" s="9"/>
       <c r="C608" s="10"/>
       <c r="D608" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B609" s="9"/>
       <c r="C609" s="10"/>
       <c r="D609" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B610" s="9"/>
       <c r="C610" s="10"/>
       <c r="D610" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B611" s="9"/>
       <c r="C611" s="10"/>
       <c r="D611" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B612" s="9"/>
       <c r="C612" s="10"/>
       <c r="D612" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B613" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C613" s="10"/>
       <c r="D613" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B614" s="9"/>
       <c r="C614" s="10"/>
       <c r="D614" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B615" s="9"/>
       <c r="C615" s="10"/>
       <c r="D615" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -8342,7 +8369,7 @@
       <c r="B616" s="2"/>
       <c r="C616" s="5"/>
       <c r="D616" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -8350,7 +8377,7 @@
       <c r="B617" s="2"/>
       <c r="C617" s="5"/>
       <c r="D617" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,7 +8385,7 @@
       <c r="B618" s="2"/>
       <c r="C618" s="5"/>
       <c r="D618" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -8366,7 +8393,7 @@
       <c r="B619" s="2"/>
       <c r="C619" s="5"/>
       <c r="D619" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -8374,7 +8401,7 @@
       <c r="B620" s="2"/>
       <c r="C620" s="5"/>
       <c r="D620" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -8382,7 +8409,7 @@
       <c r="B621" s="2"/>
       <c r="C621" s="5"/>
       <c r="D621" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -8390,7 +8417,7 @@
       <c r="B622" s="2"/>
       <c r="C622" s="5"/>
       <c r="D622" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -8398,7 +8425,7 @@
       <c r="B623" s="2"/>
       <c r="C623" s="5"/>
       <c r="D623" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,7 +8433,7 @@
       <c r="B624" s="2"/>
       <c r="C624" s="5"/>
       <c r="D624" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,7 +8441,7 @@
       <c r="B625" s="2"/>
       <c r="C625" s="5"/>
       <c r="D625" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,7 +8449,7 @@
       <c r="B626" s="2"/>
       <c r="C626" s="5"/>
       <c r="D626" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -8430,7 +8457,7 @@
       <c r="B627" s="2"/>
       <c r="C627" s="5"/>
       <c r="D627" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -8438,7 +8465,7 @@
       <c r="B628" s="2"/>
       <c r="C628" s="5"/>
       <c r="D628" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,7 +8473,7 @@
       <c r="B629" s="2"/>
       <c r="C629" s="5"/>
       <c r="D629" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,35 +8481,35 @@
       <c r="B630" s="2"/>
       <c r="C630" s="5"/>
       <c r="D630" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B631" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D631" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D632" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,7 +8517,7 @@
       <c r="B633" s="2"/>
       <c r="C633" s="5"/>
       <c r="D633" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -8498,7 +8525,7 @@
       <c r="B634" s="2"/>
       <c r="C634" s="5"/>
       <c r="D634" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,7 +8533,7 @@
       <c r="B635" s="2"/>
       <c r="C635" s="5"/>
       <c r="D635" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
@@ -8514,7 +8541,7 @@
       <c r="B636" s="2"/>
       <c r="C636" s="5"/>
       <c r="D636" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
@@ -8522,7 +8549,7 @@
       <c r="B637" s="2"/>
       <c r="C637" s="5"/>
       <c r="D637" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
@@ -8530,7 +8557,7 @@
       <c r="B638" s="2"/>
       <c r="C638" s="5"/>
       <c r="D638" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,7 +8565,7 @@
       <c r="B639" s="2"/>
       <c r="C639" s="5"/>
       <c r="D639" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -8546,7 +8573,7 @@
       <c r="B640" s="2"/>
       <c r="C640" s="5"/>
       <c r="D640" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
@@ -8554,7 +8581,7 @@
       <c r="B641" s="2"/>
       <c r="C641" s="5"/>
       <c r="D641" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
@@ -8562,7 +8589,7 @@
       <c r="B642" s="2"/>
       <c r="C642" s="5"/>
       <c r="D642" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
@@ -8570,7 +8597,7 @@
       <c r="B643" s="2"/>
       <c r="C643" s="5"/>
       <c r="D643" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,7 +8605,7 @@
       <c r="B644" s="2"/>
       <c r="C644" s="5"/>
       <c r="D644" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
@@ -8586,7 +8613,7 @@
       <c r="B645" s="2"/>
       <c r="C645" s="5"/>
       <c r="D645" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
@@ -8594,7 +8621,7 @@
       <c r="B646" s="2"/>
       <c r="C646" s="5"/>
       <c r="D646" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
@@ -8602,7 +8629,7 @@
       <c r="B647" s="2"/>
       <c r="C647" s="5"/>
       <c r="D647" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -8610,7 +8637,7 @@
       <c r="B648" s="2"/>
       <c r="C648" s="5"/>
       <c r="D648" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
@@ -8618,7 +8645,7 @@
       <c r="B649" s="2"/>
       <c r="C649" s="5"/>
       <c r="D649" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,7 +8653,7 @@
       <c r="B650" s="2"/>
       <c r="C650" s="5"/>
       <c r="D650" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,7 +8661,7 @@
       <c r="B651" s="2"/>
       <c r="C651" s="5"/>
       <c r="D651" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
@@ -8642,7 +8669,7 @@
       <c r="B652" s="2"/>
       <c r="C652" s="5"/>
       <c r="D652" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,7 +8677,7 @@
       <c r="B653" s="2"/>
       <c r="C653" s="5"/>
       <c r="D653" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
@@ -8658,75 +8685,75 @@
       <c r="B654" s="2"/>
       <c r="C654" s="5"/>
       <c r="D654" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C655" s="10"/>
       <c r="D655" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B656" s="9"/>
       <c r="C656" s="10"/>
       <c r="D656" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C657" s="10"/>
       <c r="D657" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B658" s="9"/>
       <c r="C658" s="10"/>
       <c r="D658" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B659" s="9"/>
       <c r="C659" s="10"/>
       <c r="D659" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B660" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C660" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="D660" s="11" t="s">
         <v>690</v>
-      </c>
-      <c r="B660" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C660" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="D660" s="11" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
@@ -8734,7 +8761,7 @@
       <c r="B661" s="2"/>
       <c r="C661" s="5"/>
       <c r="D661" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
@@ -8742,7 +8769,7 @@
       <c r="B662" s="2"/>
       <c r="C662" s="5"/>
       <c r="D662" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
@@ -8750,79 +8777,79 @@
       <c r="B663" s="2"/>
       <c r="C663" s="5"/>
       <c r="D663" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C664" s="10"/>
       <c r="D664" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B665" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C665" s="10"/>
       <c r="D665" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C666" s="10"/>
       <c r="D666" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B667" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C667" s="10"/>
       <c r="D667" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C668" s="10"/>
       <c r="D668" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B669" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C669" s="10"/>
       <c r="D669" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="711">
   <si>
     <t>Function</t>
   </si>
@@ -2126,6 +2126,27 @@
   </si>
   <si>
     <t>sub/bad regs</t>
+  </si>
+  <si>
+    <t>TEdgeSegment</t>
+  </si>
+  <si>
+    <t>Tline</t>
+  </si>
+  <si>
+    <t>TCircle</t>
+  </si>
+  <si>
+    <t>TCollisionComponent</t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>inp</t>
   </si>
 </sst>
 </file>
@@ -2669,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,15 +2710,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:151</v>
+        <v>Done:174</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:5</v>
+        <v>Inp:7</v>
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:20</v>
+        <v>Classes:26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,10 +3270,14 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7" t="s">
+      <c r="A56" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11" t="s">
         <v>454</v>
       </c>
     </row>
@@ -4179,10 +4204,14 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="7" t="s">
+      <c r="A151" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="11" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4283,10 +4312,14 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="7" t="s">
+      <c r="A164" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="11" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4539,10 +4572,14 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="7" t="s">
+      <c r="A189" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C189" s="10"/>
+      <c r="D189" s="11" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4761,10 +4798,14 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="7" t="s">
+      <c r="A213" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="11" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5276,7 +5317,9 @@
       <c r="A259" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B259" s="15"/>
+      <c r="B259" s="15" t="s">
+        <v>669</v>
+      </c>
       <c r="C259" s="18"/>
       <c r="D259" s="12" t="s">
         <v>576</v>
@@ -5461,58 +5504,86 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="7" t="s">
+      <c r="A278" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C278" s="21"/>
+      <c r="D278" s="22" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="5"/>
-      <c r="D279" s="7" t="s">
+      <c r="A279" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B279" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C279" s="21"/>
+      <c r="D279" s="22" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="5"/>
-      <c r="D280" s="7" t="s">
+      <c r="A280" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B280" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C280" s="21"/>
+      <c r="D280" s="22" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="7" t="s">
+      <c r="A281" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C281" s="21"/>
+      <c r="D281" s="22" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="5"/>
-      <c r="D282" s="7" t="s">
+      <c r="A282" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B282" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C282" s="21"/>
+      <c r="D282" s="22" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="5"/>
-      <c r="D283" s="7" t="s">
+      <c r="A283" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C283" s="10"/>
+      <c r="D283" s="11" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="5"/>
-      <c r="D284" s="7" t="s">
+      <c r="A284" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C284" s="10"/>
+      <c r="D284" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -6651,74 +6722,102 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="7" t="s">
+      <c r="A412" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B412" s="9"/>
+      <c r="C412" s="10"/>
+      <c r="D412" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="7" t="s">
+      <c r="A413" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C413" s="10"/>
+      <c r="D413" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="7" t="s">
+      <c r="A414" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B414" s="9"/>
+      <c r="C414" s="10"/>
+      <c r="D414" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="7" t="s">
+      <c r="A415" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C415" s="10"/>
+      <c r="D415" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="7" t="s">
+      <c r="A416" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B416" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C416" s="21"/>
+      <c r="D416" s="22" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="7" t="s">
+      <c r="A417" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B417" s="21"/>
+      <c r="C417" s="21"/>
+      <c r="D417" s="22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="7" t="s">
+      <c r="A418" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B418" s="21"/>
+      <c r="C418" s="21"/>
+      <c r="D418" s="22" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="7" t="s">
+      <c r="A419" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B419" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C419" s="21"/>
+      <c r="D419" s="22" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="7" t="s">
+      <c r="A420" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B420" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C420" s="21"/>
+      <c r="D420" s="22" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6987,10 +7086,14 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="5"/>
-      <c r="D454" s="7" t="s">
+      <c r="A454" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B454" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C454" s="10"/>
+      <c r="D454" s="11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7251,42 +7354,54 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="5"/>
-      <c r="D487" s="7" t="s">
+      <c r="A487" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B487" s="9"/>
+      <c r="C487" s="10"/>
+      <c r="D487" s="11" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="C488" s="5"/>
-      <c r="D488" s="7" t="s">
+      <c r="A488" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B488" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C488" s="10"/>
+      <c r="D488" s="11" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="5"/>
-      <c r="D489" s="7" t="s">
+      <c r="A489" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B489" s="9"/>
+      <c r="C489" s="10"/>
+      <c r="D489" s="11" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="C490" s="5"/>
-      <c r="D490" s="7" t="s">
+      <c r="A490" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B490" s="9"/>
+      <c r="C490" s="10"/>
+      <c r="D490" s="11" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="C491" s="5"/>
-      <c r="D491" s="7" t="s">
+      <c r="A491" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B491" s="9"/>
+      <c r="C491" s="10"/>
+      <c r="D491" s="11" t="s">
         <v>652</v>
       </c>
     </row>
@@ -7611,50 +7726,70 @@
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
-      <c r="C532" s="5"/>
-      <c r="D532" s="7" t="s">
+      <c r="A532" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B532" s="9"/>
+      <c r="C532" s="10"/>
+      <c r="D532" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
-      <c r="C533" s="5"/>
-      <c r="D533" s="7" t="s">
+      <c r="A533" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C533" s="10"/>
+      <c r="D533" s="11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
-      <c r="C534" s="5"/>
-      <c r="D534" s="7" t="s">
+      <c r="A534" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B534" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C534" s="10"/>
+      <c r="D534" s="11" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
-      <c r="C535" s="5"/>
-      <c r="D535" s="7" t="s">
+      <c r="A535" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B535" s="9"/>
+      <c r="C535" s="10"/>
+      <c r="D535" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-      <c r="C536" s="5"/>
-      <c r="D536" s="7" t="s">
+      <c r="A536" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C536" s="10"/>
+      <c r="D536" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-      <c r="C537" s="5"/>
-      <c r="D537" s="7" t="s">
+      <c r="A537" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C537" s="10"/>
+      <c r="D537" s="11" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7874,7 +8009,9 @@
       <c r="A558" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B558" s="15"/>
+      <c r="B558" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C558" s="18"/>
       <c r="D558" s="12" t="s">
         <v>339</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="711">
   <si>
     <t>Function</t>
   </si>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B487" sqref="B487"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:174</v>
+        <v>Done:189</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:7</v>
+        <v>Inp:6</v>
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -4100,10 +4100,14 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="7" t="s">
+      <c r="A138" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="11" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4232,10 +4236,14 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="7" t="s">
+      <c r="A154" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4692,7 +4700,7 @@
         <v>681</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>689</v>
@@ -5005,7 +5013,9 @@
       <c r="A231" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B231" s="9"/>
+      <c r="B231" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C231" s="10"/>
       <c r="D231" s="11" t="s">
         <v>549</v>
@@ -5027,7 +5037,9 @@
       <c r="A233" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B233" s="9"/>
+      <c r="B233" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C233" s="10"/>
       <c r="D233" s="11" t="s">
         <v>551</v>
@@ -5109,7 +5121,9 @@
       <c r="A240" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B240" s="9"/>
+      <c r="B240" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C240" s="10"/>
       <c r="D240" s="11" t="s">
         <v>558</v>
@@ -5329,7 +5343,9 @@
       <c r="A260" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B260" s="15"/>
+      <c r="B260" s="15" t="s">
+        <v>669</v>
+      </c>
       <c r="C260" s="18"/>
       <c r="D260" s="12" t="s">
         <v>577</v>
@@ -5339,7 +5355,9 @@
       <c r="A261" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B261" s="15"/>
+      <c r="B261" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C261" s="18"/>
       <c r="D261" s="12" t="s">
         <v>578</v>
@@ -5359,7 +5377,9 @@
       <c r="A263" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B263" s="15"/>
+      <c r="B263" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C263" s="18"/>
       <c r="D263" s="12" t="s">
         <v>580</v>
@@ -5379,7 +5399,9 @@
       <c r="A265" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B265" s="15"/>
+      <c r="B265" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C265" s="18"/>
       <c r="D265" s="12" t="s">
         <v>582</v>
@@ -5401,7 +5423,9 @@
       <c r="A267" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B267" s="15"/>
+      <c r="B267" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C267" s="18"/>
       <c r="D267" s="12" t="s">
         <v>584</v>
@@ -5473,7 +5497,9 @@
       <c r="A274" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="B274" s="15"/>
+      <c r="B274" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="C274" s="18"/>
       <c r="D274" s="12" t="s">
         <v>591</v>
@@ -8830,7 +8856,7 @@
         <v>689</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C655" s="10"/>
       <c r="D655" s="11" t="s">
@@ -8841,7 +8867,9 @@
       <c r="A656" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B656" s="9"/>
+      <c r="B656" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C656" s="10"/>
       <c r="D656" s="11" t="s">
         <v>658</v>
@@ -8852,7 +8880,7 @@
         <v>689</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C657" s="10"/>
       <c r="D657" s="11" t="s">
@@ -8863,7 +8891,9 @@
       <c r="A658" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B658" s="9"/>
+      <c r="B658" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C658" s="10"/>
       <c r="D658" s="11" t="s">
         <v>660</v>
@@ -8873,7 +8903,9 @@
       <c r="A659" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B659" s="9"/>
+      <c r="B659" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C659" s="10"/>
       <c r="D659" s="11" t="s">
         <v>661</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="712">
   <si>
     <t>Function</t>
   </si>
@@ -2147,6 +2147,9 @@
   </si>
   <si>
     <t>inp</t>
+  </si>
+  <si>
+    <t>TTextBoxMessage</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2694,7 @@
   <dimension ref="A1:D669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,15 +2713,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:189</v>
+        <v>Done:200</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:6</v>
+        <v>Inp:7</v>
       </c>
       <c r="D1" s="8" t="str">
         <f t="array" ref="D1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:26</v>
+        <v>Classes:27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,10 +4087,14 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="7" t="s">
+      <c r="A136" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="11" t="s">
         <v>492</v>
       </c>
     </row>
@@ -8449,7 +8456,9 @@
       <c r="A608" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B608" s="9"/>
+      <c r="B608" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C608" s="10"/>
       <c r="D608" s="11" t="s">
         <v>395</v>
@@ -8459,7 +8468,9 @@
       <c r="A609" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B609" s="9"/>
+      <c r="B609" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C609" s="10"/>
       <c r="D609" s="11" t="s">
         <v>396</v>
@@ -8469,7 +8480,9 @@
       <c r="A610" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B610" s="9"/>
+      <c r="B610" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C610" s="10"/>
       <c r="D610" s="11" t="s">
         <v>389</v>
@@ -8479,7 +8492,9 @@
       <c r="A611" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B611" s="9"/>
+      <c r="B611" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C611" s="10"/>
       <c r="D611" s="11" t="s">
         <v>390</v>
@@ -8489,7 +8504,9 @@
       <c r="A612" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B612" s="9"/>
+      <c r="B612" s="9" t="s">
+        <v>669</v>
+      </c>
       <c r="C612" s="10"/>
       <c r="D612" s="11" t="s">
         <v>391</v>
@@ -8511,7 +8528,9 @@
       <c r="A614" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B614" s="9"/>
+      <c r="B614" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C614" s="10"/>
       <c r="D614" s="11" t="s">
         <v>394</v>
@@ -8521,41 +8540,59 @@
       <c r="A615" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B615" s="9"/>
+      <c r="B615" s="9" t="s">
+        <v>668</v>
+      </c>
       <c r="C615" s="10"/>
       <c r="D615" s="11" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
-      <c r="C616" s="5"/>
-      <c r="D616" s="7" t="s">
+      <c r="A616" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B616" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C616" s="21"/>
+      <c r="D616" s="22" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
-      <c r="C617" s="5"/>
-      <c r="D617" s="7" t="s">
+      <c r="A617" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B617" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C617" s="21"/>
+      <c r="D617" s="22" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
-      <c r="C618" s="5"/>
-      <c r="D618" s="7" t="s">
+      <c r="A618" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B618" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C618" s="21"/>
+      <c r="D618" s="22" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
-      <c r="C619" s="5"/>
-      <c r="D619" s="7" t="s">
+      <c r="A619" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B619" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C619" s="21"/>
+      <c r="D619" s="22" t="s">
         <v>398</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="713">
   <si>
     <t>Function</t>
   </si>
@@ -2676,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,15 +2697,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:209</v>
+        <v>Done:213</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:6</v>
+        <v>Inp:7</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.22244377228408727</v>
+        <v>0.22397303097382518</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -6087,7 +6087,9 @@
       <c r="A258" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B258" s="11"/>
+      <c r="B258" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C258" s="11"/>
       <c r="D258" s="14">
         <v>11</v>
@@ -6145,7 +6147,9 @@
       <c r="A262" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B262" s="11"/>
+      <c r="B262" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C262" s="11"/>
       <c r="D262" s="14">
         <v>27</v>
@@ -6173,7 +6177,9 @@
       <c r="A264" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B264" s="11"/>
+      <c r="B264" s="11" t="s">
+        <v>669</v>
+      </c>
       <c r="C264" s="11"/>
       <c r="D264" s="14">
         <v>292</v>
@@ -6231,7 +6237,9 @@
       <c r="A268" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B268" s="11"/>
+      <c r="B268" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C268" s="11"/>
       <c r="D268" s="14">
         <v>65</v>
@@ -6298,7 +6306,9 @@
       <c r="A273" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B273" s="11"/>
+      <c r="B273" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C273" s="11"/>
       <c r="D273" s="14">
         <v>78</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="713">
   <si>
     <t>Function</t>
   </si>
@@ -2676,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,15 +2697,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:213</v>
+        <v>Done:216</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:7</v>
+        <v>Inp:6</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.22397303097382518</v>
+        <v>0.23400192635901249</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -7084,7 +7084,9 @@
       <c r="A333" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B333" s="8"/>
+      <c r="B333" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C333" s="8"/>
       <c r="D333" s="13">
         <v>538</v>
@@ -7123,7 +7125,9 @@
       <c r="A336" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B336" s="8"/>
+      <c r="B336" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C336" s="8"/>
       <c r="D336" s="13">
         <v>64</v>
@@ -10362,7 +10366,7 @@
         <v>698</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C612" s="8"/>
       <c r="D612" s="13">

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="714">
   <si>
     <t>Function</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>TRamp</t>
+  </si>
+  <si>
+    <t>high_score</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2199,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2216,6 +2219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,7 +2286,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2309,6 +2318,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2677,7 +2693,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2713,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:216</v>
+        <v>Done:231</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2705,11 +2721,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.23400192635901249</v>
+        <v>0.25509893712296594</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:28</v>
+        <v>Classes:29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,79 +4535,107 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="15">
+      <c r="A139" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="17">
         <v>31</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="18" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="15">
+      <c r="A140" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="17">
         <v>40</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="18" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="15">
+      <c r="A141" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="17">
         <v>103</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="18" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="15">
+      <c r="A142" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="17">
         <v>362</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="18" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="15">
+      <c r="A143" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="17">
         <v>269</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="15">
+      <c r="A144" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="17">
         <v>600</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="15">
+      <c r="A145" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="17">
         <v>114</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="18" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7056,7 +7100,9 @@
       <c r="A331" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B331" s="8"/>
+      <c r="B331" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C331" s="8"/>
       <c r="D331" s="13">
         <v>126</v>
@@ -7099,7 +7145,9 @@
       <c r="A334" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B334" s="8"/>
+      <c r="B334" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C334" s="8"/>
       <c r="D334" s="13">
         <v>28</v>
@@ -7112,7 +7160,9 @@
       <c r="A335" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B335" s="8"/>
+      <c r="B335" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C335" s="8"/>
       <c r="D335" s="13">
         <v>324</v>
@@ -7140,7 +7190,9 @@
       <c r="A337" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B337" s="8"/>
+      <c r="B337" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C337" s="8"/>
       <c r="D337" s="13">
         <v>243</v>
@@ -7150,13 +7202,17 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="15">
+      <c r="A338" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C338" s="16"/>
+      <c r="D338" s="17">
         <v>26</v>
       </c>
-      <c r="E338" s="6" t="s">
+      <c r="E338" s="18" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7282,35 +7338,47 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="15">
+      <c r="A350" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C350" s="16"/>
+      <c r="D350" s="17">
         <v>85</v>
       </c>
-      <c r="E350" s="6" t="s">
+      <c r="E350" s="18" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="15">
+      <c r="A351" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C351" s="16"/>
+      <c r="D351" s="17">
         <v>59</v>
       </c>
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="18" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="15">
+      <c r="A352" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C352" s="16"/>
+      <c r="D352" s="17">
         <v>87</v>
       </c>
-      <c r="E352" s="6" t="s">
+      <c r="E352" s="18" t="s">
         <v>630</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="714">
   <si>
     <t>Function</t>
   </si>
@@ -2713,15 +2713,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:231</v>
+        <v>Done:233</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:6</v>
+        <v>Inp:5</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.25509893712296594</v>
+        <v>0.27063654336842463</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -4428,13 +4428,17 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="15">
+      <c r="A130" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="17">
         <v>63</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="18" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4736,7 +4740,7 @@
         <v>680</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="13">

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="716">
   <si>
     <t>Function</t>
   </si>
@@ -2156,6 +2156,12 @@
   </si>
   <si>
     <t>high_score</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>TTableLayer</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2699,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:233</v>
+        <v>Done:239</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2721,11 +2727,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.27063654336842463</v>
+        <v>0.28147653728518562</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:29</v>
+        <v>Classes:31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3396,24 +3402,32 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="15">
+      <c r="A52" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="13">
         <v>76</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="9" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="15">
+      <c r="A53" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13">
         <v>112</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="9" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5200,13 +5214,17 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="15">
+      <c r="A190" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C190" s="16"/>
+      <c r="D190" s="17">
         <v>138</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="18" t="s">
         <v>520</v>
       </c>
     </row>
@@ -10330,46 +10348,62 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
-      <c r="D604" s="15">
+      <c r="A604" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B604" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C604" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="D604" s="17">
         <v>33</v>
       </c>
-      <c r="E604" s="6" t="s">
+      <c r="E604" s="18" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
-      <c r="D605" s="15">
+      <c r="A605" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B605" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C605" s="16"/>
+      <c r="D605" s="17">
         <v>36</v>
       </c>
-      <c r="E605" s="6" t="s">
+      <c r="E605" s="18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
-      <c r="D606" s="15">
+      <c r="A606" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B606" s="16"/>
+      <c r="C606" s="16"/>
+      <c r="D606" s="17">
         <v>85</v>
       </c>
-      <c r="E606" s="6" t="s">
+      <c r="E606" s="18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
-      <c r="D607" s="15">
+      <c r="A607" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B607" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C607" s="16"/>
+      <c r="D607" s="17">
         <v>888</v>
       </c>
-      <c r="E607" s="6" t="s">
+      <c r="E607" s="18" t="s">
         <v>386</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="716">
   <si>
     <t>Function</t>
   </si>
@@ -2699,7 +2699,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,15 +2719,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:239</v>
+        <v>Done:247</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:5</v>
+        <v>Inp:6</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.28147653728518562</v>
+        <v>0.30274252690988357</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -7842,13 +7842,17 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="15">
+      <c r="A390" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C390" s="8"/>
+      <c r="D390" s="13">
         <v>43</v>
       </c>
-      <c r="E390" s="6" t="s">
+      <c r="E390" s="9" t="s">
         <v>640</v>
       </c>
     </row>
@@ -9722,7 +9726,9 @@
       <c r="A551" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B551" s="11"/>
+      <c r="B551" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C551" s="11"/>
       <c r="D551" s="14">
         <v>127</v>
@@ -9735,7 +9741,9 @@
       <c r="A552" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B552" s="11"/>
+      <c r="B552" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C552" s="11"/>
       <c r="D552" s="14">
         <v>64</v>
@@ -9748,7 +9756,9 @@
       <c r="A553" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B553" s="11"/>
+      <c r="B553" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C553" s="11"/>
       <c r="D553" s="14">
         <v>150</v>
@@ -9791,7 +9801,9 @@
       <c r="A556" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B556" s="11"/>
+      <c r="B556" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C556" s="11"/>
       <c r="D556" s="14">
         <v>31</v>
@@ -9804,7 +9816,9 @@
       <c r="A557" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B557" s="11"/>
+      <c r="B557" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C557" s="11"/>
       <c r="D557" s="14">
         <v>1839</v>
@@ -9832,7 +9846,9 @@
       <c r="A559" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B559" s="11"/>
+      <c r="B559" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C559" s="11"/>
       <c r="D559" s="14">
         <v>26</v>
@@ -9845,7 +9861,9 @@
       <c r="A560" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B560" s="11"/>
+      <c r="B560" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C560" s="11"/>
       <c r="D560" s="14">
         <v>237</v>
@@ -9858,7 +9876,9 @@
       <c r="A561" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B561" s="11"/>
+      <c r="B561" s="11" t="s">
+        <v>669</v>
+      </c>
       <c r="C561" s="11"/>
       <c r="D561" s="14">
         <v>84</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="718">
   <si>
     <t>Function</t>
   </si>
@@ -2162,6 +2162,12 @@
   </si>
   <si>
     <t>TTableLayer</t>
+  </si>
+  <si>
+    <t>nudge</t>
+  </si>
+  <si>
+    <t>Tball</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2211,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2231,6 +2237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,7 +2304,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2330,6 +2342,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2401,6 +2420,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2699,7 +2723,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,19 +2743,19 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:247</v>
+        <v>Done:268</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:6</v>
+        <v>Inp:4</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.30274252690988357</v>
+        <v>0.33174774835668058</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:31</v>
+        <v>Classes:33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3306,13 +3330,17 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="15">
+      <c r="A44" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="13">
         <v>286</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="9" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5516,46 +5544,62 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="15">
+      <c r="A214" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C214" s="19"/>
+      <c r="D214" s="20">
         <v>282</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="21" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="15">
+      <c r="A215" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20">
         <v>77</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="21" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="15">
+      <c r="A216" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20">
         <v>77</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="21" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="15">
+      <c r="A217" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20">
         <v>73</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6073,7 +6117,9 @@
       <c r="A252" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B252" s="11"/>
+      <c r="B252" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C252" s="11"/>
       <c r="D252" s="14">
         <v>60</v>
@@ -6086,7 +6132,9 @@
       <c r="A253" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B253" s="11"/>
+      <c r="B253" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C253" s="11"/>
       <c r="D253" s="14">
         <v>73</v>
@@ -6140,7 +6188,9 @@
       <c r="A257" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B257" s="11"/>
+      <c r="B257" s="11" t="s">
+        <v>669</v>
+      </c>
       <c r="C257" s="11"/>
       <c r="D257" s="14">
         <v>319</v>
@@ -6169,7 +6219,7 @@
         <v>683</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="14">
@@ -6184,7 +6234,7 @@
         <v>683</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="14">
@@ -6244,7 +6294,7 @@
         <v>683</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C264" s="11"/>
       <c r="D264" s="14">
@@ -6333,7 +6383,9 @@
       <c r="A270" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B270" s="11"/>
+      <c r="B270" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C270" s="11"/>
       <c r="D270" s="14">
         <v>48</v>
@@ -6359,7 +6411,9 @@
       <c r="A272" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B272" s="11"/>
+      <c r="B272" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C272" s="11"/>
       <c r="D272" s="14">
         <v>95</v>
@@ -6399,13 +6453,15 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="15">
+      <c r="A275" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="14">
         <v>854</v>
       </c>
-      <c r="E275" s="6" t="s">
+      <c r="E275" s="10" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7923,57 +7979,77 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="15">
+      <c r="A397" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C397" s="8"/>
+      <c r="D397" s="13">
         <v>90</v>
       </c>
-      <c r="E397" s="6" t="s">
+      <c r="E397" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="15">
+      <c r="A398" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C398" s="8"/>
+      <c r="D398" s="13">
         <v>103</v>
       </c>
-      <c r="E398" s="6" t="s">
+      <c r="E398" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="15">
+      <c r="A399" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C399" s="8"/>
+      <c r="D399" s="13">
         <v>33</v>
       </c>
-      <c r="E399" s="6" t="s">
+      <c r="E399" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="15">
+      <c r="A400" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C400" s="8"/>
+      <c r="D400" s="13">
         <v>165</v>
       </c>
-      <c r="E400" s="6" t="s">
+      <c r="E400" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="15">
+      <c r="A401" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C401" s="8"/>
+      <c r="D401" s="13">
         <v>316</v>
       </c>
-      <c r="E401" s="6" t="s">
+      <c r="E401" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10763,35 +10839,47 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
-      <c r="D633" s="15">
+      <c r="A633" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B633" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C633" s="19"/>
+      <c r="D633" s="20">
         <v>45</v>
       </c>
-      <c r="E633" s="6" t="s">
+      <c r="E633" s="21" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
-      <c r="C634" s="2"/>
-      <c r="D634" s="15">
+      <c r="A634" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B634" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C634" s="19"/>
+      <c r="D634" s="20">
         <v>45</v>
       </c>
-      <c r="E634" s="6" t="s">
+      <c r="E634" s="21" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
-      <c r="C635" s="2"/>
-      <c r="D635" s="15">
+      <c r="A635" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B635" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C635" s="19"/>
+      <c r="D635" s="20">
         <v>41</v>
       </c>
-      <c r="E635" s="6" t="s">
+      <c r="E635" s="21" t="s">
         <v>655</v>
       </c>
     </row>
@@ -10807,13 +10895,17 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
-      <c r="C637" s="2"/>
-      <c r="D637" s="15">
+      <c r="A637" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B637" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C637" s="8"/>
+      <c r="D637" s="13">
         <v>30</v>
       </c>
-      <c r="E637" s="6" t="s">
+      <c r="E637" s="9" t="s">
         <v>656</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="722">
   <si>
     <t>Function</t>
   </si>
@@ -2168,6 +2168,18 @@
   </si>
   <si>
     <t>Tball</t>
+  </si>
+  <si>
+    <t>TComponentGroup</t>
+  </si>
+  <si>
+    <t>TLight</t>
+  </si>
+  <si>
+    <t>TSound</t>
+  </si>
+  <si>
+    <t>TTimer</t>
   </si>
 </sst>
 </file>
@@ -2723,7 +2735,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2755,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:268</v>
+        <v>Done:287</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2751,11 +2763,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.33174774835668058</v>
+        <v>0.35149292823467781</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:33</v>
+        <v>Classes:37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,35 +3782,47 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="15">
+      <c r="A80" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="13">
         <v>59</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="9" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="15">
+      <c r="A81" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="13">
         <v>26</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="9" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="15">
+      <c r="A82" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="13">
         <v>52</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="9" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8291,57 +8315,79 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="15">
+      <c r="A421" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D421" s="13">
         <v>33</v>
       </c>
-      <c r="E421" s="6" t="s">
+      <c r="E421" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="15">
+      <c r="A422" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C422" s="8"/>
+      <c r="D422" s="13">
         <v>44</v>
       </c>
-      <c r="E422" s="6" t="s">
+      <c r="E422" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="15">
+      <c r="A423" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C423" s="8"/>
+      <c r="D423" s="13">
         <v>156</v>
       </c>
-      <c r="E423" s="6" t="s">
+      <c r="E423" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="15">
+      <c r="A424" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C424" s="8"/>
+      <c r="D424" s="13">
         <v>24</v>
       </c>
-      <c r="E424" s="6" t="s">
+      <c r="E424" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="15">
+      <c r="A425" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C425" s="8"/>
+      <c r="D425" s="13">
         <v>128</v>
       </c>
-      <c r="E425" s="6" t="s">
+      <c r="E425" s="9" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9250,57 +9296,77 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="15">
+      <c r="A506" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C506" s="8"/>
+      <c r="D506" s="13">
         <v>1161</v>
       </c>
-      <c r="E506" s="6" t="s">
+      <c r="E506" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="15">
+      <c r="A507" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C507" s="8"/>
+      <c r="D507" s="13">
         <v>125</v>
       </c>
-      <c r="E507" s="6" t="s">
+      <c r="E507" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="15">
+      <c r="A508" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C508" s="8"/>
+      <c r="D508" s="13">
         <v>79</v>
       </c>
-      <c r="E508" s="6" t="s">
+      <c r="E508" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
-      <c r="D509" s="15">
+      <c r="A509" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C509" s="8"/>
+      <c r="D509" s="13">
         <v>96</v>
       </c>
-      <c r="E509" s="6" t="s">
+      <c r="E509" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="15">
+      <c r="A510" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C510" s="8"/>
+      <c r="D510" s="13">
         <v>101</v>
       </c>
-      <c r="E510" s="6" t="s">
+      <c r="E510" s="9" t="s">
         <v>289</v>
       </c>
     </row>
@@ -10411,35 +10477,49 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="15">
+      <c r="A601" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C601" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D601" s="13">
         <v>33</v>
       </c>
-      <c r="E601" s="6" t="s">
+      <c r="E601" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
-      <c r="C602" s="2"/>
-      <c r="D602" s="15">
+      <c r="A602" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B602" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C602" s="8"/>
+      <c r="D602" s="13">
         <v>9</v>
       </c>
-      <c r="E602" s="6" t="s">
+      <c r="E602" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
-      <c r="C603" s="2"/>
-      <c r="D603" s="15">
+      <c r="A603" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B603" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C603" s="8"/>
+      <c r="D603" s="13">
         <v>57</v>
       </c>
-      <c r="E603" s="6" t="s">
+      <c r="E603" s="9" t="s">
         <v>383</v>
       </c>
     </row>
@@ -10684,35 +10764,47 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
-      <c r="C620" s="2"/>
-      <c r="D620" s="15">
+      <c r="A620" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C620" s="8"/>
+      <c r="D620" s="13">
         <v>92</v>
       </c>
-      <c r="E620" s="6" t="s">
+      <c r="E620" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
-      <c r="D621" s="15">
+      <c r="A621" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B621" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C621" s="8"/>
+      <c r="D621" s="13">
         <v>24</v>
       </c>
-      <c r="E621" s="6" t="s">
+      <c r="E621" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
-      <c r="C622" s="2"/>
-      <c r="D622" s="15">
+      <c r="A622" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B622" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C622" s="8"/>
+      <c r="D622" s="13">
         <v>38</v>
       </c>
-      <c r="E622" s="6" t="s">
+      <c r="E622" s="9" t="s">
         <v>402</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="722">
   <si>
     <t>Function</t>
   </si>
@@ -2316,7 +2316,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2361,6 +2361,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2734,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E423" sqref="E423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,15 +2762,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:287</v>
+        <v>Done:297</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:4</v>
+        <v>Inp:3</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.35149292823467781</v>
+        <v>0.37678906368813264</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -3254,13 +3261,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="15">
+      <c r="A36" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13">
         <v>246</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="9" t="s">
         <v>446</v>
       </c>
     </row>
@@ -3405,13 +3416,17 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="15">
+      <c r="A49" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20">
         <v>154</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="21" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6171,7 +6186,9 @@
       <c r="A254" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B254" s="11"/>
+      <c r="B254" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C254" s="11"/>
       <c r="D254" s="14">
         <v>269</v>
@@ -6184,7 +6201,9 @@
       <c r="A255" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B255" s="11"/>
+      <c r="B255" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C255" s="11"/>
       <c r="D255" s="14">
         <v>360</v>
@@ -6213,7 +6232,7 @@
         <v>683</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C257" s="11"/>
       <c r="D257" s="14">
@@ -6422,7 +6441,9 @@
       <c r="A271" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B271" s="11"/>
+      <c r="B271" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C271" s="11"/>
       <c r="D271" s="14">
         <v>396</v>
@@ -6477,15 +6498,17 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="14">
+      <c r="A275" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="B275" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C275" s="22"/>
+      <c r="D275" s="23">
         <v>854</v>
       </c>
-      <c r="E275" s="10" t="s">
+      <c r="E275" s="24" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7900,13 +7923,17 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="15">
+      <c r="A388" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C388" s="8"/>
+      <c r="D388" s="13">
         <v>61</v>
       </c>
-      <c r="E388" s="6" t="s">
+      <c r="E388" s="9" t="s">
         <v>638</v>
       </c>
     </row>
@@ -8262,7 +8289,9 @@
       <c r="A417" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B417" s="11"/>
+      <c r="B417" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C417" s="11"/>
       <c r="D417" s="14">
         <v>159</v>
@@ -8275,7 +8304,9 @@
       <c r="A418" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B418" s="11"/>
+      <c r="B418" s="11" t="s">
+        <v>668</v>
+      </c>
       <c r="C418" s="11"/>
       <c r="D418" s="14">
         <v>176</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="725">
   <si>
     <t>Function</t>
   </si>
@@ -2180,6 +2180,15 @@
   </si>
   <si>
     <t>TTimer</t>
+  </si>
+  <si>
+    <t>TEdgeBox</t>
+  </si>
+  <si>
+    <t>TEdgeManager</t>
+  </si>
+  <si>
+    <t>TPlunger</t>
   </si>
 </sst>
 </file>
@@ -2741,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E423" sqref="E423"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,19 +2771,19 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:297</v>
+        <v>Done:326</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:3</v>
+        <v>Inp:2</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.37678906368813264</v>
+        <v>0.42883455279744503</v>
       </c>
       <c r="E1" s="7" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:37</v>
+        <v>Classes:40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,13 +3708,17 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="15">
+      <c r="A72" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20">
         <v>360</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="21" t="s">
         <v>457</v>
       </c>
     </row>
@@ -4920,13 +4933,17 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="15">
+      <c r="A163" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20">
         <v>39</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6513,13 +6530,17 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="15">
+      <c r="A276" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="13">
         <v>387</v>
       </c>
-      <c r="E276" s="6" t="s">
+      <c r="E276" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8218,7 +8239,9 @@
       <c r="A412" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B412" s="8"/>
+      <c r="B412" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C412" s="8"/>
       <c r="D412" s="13">
         <v>97</v>
@@ -8566,167 +8589,231 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="15">
+      <c r="A439" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D439" s="13">
         <v>78</v>
       </c>
-      <c r="E439" s="6" t="s">
+      <c r="E439" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="15">
+      <c r="A440" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C440" s="8"/>
+      <c r="D440" s="13">
         <v>23</v>
       </c>
-      <c r="E440" s="6" t="s">
+      <c r="E440" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="15">
+      <c r="A441" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C441" s="8"/>
+      <c r="D441" s="13">
         <v>30</v>
       </c>
-      <c r="E441" s="6" t="s">
+      <c r="E441" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="15">
+      <c r="A442" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B442" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C442" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D442" s="20">
         <v>33</v>
       </c>
-      <c r="E442" s="6" t="s">
+      <c r="E442" s="21" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="15">
+      <c r="A443" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B443" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C443" s="19"/>
+      <c r="D443" s="20">
         <v>15</v>
       </c>
-      <c r="E443" s="6" t="s">
+      <c r="E443" s="21" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="15">
+      <c r="A444" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C444" s="19"/>
+      <c r="D444" s="20">
         <v>35</v>
       </c>
-      <c r="E444" s="6" t="s">
+      <c r="E444" s="21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="15">
+      <c r="A445" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C445" s="19"/>
+      <c r="D445" s="20">
         <v>37</v>
       </c>
-      <c r="E445" s="6" t="s">
+      <c r="E445" s="21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="15">
+      <c r="A446" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C446" s="19"/>
+      <c r="D446" s="20">
         <v>181</v>
       </c>
-      <c r="E446" s="6" t="s">
+      <c r="E446" s="21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="15">
+      <c r="A447" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C447" s="19"/>
+      <c r="D447" s="20">
         <v>181</v>
       </c>
-      <c r="E447" s="6" t="s">
+      <c r="E447" s="21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="15">
+      <c r="A448" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C448" s="19"/>
+      <c r="D448" s="20">
         <v>147</v>
       </c>
-      <c r="E448" s="6" t="s">
+      <c r="E448" s="21" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="15">
+      <c r="A449" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C449" s="19"/>
+      <c r="D449" s="20">
         <v>1016</v>
       </c>
-      <c r="E449" s="6" t="s">
+      <c r="E449" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="15">
+      <c r="A450" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C450" s="19"/>
+      <c r="D450" s="20">
         <v>23</v>
       </c>
-      <c r="E450" s="6" t="s">
+      <c r="E450" s="21" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="15">
+      <c r="A451" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C451" s="19"/>
+      <c r="D451" s="20">
         <v>23</v>
       </c>
-      <c r="E451" s="6" t="s">
+      <c r="E451" s="21" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="15">
+      <c r="A452" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C452" s="19"/>
+      <c r="D452" s="20">
         <v>134</v>
       </c>
-      <c r="E452" s="6" t="s">
+      <c r="E452" s="21" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="15">
+      <c r="A453" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C453" s="19"/>
+      <c r="D453" s="20">
         <v>211</v>
       </c>
-      <c r="E453" s="6" t="s">
+      <c r="E453" s="21" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9636,7 +9723,9 @@
       <c r="A532" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B532" s="8"/>
+      <c r="B532" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C532" s="8"/>
       <c r="D532" s="13">
         <v>40</v>
@@ -9679,7 +9768,9 @@
       <c r="A535" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B535" s="8"/>
+      <c r="B535" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C535" s="8"/>
       <c r="D535" s="13">
         <v>764</v>
@@ -10065,7 +10156,7 @@
         <v>23</v>
       </c>
       <c r="B562" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C562" s="11"/>
       <c r="D562" s="14">
@@ -10076,68 +10167,92 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
-      <c r="D563" s="15">
+      <c r="A563" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C563" s="8"/>
+      <c r="D563" s="13">
         <v>31</v>
       </c>
-      <c r="E563" s="6" t="s">
+      <c r="E563" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
-      <c r="D564" s="15">
+      <c r="A564" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C564" s="8"/>
+      <c r="D564" s="13">
         <v>114</v>
       </c>
-      <c r="E564" s="6" t="s">
+      <c r="E564" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-      <c r="C565" s="2"/>
-      <c r="D565" s="15">
+      <c r="A565" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C565" s="8"/>
+      <c r="D565" s="13">
         <v>380</v>
       </c>
-      <c r="E565" s="6" t="s">
+      <c r="E565" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
-      <c r="D566" s="15">
+      <c r="A566" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B566" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C566" s="8"/>
+      <c r="D566" s="13">
         <v>26</v>
       </c>
-      <c r="E566" s="6" t="s">
+      <c r="E566" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
-      <c r="C567" s="2"/>
-      <c r="D567" s="15">
+      <c r="A567" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B567" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C567" s="8"/>
+      <c r="D567" s="13">
         <v>175</v>
       </c>
-      <c r="E567" s="6" t="s">
+      <c r="E567" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
-      <c r="C568" s="2"/>
-      <c r="D568" s="15">
+      <c r="A568" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B568" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C568" s="8"/>
+      <c r="D568" s="13">
         <v>179</v>
       </c>
-      <c r="E568" s="6" t="s">
+      <c r="E568" s="9" t="s">
         <v>349</v>
       </c>
     </row>
@@ -10590,7 +10705,9 @@
       <c r="A606" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B606" s="16"/>
+      <c r="B606" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C606" s="16"/>
       <c r="D606" s="17">
         <v>85</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="730">
   <si>
     <t>Function</t>
   </si>
@@ -2189,6 +2189,21 @@
   </si>
   <si>
     <t>TPlunger</t>
+  </si>
+  <si>
+    <t>TLighRollover</t>
+  </si>
+  <si>
+    <t>TLighGroup</t>
+  </si>
+  <si>
+    <t>TOneway</t>
+  </si>
+  <si>
+    <t>TRollover</t>
+  </si>
+  <si>
+    <t>TTripwire</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2340,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2377,6 +2392,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2751,7 +2769,7 @@
   <dimension ref="A1:E669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2789,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:326</v>
+        <v>Done:361</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2779,11 +2797,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.42883455279744503</v>
-      </c>
-      <c r="E1" s="7" t="str">
+        <v>0.47723854745771305</v>
+      </c>
+      <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:40</v>
+        <v>Classes:44.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,24 +3573,32 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="15">
+      <c r="A59" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13">
         <v>255</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="15">
+      <c r="A60" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="13">
         <v>33</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3631,24 +3657,30 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="15">
+      <c r="A65" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20">
         <v>41</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="15">
+      <c r="A66" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20">
         <v>35</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3697,13 +3729,17 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="15">
+      <c r="A71" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20">
         <v>1109</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="21" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8269,7 +8305,9 @@
       <c r="A414" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B414" s="8"/>
+      <c r="B414" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C414" s="8"/>
       <c r="D414" s="13">
         <v>13</v>
@@ -9555,167 +9593,227 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
-      <c r="D517" s="15">
+      <c r="A517" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C517" s="8"/>
+      <c r="D517" s="13">
         <v>33</v>
       </c>
-      <c r="E517" s="6" t="s">
+      <c r="E517" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
-      <c r="D518" s="15">
+      <c r="A518" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C518" s="8"/>
+      <c r="D518" s="13">
         <v>21</v>
       </c>
-      <c r="E518" s="6" t="s">
+      <c r="E518" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
-      <c r="D519" s="15">
+      <c r="A519" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C519" s="8"/>
+      <c r="D519" s="13">
         <v>2234</v>
       </c>
-      <c r="E519" s="6" t="s">
+      <c r="E519" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="15">
+      <c r="A520" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B520" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C520" s="8"/>
+      <c r="D520" s="13">
         <v>33</v>
       </c>
-      <c r="E520" s="6" t="s">
+      <c r="E520" s="9" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="15">
+      <c r="A521" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C521" s="8"/>
+      <c r="D521" s="13">
         <v>37</v>
       </c>
-      <c r="E521" s="6" t="s">
+      <c r="E521" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
-      <c r="D522" s="15">
+      <c r="A522" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B522" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C522" s="8"/>
+      <c r="D522" s="13">
         <v>24</v>
       </c>
-      <c r="E522" s="6" t="s">
+      <c r="E522" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="15">
+      <c r="A523" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C523" s="8"/>
+      <c r="D523" s="13">
         <v>101</v>
       </c>
-      <c r="E523" s="6" t="s">
+      <c r="E523" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
-      <c r="D524" s="15">
+      <c r="A524" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B524" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C524" s="8"/>
+      <c r="D524" s="13">
         <v>55</v>
       </c>
-      <c r="E524" s="6" t="s">
+      <c r="E524" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
-      <c r="D525" s="15">
+      <c r="A525" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C525" s="8"/>
+      <c r="D525" s="13">
         <v>64</v>
       </c>
-      <c r="E525" s="6" t="s">
+      <c r="E525" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
-      <c r="D526" s="15">
+      <c r="A526" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C526" s="8"/>
+      <c r="D526" s="13">
         <v>30</v>
       </c>
-      <c r="E526" s="6" t="s">
+      <c r="E526" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="C527" s="2"/>
-      <c r="D527" s="15">
+      <c r="A527" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C527" s="8"/>
+      <c r="D527" s="13">
         <v>150</v>
       </c>
-      <c r="E527" s="6" t="s">
+      <c r="E527" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
-      <c r="D528" s="15">
+      <c r="A528" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="B528" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C528" s="19"/>
+      <c r="D528" s="20">
         <v>176</v>
       </c>
-      <c r="E528" s="6" t="s">
+      <c r="E528" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
-      <c r="D529" s="15">
+      <c r="A529" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="B529" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C529" s="19"/>
+      <c r="D529" s="20">
         <v>28</v>
       </c>
-      <c r="E529" s="6" t="s">
+      <c r="E529" s="21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
-      <c r="C530" s="2"/>
-      <c r="D530" s="15">
+      <c r="A530" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="B530" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C530" s="19"/>
+      <c r="D530" s="20">
         <v>65</v>
       </c>
-      <c r="E530" s="6" t="s">
+      <c r="E530" s="21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
-      <c r="D531" s="15">
+      <c r="A531" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="B531" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C531" s="19"/>
+      <c r="D531" s="20">
         <v>86</v>
       </c>
-      <c r="E531" s="6" t="s">
+      <c r="E531" s="21" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9810,57 +9908,77 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
-      <c r="C538" s="2"/>
-      <c r="D538" s="15">
+      <c r="A538" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B538" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C538" s="19"/>
+      <c r="D538" s="20">
         <v>33</v>
       </c>
-      <c r="E538" s="6" t="s">
+      <c r="E538" s="21" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
-      <c r="D539" s="15">
+      <c r="A539" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B539" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C539" s="19"/>
+      <c r="D539" s="20">
         <v>230</v>
       </c>
-      <c r="E539" s="6" t="s">
+      <c r="E539" s="21" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
-      <c r="C540" s="2"/>
-      <c r="D540" s="15">
+      <c r="A540" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B540" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C540" s="19"/>
+      <c r="D540" s="20">
         <v>25</v>
       </c>
-      <c r="E540" s="6" t="s">
+      <c r="E540" s="21" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-      <c r="C541" s="2"/>
-      <c r="D541" s="15">
+      <c r="A541" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B541" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C541" s="19"/>
+      <c r="D541" s="20">
         <v>24</v>
       </c>
-      <c r="E541" s="6" t="s">
+      <c r="E541" s="21" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
-      <c r="D542" s="15">
+      <c r="A542" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="B542" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C542" s="19"/>
+      <c r="D542" s="20">
         <v>256</v>
       </c>
-      <c r="E542" s="6" t="s">
+      <c r="E542" s="21" t="s">
         <v>320</v>
       </c>
     </row>
@@ -10403,90 +10521,122 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
-      <c r="C581" s="2"/>
-      <c r="D581" s="15">
+      <c r="A581" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B581" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C581" s="19"/>
+      <c r="D581" s="20">
         <v>104</v>
       </c>
-      <c r="E581" s="6" t="s">
+      <c r="E581" s="21" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
-      <c r="C582" s="2"/>
-      <c r="D582" s="15">
+      <c r="A582" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B582" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C582" s="19"/>
+      <c r="D582" s="20">
         <v>146</v>
       </c>
-      <c r="E582" s="6" t="s">
+      <c r="E582" s="21" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
-      <c r="C583" s="2"/>
-      <c r="D583" s="15">
+      <c r="A583" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B583" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C583" s="19"/>
+      <c r="D583" s="20">
         <v>25</v>
       </c>
-      <c r="E583" s="6" t="s">
+      <c r="E583" s="21" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
-      <c r="C584" s="2"/>
-      <c r="D584" s="15">
+      <c r="A584" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B584" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C584" s="19"/>
+      <c r="D584" s="20">
         <v>49</v>
       </c>
-      <c r="E584" s="6" t="s">
+      <c r="E584" s="21" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
-      <c r="C585" s="2"/>
-      <c r="D585" s="15">
+      <c r="A585" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B585" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C585" s="19"/>
+      <c r="D585" s="20">
         <v>24</v>
       </c>
-      <c r="E585" s="6" t="s">
+      <c r="E585" s="21" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
-      <c r="C586" s="2"/>
-      <c r="D586" s="15">
+      <c r="A586" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B586" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C586" s="19"/>
+      <c r="D586" s="20">
         <v>16</v>
       </c>
-      <c r="E586" s="6" t="s">
+      <c r="E586" s="21" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
-      <c r="D587" s="15">
+      <c r="A587" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B587" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C587" s="19"/>
+      <c r="D587" s="20">
         <v>69</v>
       </c>
-      <c r="E587" s="6" t="s">
+      <c r="E587" s="21" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
-      <c r="C588" s="2"/>
-      <c r="D588" s="15">
+      <c r="A588" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="B588" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C588" s="19"/>
+      <c r="D588" s="20">
         <v>35</v>
       </c>
-      <c r="E588" s="6" t="s">
+      <c r="E588" s="21" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10957,24 +11107,32 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
-      <c r="C623" s="2"/>
-      <c r="D623" s="15">
+      <c r="A623" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="B623" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C623" s="19"/>
+      <c r="D623" s="20">
         <v>77</v>
       </c>
-      <c r="E623" s="6" t="s">
+      <c r="E623" s="21" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
-      <c r="C624" s="2"/>
-      <c r="D624" s="15">
+      <c r="A624" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="B624" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C624" s="19"/>
+      <c r="D624" s="20">
         <v>34</v>
       </c>
-      <c r="E624" s="6" t="s">
+      <c r="E624" s="21" t="s">
         <v>405</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="731">
   <si>
     <t>Function</t>
   </si>
@@ -2204,6 +2204,9 @@
   </si>
   <si>
     <t>TTripwire</t>
+  </si>
+  <si>
+    <t>TFlipperEdge</t>
   </si>
 </sst>
 </file>
@@ -2789,19 +2792,19 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:361</v>
+        <v>Done:375</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:2</v>
+        <v>Inp:3</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.47723854745771305</v>
+        <v>0.50242484665168385</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:44.9999999999999</v>
+        <v>Classes:45.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,7 +3663,9 @@
       <c r="A65" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20">
         <v>41</v>
@@ -3707,13 +3712,17 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="15">
+      <c r="A69" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="13">
         <v>27</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7183,13 +7192,17 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="15">
+      <c r="A323" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C323" s="8"/>
+      <c r="D323" s="13">
         <v>63</v>
       </c>
-      <c r="E323" s="6" t="s">
+      <c r="E323" s="9" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7587,13 +7600,17 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="15">
+      <c r="A355" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C355" s="8"/>
+      <c r="D355" s="13">
         <v>29</v>
       </c>
-      <c r="E355" s="6" t="s">
+      <c r="E355" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9025,112 +9042,152 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="15">
+      <c r="A469" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C469" s="8"/>
+      <c r="D469" s="13">
         <v>161</v>
       </c>
-      <c r="E469" s="6" t="s">
+      <c r="E469" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="15">
+      <c r="A470" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C470" s="8"/>
+      <c r="D470" s="13">
         <v>397</v>
       </c>
-      <c r="E470" s="6" t="s">
+      <c r="E470" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="15">
+      <c r="A471" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C471" s="8"/>
+      <c r="D471" s="13">
         <v>1500</v>
       </c>
-      <c r="E471" s="6" t="s">
+      <c r="E471" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="15">
+      <c r="A472" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C472" s="8"/>
+      <c r="D472" s="13">
         <v>133</v>
       </c>
-      <c r="E472" s="6" t="s">
+      <c r="E472" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="15">
+      <c r="A473" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C473" s="8"/>
+      <c r="D473" s="13">
         <v>632</v>
       </c>
-      <c r="E473" s="6" t="s">
+      <c r="E473" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="15">
+      <c r="A474" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C474" s="8"/>
+      <c r="D474" s="13">
         <v>286</v>
       </c>
-      <c r="E474" s="6" t="s">
+      <c r="E474" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="15">
+      <c r="A475" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C475" s="8"/>
+      <c r="D475" s="13">
         <v>28</v>
       </c>
-      <c r="E475" s="6" t="s">
+      <c r="E475" s="9" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="15">
+      <c r="A476" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C476" s="8"/>
+      <c r="D476" s="13">
         <v>270</v>
       </c>
-      <c r="E476" s="6" t="s">
+      <c r="E476" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="15">
+      <c r="A477" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C477" s="8"/>
+      <c r="D477" s="13">
         <v>137</v>
       </c>
-      <c r="E477" s="6" t="s">
+      <c r="E477" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="15">
+      <c r="A478" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C478" s="8"/>
+      <c r="D478" s="13">
         <v>734</v>
       </c>
-      <c r="E478" s="6" t="s">
+      <c r="E478" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11308,13 +11365,17 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
-      <c r="C638" s="2"/>
-      <c r="D638" s="15">
+      <c r="A638" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B638" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C638" s="8"/>
+      <c r="D638" s="13">
         <v>43</v>
       </c>
-      <c r="E638" s="6" t="s">
+      <c r="E638" s="9" t="s">
         <v>657</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="732">
   <si>
     <t>Function</t>
   </si>
@@ -2207,6 +2207,9 @@
   </si>
   <si>
     <t>TFlipperEdge</t>
+  </si>
+  <si>
+    <t>TFlipper</t>
   </si>
 </sst>
 </file>
@@ -2792,19 +2795,19 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:375</v>
+        <v>Done:383</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:3</v>
+        <v>Inp:2</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.50242484665168385</v>
+        <v>0.52307406343466434</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:45.9999999999999</v>
+        <v>Classes:46.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,79 +8968,107 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="15">
+      <c r="A462" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B462" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C462" s="19"/>
+      <c r="D462" s="20">
         <v>33</v>
       </c>
-      <c r="E462" s="6" t="s">
+      <c r="E462" s="21" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="15">
+      <c r="A463" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B463" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C463" s="19"/>
+      <c r="D463" s="20">
         <v>28</v>
       </c>
-      <c r="E463" s="6" t="s">
+      <c r="E463" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="15">
+      <c r="A464" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B464" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C464" s="19"/>
+      <c r="D464" s="20">
         <v>3</v>
       </c>
-      <c r="E464" s="6" t="s">
+      <c r="E464" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="15">
+      <c r="A465" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B465" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C465" s="19"/>
+      <c r="D465" s="20">
         <v>304</v>
       </c>
-      <c r="E465" s="6" t="s">
+      <c r="E465" s="21" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="15">
+      <c r="A466" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C466" s="19"/>
+      <c r="D466" s="20">
         <v>8</v>
       </c>
-      <c r="E466" s="6" t="s">
+      <c r="E466" s="21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="15">
+      <c r="A467" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C467" s="19"/>
+      <c r="D467" s="20">
         <v>309</v>
       </c>
-      <c r="E467" s="6" t="s">
+      <c r="E467" s="21" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="15">
+      <c r="A468" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C468" s="19"/>
+      <c r="D468" s="20">
         <v>259</v>
       </c>
-      <c r="E468" s="6" t="s">
+      <c r="E468" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9076,7 +9107,7 @@
         <v>730</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C471" s="8"/>
       <c r="D471" s="13">

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="739">
   <si>
     <t>Function</t>
   </si>
@@ -2167,9 +2167,6 @@
     <t>nudge</t>
   </si>
   <si>
-    <t>Tball</t>
-  </si>
-  <si>
     <t>TComponentGroup</t>
   </si>
   <si>
@@ -2210,6 +2207,30 @@
   </si>
   <si>
     <t>TFlipper</t>
+  </si>
+  <si>
+    <t>TBlocker</t>
+  </si>
+  <si>
+    <t>TBall</t>
+  </si>
+  <si>
+    <t>TBumper</t>
+  </si>
+  <si>
+    <t>TFlagSpinner</t>
+  </si>
+  <si>
+    <t>TGate</t>
+  </si>
+  <si>
+    <t>THole</t>
+  </si>
+  <si>
+    <t>TKickback</t>
+  </si>
+  <si>
+    <t>TWall</t>
   </si>
 </sst>
 </file>
@@ -2795,7 +2816,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:383</v>
+        <v>Done:417</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2803,11 +2824,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.52307406343466434</v>
+        <v>0.55391270552053939</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:46.9999999999999</v>
+        <v>Classes:53.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3859,7 +3880,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>668</v>
@@ -3874,7 +3895,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>668</v>
@@ -3889,7 +3910,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>668</v>
@@ -8108,7 +8129,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>668</v>
@@ -8123,7 +8144,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>668</v>
@@ -8138,7 +8159,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>668</v>
@@ -8153,7 +8174,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>668</v>
@@ -8168,7 +8189,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>668</v>
@@ -8182,112 +8203,152 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="15">
+      <c r="A402" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B402" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C402" s="19"/>
+      <c r="D402" s="20">
         <v>186</v>
       </c>
-      <c r="E402" s="6" t="s">
+      <c r="E402" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="15">
+      <c r="A403" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B403" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C403" s="19"/>
+      <c r="D403" s="20">
         <v>105</v>
       </c>
-      <c r="E403" s="6" t="s">
+      <c r="E403" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="15">
+      <c r="A404" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B404" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C404" s="19"/>
+      <c r="D404" s="20">
         <v>24</v>
       </c>
-      <c r="E404" s="6" t="s">
+      <c r="E404" s="21" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="15">
+      <c r="A405" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C405" s="16"/>
+      <c r="D405" s="17">
         <v>46</v>
       </c>
-      <c r="E405" s="6" t="s">
+      <c r="E405" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="15">
+      <c r="A406" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C406" s="16"/>
+      <c r="D406" s="17">
         <v>101</v>
       </c>
-      <c r="E406" s="6" t="s">
+      <c r="E406" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="15">
+      <c r="A407" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C407" s="16"/>
+      <c r="D407" s="17">
         <v>25</v>
       </c>
-      <c r="E407" s="6" t="s">
+      <c r="E407" s="18" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="15">
+      <c r="A408" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C408" s="16"/>
+      <c r="D408" s="17">
         <v>379</v>
       </c>
-      <c r="E408" s="6" t="s">
+      <c r="E408" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="15">
+      <c r="A409" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C409" s="16"/>
+      <c r="D409" s="17">
         <v>24</v>
       </c>
-      <c r="E409" s="6" t="s">
+      <c r="E409" s="18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="15">
+      <c r="A410" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C410" s="16"/>
+      <c r="D410" s="17">
         <v>97</v>
       </c>
-      <c r="E410" s="6" t="s">
+      <c r="E410" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="15">
+      <c r="A411" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C411" s="16"/>
+      <c r="D411" s="17">
         <v>88</v>
       </c>
-      <c r="E411" s="6" t="s">
+      <c r="E411" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8428,7 +8489,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>668</v>
@@ -8445,7 +8506,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>668</v>
@@ -8460,7 +8521,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>668</v>
@@ -8475,7 +8536,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>668</v>
@@ -8490,7 +8551,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>668</v>
@@ -8648,7 +8709,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>668</v>
@@ -8665,7 +8726,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>668</v>
@@ -8680,7 +8741,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>668</v>
@@ -8695,7 +8756,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>668</v>
@@ -8712,7 +8773,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>668</v>
@@ -8727,7 +8788,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>668</v>
@@ -8742,7 +8803,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>668</v>
@@ -8757,7 +8818,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>668</v>
@@ -8772,7 +8833,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>668</v>
@@ -8787,7 +8848,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>668</v>
@@ -8802,7 +8863,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>668</v>
@@ -8817,7 +8878,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>668</v>
@@ -8832,7 +8893,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>668</v>
@@ -8847,7 +8908,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>668</v>
@@ -8862,7 +8923,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>668</v>
@@ -8891,85 +8952,113 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="15">
+      <c r="A455" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C455" s="16"/>
+      <c r="D455" s="17">
         <v>152</v>
       </c>
-      <c r="E455" s="6" t="s">
+      <c r="E455" s="18" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="15">
+      <c r="A456" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C456" s="16"/>
+      <c r="D456" s="17">
         <v>25</v>
       </c>
-      <c r="E456" s="6" t="s">
+      <c r="E456" s="18" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="15">
+      <c r="A457" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C457" s="16"/>
+      <c r="D457" s="17">
         <v>95</v>
       </c>
-      <c r="E457" s="6" t="s">
+      <c r="E457" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="15">
+      <c r="A458" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C458" s="16"/>
+      <c r="D458" s="17">
         <v>193</v>
       </c>
-      <c r="E458" s="6" t="s">
+      <c r="E458" s="18" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="15">
+      <c r="A459" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C459" s="16"/>
+      <c r="D459" s="17">
         <v>24</v>
       </c>
-      <c r="E459" s="6" t="s">
+      <c r="E459" s="18" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="15">
+      <c r="A460" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C460" s="16"/>
+      <c r="D460" s="17">
         <v>21</v>
       </c>
-      <c r="E460" s="6" t="s">
+      <c r="E460" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="15">
+      <c r="A461" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C461" s="16"/>
+      <c r="D461" s="17">
         <v>299</v>
       </c>
-      <c r="E461" s="6" t="s">
+      <c r="E461" s="18" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>668</v>
@@ -8984,7 +9073,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>668</v>
@@ -8999,7 +9088,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>668</v>
@@ -9014,7 +9103,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>668</v>
@@ -9029,7 +9118,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>668</v>
@@ -9044,7 +9133,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>668</v>
@@ -9059,7 +9148,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>668</v>
@@ -9074,7 +9163,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>668</v>
@@ -9089,7 +9178,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B470" s="8" t="s">
         <v>668</v>
@@ -9104,7 +9193,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B471" s="8" t="s">
         <v>668</v>
@@ -9119,7 +9208,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B472" s="8" t="s">
         <v>668</v>
@@ -9134,7 +9223,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B473" s="8" t="s">
         <v>668</v>
@@ -9149,7 +9238,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>668</v>
@@ -9164,7 +9253,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B475" s="8" t="s">
         <v>668</v>
@@ -9179,7 +9268,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>668</v>
@@ -9194,7 +9283,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B477" s="8" t="s">
         <v>668</v>
@@ -9209,7 +9298,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B478" s="8" t="s">
         <v>668</v>
@@ -9223,79 +9312,107 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="15">
+      <c r="A479" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C479" s="19"/>
+      <c r="D479" s="20">
         <v>107</v>
       </c>
-      <c r="E479" s="6" t="s">
+      <c r="E479" s="21" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="15">
+      <c r="A480" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C480" s="19"/>
+      <c r="D480" s="20">
         <v>95</v>
       </c>
-      <c r="E480" s="6" t="s">
+      <c r="E480" s="21" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="15">
+      <c r="A481" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C481" s="8"/>
+      <c r="D481" s="13">
         <v>114</v>
       </c>
-      <c r="E481" s="6" t="s">
+      <c r="E481" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="15">
+      <c r="A482" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C482" s="8"/>
+      <c r="D482" s="13">
         <v>236</v>
       </c>
-      <c r="E482" s="6" t="s">
+      <c r="E482" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="15">
+      <c r="A483" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C483" s="8"/>
+      <c r="D483" s="13">
         <v>54</v>
       </c>
-      <c r="E483" s="6" t="s">
+      <c r="E483" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="15">
+      <c r="A484" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B484" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C484" s="8"/>
+      <c r="D484" s="13">
         <v>407</v>
       </c>
-      <c r="E484" s="6" t="s">
+      <c r="E484" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="15">
+      <c r="A485" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C485" s="8"/>
+      <c r="D485" s="13">
         <v>23</v>
       </c>
-      <c r="E485" s="6" t="s">
+      <c r="E485" s="9" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9408,46 +9525,62 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="15">
+      <c r="A494" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C494" s="8"/>
+      <c r="D494" s="13">
         <v>137</v>
       </c>
-      <c r="E494" s="6" t="s">
+      <c r="E494" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="15">
+      <c r="A495" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C495" s="8"/>
+      <c r="D495" s="13">
         <v>74</v>
       </c>
-      <c r="E495" s="6" t="s">
+      <c r="E495" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="15">
+      <c r="A496" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C496" s="8"/>
+      <c r="D496" s="13">
         <v>178</v>
       </c>
-      <c r="E496" s="6" t="s">
+      <c r="E496" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="15">
+      <c r="A497" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C497" s="8"/>
+      <c r="D497" s="13">
         <v>66</v>
       </c>
-      <c r="E497" s="6" t="s">
+      <c r="E497" s="9" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9541,7 +9674,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B506" s="8" t="s">
         <v>668</v>
@@ -9556,7 +9689,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B507" s="8" t="s">
         <v>668</v>
@@ -9571,7 +9704,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B508" s="8" t="s">
         <v>668</v>
@@ -9586,7 +9719,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B509" s="8" t="s">
         <v>668</v>
@@ -9601,7 +9734,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B510" s="8" t="s">
         <v>668</v>
@@ -9682,7 +9815,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B517" s="8" t="s">
         <v>668</v>
@@ -9697,7 +9830,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B518" s="8" t="s">
         <v>668</v>
@@ -9712,7 +9845,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B519" s="8" t="s">
         <v>668</v>
@@ -9727,7 +9860,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B520" s="8" t="s">
         <v>668</v>
@@ -9742,7 +9875,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B521" s="8" t="s">
         <v>668</v>
@@ -9757,7 +9890,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B522" s="8" t="s">
         <v>668</v>
@@ -9772,7 +9905,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B523" s="8" t="s">
         <v>668</v>
@@ -9787,7 +9920,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B524" s="8" t="s">
         <v>668</v>
@@ -9802,7 +9935,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B525" s="8" t="s">
         <v>668</v>
@@ -9817,7 +9950,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B526" s="8" t="s">
         <v>668</v>
@@ -9832,7 +9965,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B527" s="8" t="s">
         <v>668</v>
@@ -9847,7 +9980,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B528" s="19" t="s">
         <v>668</v>
@@ -9862,7 +9995,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B529" s="19" t="s">
         <v>668</v>
@@ -9877,7 +10010,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B530" s="19" t="s">
         <v>668</v>
@@ -9892,7 +10025,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B531" s="19" t="s">
         <v>668</v>
@@ -9997,7 +10130,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B538" s="19" t="s">
         <v>668</v>
@@ -10012,7 +10145,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B539" s="19" t="s">
         <v>668</v>
@@ -10027,7 +10160,7 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B540" s="19" t="s">
         <v>668</v>
@@ -10042,7 +10175,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B541" s="19" t="s">
         <v>668</v>
@@ -10057,7 +10190,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B542" s="19" t="s">
         <v>668</v>
@@ -10374,7 +10507,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B563" s="8" t="s">
         <v>668</v>
@@ -10389,7 +10522,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B564" s="8" t="s">
         <v>668</v>
@@ -10404,7 +10537,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B565" s="8" t="s">
         <v>668</v>
@@ -10419,7 +10552,7 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B566" s="8" t="s">
         <v>668</v>
@@ -10434,7 +10567,7 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B567" s="8" t="s">
         <v>668</v>
@@ -10449,7 +10582,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B568" s="8" t="s">
         <v>668</v>
@@ -10610,7 +10743,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B581" s="19" t="s">
         <v>668</v>
@@ -10625,7 +10758,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B582" s="19" t="s">
         <v>668</v>
@@ -10640,7 +10773,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B583" s="19" t="s">
         <v>668</v>
@@ -10655,7 +10788,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B584" s="19" t="s">
         <v>668</v>
@@ -10670,7 +10803,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B585" s="19" t="s">
         <v>668</v>
@@ -10685,7 +10818,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B586" s="19" t="s">
         <v>668</v>
@@ -10700,7 +10833,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B587" s="19" t="s">
         <v>668</v>
@@ -10715,7 +10848,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B588" s="19" t="s">
         <v>668</v>
@@ -10862,7 +10995,7 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B601" s="8" t="s">
         <v>668</v>
@@ -10879,7 +11012,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B602" s="8" t="s">
         <v>668</v>
@@ -10894,7 +11027,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B603" s="8" t="s">
         <v>668</v>
@@ -11151,7 +11284,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B620" s="8" t="s">
         <v>668</v>
@@ -11166,7 +11299,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B621" s="8" t="s">
         <v>668</v>
@@ -11181,7 +11314,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B622" s="8" t="s">
         <v>668</v>
@@ -11196,7 +11329,7 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B623" s="19" t="s">
         <v>668</v>
@@ -11211,7 +11344,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B624" s="19" t="s">
         <v>668</v>
@@ -11225,68 +11358,92 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
-      <c r="C625" s="2"/>
-      <c r="D625" s="15">
+      <c r="A625" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B625" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C625" s="16"/>
+      <c r="D625" s="17">
         <v>79</v>
       </c>
-      <c r="E625" s="6" t="s">
+      <c r="E625" s="18" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
-      <c r="C626" s="2"/>
-      <c r="D626" s="15">
+      <c r="A626" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B626" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C626" s="16"/>
+      <c r="D626" s="17">
         <v>25</v>
       </c>
-      <c r="E626" s="6" t="s">
+      <c r="E626" s="18" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
-      <c r="C627" s="2"/>
-      <c r="D627" s="15">
+      <c r="A627" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B627" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C627" s="16"/>
+      <c r="D627" s="17">
         <v>46</v>
       </c>
-      <c r="E627" s="6" t="s">
+      <c r="E627" s="18" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
-      <c r="C628" s="2"/>
-      <c r="D628" s="15">
+      <c r="A628" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B628" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C628" s="16"/>
+      <c r="D628" s="17">
         <v>24</v>
       </c>
-      <c r="E628" s="6" t="s">
+      <c r="E628" s="18" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
-      <c r="D629" s="15">
+      <c r="A629" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B629" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C629" s="16"/>
+      <c r="D629" s="17">
         <v>32</v>
       </c>
-      <c r="E629" s="6" t="s">
+      <c r="E629" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
-      <c r="D630" s="15">
+      <c r="A630" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B630" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C630" s="16"/>
+      <c r="D630" s="17">
         <v>69</v>
       </c>
-      <c r="E630" s="6" t="s">
+      <c r="E630" s="18" t="s">
         <v>408</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="744">
   <si>
     <t>Function</t>
   </si>
@@ -2231,6 +2231,21 @@
   </si>
   <si>
     <t>TWall</t>
+  </si>
+  <si>
+    <t>TDrain</t>
+  </si>
+  <si>
+    <t>TKickout</t>
+  </si>
+  <si>
+    <t>TLightBargraph</t>
+  </si>
+  <si>
+    <t>TPopupTarget</t>
+  </si>
+  <si>
+    <t>TSoloTarget</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2831,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:417</v>
+        <v>Done:451</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2824,11 +2839,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.55391270552053939</v>
+        <v>0.59656296997245639</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:53.9999999999999</v>
+        <v>Classes:58.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3304,13 +3319,17 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="15">
+      <c r="A35" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20">
         <v>1938</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7231,13 +7250,17 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="15">
+      <c r="A324" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C324" s="8"/>
+      <c r="D324" s="13">
         <v>51</v>
       </c>
-      <c r="E324" s="6" t="s">
+      <c r="E324" s="9" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7885,13 +7908,17 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="15">
+      <c r="A376" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C376" s="8"/>
+      <c r="D376" s="13">
         <v>93</v>
       </c>
-      <c r="E376" s="6" t="s">
+      <c r="E376" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8664,46 +8691,62 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="15">
+      <c r="A435" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C435" s="19"/>
+      <c r="D435" s="20">
         <v>70</v>
       </c>
-      <c r="E435" s="6" t="s">
+      <c r="E435" s="21" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="15">
+      <c r="A436" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C436" s="19"/>
+      <c r="D436" s="20">
         <v>48</v>
       </c>
-      <c r="E436" s="6" t="s">
+      <c r="E436" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="15">
+      <c r="A437" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C437" s="19"/>
+      <c r="D437" s="20">
         <v>58</v>
       </c>
-      <c r="E437" s="6" t="s">
+      <c r="E437" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="15">
+      <c r="A438" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C438" s="19"/>
+      <c r="D438" s="20">
         <v>19</v>
       </c>
-      <c r="E438" s="6" t="s">
+      <c r="E438" s="21" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9417,13 +9460,17 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="15">
+      <c r="A486" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="B486" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C486" s="19"/>
+      <c r="D486" s="20">
         <v>111</v>
       </c>
-      <c r="E486" s="6" t="s">
+      <c r="E486" s="21" t="s">
         <v>647</v>
       </c>
     </row>
@@ -9585,90 +9632,122 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="15">
+      <c r="A498" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C498" s="19"/>
+      <c r="D498" s="20">
         <v>116</v>
       </c>
-      <c r="E498" s="6" t="s">
+      <c r="E498" s="21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
-      <c r="D499" s="15">
+      <c r="A499" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C499" s="19"/>
+      <c r="D499" s="20">
         <v>131</v>
       </c>
-      <c r="E499" s="6" t="s">
+      <c r="E499" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-      <c r="D500" s="15">
+      <c r="A500" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C500" s="19"/>
+      <c r="D500" s="20">
         <v>28</v>
       </c>
-      <c r="E500" s="6" t="s">
+      <c r="E500" s="21" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="15">
+      <c r="A501" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C501" s="19"/>
+      <c r="D501" s="20">
         <v>123</v>
       </c>
-      <c r="E501" s="6" t="s">
+      <c r="E501" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="15">
+      <c r="A502" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C502" s="19"/>
+      <c r="D502" s="20">
         <v>27</v>
       </c>
-      <c r="E502" s="6" t="s">
+      <c r="E502" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
-      <c r="D503" s="15">
+      <c r="A503" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C503" s="19"/>
+      <c r="D503" s="20">
         <v>26</v>
       </c>
-      <c r="E503" s="6" t="s">
+      <c r="E503" s="21" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="15">
+      <c r="A504" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B504" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C504" s="19"/>
+      <c r="D504" s="20">
         <v>121</v>
       </c>
-      <c r="E504" s="6" t="s">
+      <c r="E504" s="21" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="15">
+      <c r="A505" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B505" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C505" s="19"/>
+      <c r="D505" s="20">
         <v>393</v>
       </c>
-      <c r="E505" s="6" t="s">
+      <c r="E505" s="21" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9748,68 +9827,92 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="15">
+      <c r="A511" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B511" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C511" s="19"/>
+      <c r="D511" s="20">
         <v>33</v>
       </c>
-      <c r="E511" s="6" t="s">
+      <c r="E511" s="21" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="15">
+      <c r="A512" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B512" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C512" s="19"/>
+      <c r="D512" s="20">
         <v>35</v>
       </c>
-      <c r="E512" s="6" t="s">
+      <c r="E512" s="21" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="15">
+      <c r="A513" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B513" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C513" s="19"/>
+      <c r="D513" s="20">
         <v>74</v>
       </c>
-      <c r="E513" s="6" t="s">
+      <c r="E513" s="21" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-      <c r="D514" s="15">
+      <c r="A514" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C514" s="19"/>
+      <c r="D514" s="20">
         <v>454</v>
       </c>
-      <c r="E514" s="6" t="s">
+      <c r="E514" s="21" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
-      <c r="D515" s="15">
+      <c r="A515" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B515" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C515" s="19"/>
+      <c r="D515" s="20">
         <v>43</v>
       </c>
-      <c r="E515" s="6" t="s">
+      <c r="E515" s="21" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="15">
+      <c r="A516" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B516" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C516" s="19"/>
+      <c r="D516" s="20">
         <v>130</v>
       </c>
-      <c r="E516" s="6" t="s">
+      <c r="E516" s="21" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10596,68 +10699,92 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
-      <c r="D569" s="15">
+      <c r="A569" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B569" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C569" s="19"/>
+      <c r="D569" s="20">
         <v>163</v>
       </c>
-      <c r="E569" s="6" t="s">
+      <c r="E569" s="21" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
-      <c r="D570" s="15">
+      <c r="A570" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B570" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C570" s="19"/>
+      <c r="D570" s="20">
         <v>25</v>
       </c>
-      <c r="E570" s="6" t="s">
+      <c r="E570" s="21" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
-      <c r="C571" s="2"/>
-      <c r="D571" s="15">
+      <c r="A571" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B571" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C571" s="19"/>
+      <c r="D571" s="20">
         <v>215</v>
       </c>
-      <c r="E571" s="6" t="s">
+      <c r="E571" s="21" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
-      <c r="C572" s="2"/>
-      <c r="D572" s="15">
+      <c r="A572" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B572" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C572" s="19"/>
+      <c r="D572" s="20">
         <v>24</v>
       </c>
-      <c r="E572" s="6" t="s">
+      <c r="E572" s="21" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
-      <c r="C573" s="2"/>
-      <c r="D573" s="15">
+      <c r="A573" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B573" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C573" s="19"/>
+      <c r="D573" s="20">
         <v>60</v>
       </c>
-      <c r="E573" s="6" t="s">
+      <c r="E573" s="21" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
-      <c r="C574" s="2"/>
-      <c r="D574" s="15">
+      <c r="A574" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B574" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C574" s="19"/>
+      <c r="D574" s="20">
         <v>58</v>
       </c>
-      <c r="E574" s="6" t="s">
+      <c r="E574" s="21" t="s">
         <v>352</v>
       </c>
     </row>
@@ -10928,68 +11055,92 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
-      <c r="D595" s="15">
+      <c r="A595" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B595" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C595" s="19"/>
+      <c r="D595" s="20">
         <v>74</v>
       </c>
-      <c r="E595" s="6" t="s">
+      <c r="E595" s="21" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
-      <c r="D596" s="15">
+      <c r="A596" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B596" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C596" s="19"/>
+      <c r="D596" s="20">
         <v>25</v>
       </c>
-      <c r="E596" s="6" t="s">
+      <c r="E596" s="21" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
-      <c r="D597" s="15">
+      <c r="A597" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B597" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C597" s="19"/>
+      <c r="D597" s="20">
         <v>143</v>
       </c>
-      <c r="E597" s="6" t="s">
+      <c r="E597" s="21" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
-      <c r="D598" s="15">
+      <c r="A598" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B598" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C598" s="19"/>
+      <c r="D598" s="20">
         <v>24</v>
       </c>
-      <c r="E598" s="6" t="s">
+      <c r="E598" s="21" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
-      <c r="D599" s="15">
+      <c r="A599" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B599" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C599" s="19"/>
+      <c r="D599" s="20">
         <v>32</v>
       </c>
-      <c r="E599" s="6" t="s">
+      <c r="E599" s="21" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
-      <c r="D600" s="15">
+      <c r="A600" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B600" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C600" s="19"/>
+      <c r="D600" s="20">
         <v>83</v>
       </c>
-      <c r="E600" s="6" t="s">
+      <c r="E600" s="21" t="s">
         <v>378</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2246,6 +2246,12 @@
   </si>
   <si>
     <t>TSoloTarget</t>
+  </si>
+  <si>
+    <t>TDemo</t>
+  </si>
+  <si>
+    <t>TSink</t>
   </si>
 </sst>
 </file>
@@ -2831,7 +2837,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:451</v>
+        <v>Done:467</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2839,11 +2845,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.59656296997245639</v>
+        <v>0.61469440173034351</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:58.9999999999999</v>
+        <v>Classes:60.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3859,13 +3865,17 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="15">
+      <c r="A77" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20">
         <v>248</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="21" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8592,101 +8602,137 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="15">
+      <c r="A426" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C426" s="16"/>
+      <c r="D426" s="17">
         <v>334</v>
       </c>
-      <c r="E426" s="6" t="s">
+      <c r="E426" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="15">
+      <c r="A427" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B427" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C427" s="16"/>
+      <c r="D427" s="17">
         <v>120</v>
       </c>
-      <c r="E427" s="6" t="s">
+      <c r="E427" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="15">
+      <c r="A428" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C428" s="16"/>
+      <c r="D428" s="17">
         <v>120</v>
       </c>
-      <c r="E428" s="6" t="s">
+      <c r="E428" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="15">
+      <c r="A429" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B429" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C429" s="16"/>
+      <c r="D429" s="17">
         <v>183</v>
       </c>
-      <c r="E429" s="6" t="s">
+      <c r="E429" s="18" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="15">
+      <c r="A430" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C430" s="16"/>
+      <c r="D430" s="17">
         <v>47</v>
       </c>
-      <c r="E430" s="6" t="s">
+      <c r="E430" s="18" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="15">
+      <c r="A431" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C431" s="16"/>
+      <c r="D431" s="17">
         <v>38</v>
       </c>
-      <c r="E431" s="6" t="s">
+      <c r="E431" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="15">
+      <c r="A432" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C432" s="16"/>
+      <c r="D432" s="17">
         <v>348</v>
       </c>
-      <c r="E432" s="6" t="s">
+      <c r="E432" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="15">
+      <c r="A433" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B433" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C433" s="16"/>
+      <c r="D433" s="17">
         <v>46</v>
       </c>
-      <c r="E433" s="6" t="s">
+      <c r="E433" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="15">
+      <c r="A434" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C434" s="16"/>
+      <c r="D434" s="17">
         <v>46</v>
       </c>
-      <c r="E434" s="6" t="s">
+      <c r="E434" s="18" t="s">
         <v>223</v>
       </c>
     </row>
@@ -10989,68 +11035,92 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
-      <c r="C589" s="2"/>
-      <c r="D589" s="15">
+      <c r="A589" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C589" s="8"/>
+      <c r="D589" s="13">
         <v>112</v>
       </c>
-      <c r="E589" s="6" t="s">
+      <c r="E589" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
-      <c r="C590" s="2"/>
-      <c r="D590" s="15">
+      <c r="A590" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B590" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C590" s="8"/>
+      <c r="D590" s="13">
         <v>28</v>
       </c>
-      <c r="E590" s="6" t="s">
+      <c r="E590" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
-      <c r="C591" s="2"/>
-      <c r="D591" s="15">
+      <c r="A591" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B591" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C591" s="8"/>
+      <c r="D591" s="13">
         <v>198</v>
       </c>
-      <c r="E591" s="6" t="s">
+      <c r="E591" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
-      <c r="C592" s="2"/>
-      <c r="D592" s="15">
+      <c r="A592" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B592" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C592" s="8"/>
+      <c r="D592" s="13">
         <v>27</v>
       </c>
-      <c r="E592" s="6" t="s">
+      <c r="E592" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="15">
+      <c r="A593" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B593" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C593" s="8"/>
+      <c r="D593" s="13">
         <v>98</v>
       </c>
-      <c r="E593" s="6" t="s">
+      <c r="E593" s="9" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
-      <c r="C594" s="2"/>
-      <c r="D594" s="15">
+      <c r="A594" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B594" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C594" s="8"/>
+      <c r="D594" s="13">
         <v>153</v>
       </c>
-      <c r="E594" s="6" t="s">
+      <c r="E594" s="9" t="s">
         <v>372</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2837,15 +2837,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:467</v>
+        <v>Done:473</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:2</v>
+        <v>Inp:1</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.61469440173034351</v>
+        <v>0.6334932999881715</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -10629,7 +10629,7 @@
         <v>23</v>
       </c>
       <c r="B561" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C561" s="11"/>
       <c r="D561" s="14">
@@ -10838,7 +10838,9 @@
       <c r="A575" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B575" s="8"/>
+      <c r="B575" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C575" s="8"/>
       <c r="D575" s="13">
         <v>261</v>
@@ -10851,7 +10853,9 @@
       <c r="A576" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B576" s="8"/>
+      <c r="B576" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C576" s="8"/>
       <c r="D576" s="13">
         <v>47</v>
@@ -10864,7 +10868,9 @@
       <c r="A577" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B577" s="8"/>
+      <c r="B577" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C577" s="8"/>
       <c r="D577" s="13">
         <v>25</v>
@@ -10892,7 +10898,9 @@
       <c r="A579" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B579" s="8"/>
+      <c r="B579" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C579" s="8"/>
       <c r="D579" s="13">
         <v>24</v>
@@ -10905,7 +10913,9 @@
       <c r="A580" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B580" s="8"/>
+      <c r="B580" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C580" s="8"/>
       <c r="D580" s="13">
         <v>1784</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:473</v>
+        <v>Done:509</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.6334932999881715</v>
+        <v>0.69555078659659675</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:60.9999999999999</v>
+        <v>Classes:60.9999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,24 +3168,36 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="15">
+      <c r="A22" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D22" s="13">
         <v>36</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="15">
+      <c r="A23" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D23" s="13">
         <v>44</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3231,13 +3243,17 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="15">
+      <c r="A27" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20">
         <v>327</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3270,35 +3286,47 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="15">
+      <c r="A30" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20">
         <v>175</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="15">
+      <c r="A31" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20">
         <v>279</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="15">
+      <c r="A32" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20">
         <v>471</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3366,68 +3394,92 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="15">
+      <c r="A38" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20">
         <v>126</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="15">
+      <c r="A39" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20">
         <v>519</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="15">
+      <c r="A40" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20">
         <v>241</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="15">
+      <c r="A41" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20">
         <v>27</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="15">
+      <c r="A42" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20">
         <v>335</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="15">
+      <c r="A43" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20">
         <v>980</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3447,24 +3499,32 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="15">
+      <c r="A45" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20">
         <v>38</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="15">
+      <c r="A46" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20">
         <v>58</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3536,54 +3596,62 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="13">
+      <c r="B52" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20">
         <v>76</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="21" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="13">
+      <c r="B53" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20">
         <v>112</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="21" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="15">
+      <c r="A54" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20">
         <v>336</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="15">
+      <c r="A55" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20">
         <v>276</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3739,50 +3807,62 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="15">
+      <c r="A67" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20">
         <v>361</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="21" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="15">
+      <c r="A68" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="13">
         <v>383</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="13">
+      <c r="B69" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20">
         <v>27</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="15">
+      <c r="A70" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="13">
         <v>128</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3832,24 +3912,32 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="15">
+      <c r="A74" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20">
         <v>31</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="15">
+      <c r="A75" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20">
         <v>137</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3897,13 +3985,17 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="15">
+      <c r="A79" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20">
         <v>66</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3953,24 +4045,32 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="15">
+      <c r="A83" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20">
         <v>59</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="15">
+      <c r="A84" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20">
         <v>59</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4008,79 +4108,107 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="15">
+      <c r="A88" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20">
         <v>133</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="15">
+      <c r="A89" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20">
         <v>137</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="15">
+      <c r="A90" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20">
         <v>137</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="15">
+      <c r="A91" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20">
         <v>137</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="15">
+      <c r="A92" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20">
         <v>137</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="15">
+      <c r="A93" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20">
         <v>137</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="15">
+      <c r="A94" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20">
         <v>223</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4335,13 +4463,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="15">
+      <c r="A111" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="17">
         <v>526</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8058,109 +8190,131 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B388" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C388" s="8"/>
-      <c r="D388" s="13">
+      <c r="B388" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C388" s="19"/>
+      <c r="D388" s="20">
         <v>61</v>
       </c>
-      <c r="E388" s="9" t="s">
+      <c r="E388" s="21" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="15">
+      <c r="A389" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B389" s="19"/>
+      <c r="C389" s="19"/>
+      <c r="D389" s="20">
         <v>109</v>
       </c>
-      <c r="E389" s="6" t="s">
+      <c r="E389" s="21" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B390" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C390" s="8"/>
-      <c r="D390" s="13">
+      <c r="B390" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C390" s="19"/>
+      <c r="D390" s="20">
         <v>43</v>
       </c>
-      <c r="E390" s="9" t="s">
+      <c r="E390" s="21" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="15">
+      <c r="A391" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C391" s="19"/>
+      <c r="D391" s="20">
         <v>69</v>
       </c>
-      <c r="E391" s="6" t="s">
+      <c r="E391" s="21" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="15">
+      <c r="A392" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B392" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C392" s="19"/>
+      <c r="D392" s="20">
         <v>50</v>
       </c>
-      <c r="E392" s="6" t="s">
+      <c r="E392" s="21" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="15">
+      <c r="A393" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B393" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C393" s="19"/>
+      <c r="D393" s="20">
         <v>98</v>
       </c>
-      <c r="E393" s="6" t="s">
+      <c r="E393" s="21" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="15">
+      <c r="A394" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B394" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C394" s="19"/>
+      <c r="D394" s="20">
         <v>69</v>
       </c>
-      <c r="E394" s="6" t="s">
+      <c r="E394" s="21" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="15">
+      <c r="A395" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B395" s="19"/>
+      <c r="C395" s="19"/>
+      <c r="D395" s="20">
         <v>32</v>
       </c>
-      <c r="E395" s="6" t="s">
+      <c r="E395" s="21" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="15">
+      <c r="A396" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B396" s="19"/>
+      <c r="C396" s="19"/>
+      <c r="D396" s="20">
         <v>55</v>
       </c>
-      <c r="E396" s="6" t="s">
+      <c r="E396" s="21" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:509</v>
+        <v>Done:542</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.69555078659659675</v>
+        <v>0.76847361395089475</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -4811,13 +4811,17 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="15">
+      <c r="A135" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20">
         <v>294</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4979,24 +4983,32 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="15">
+      <c r="A147" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20">
         <v>870</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="15">
+      <c r="A148" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20">
         <v>120</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5049,13 +5061,17 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="15">
+      <c r="A153" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20">
         <v>27</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="21" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5075,90 +5091,122 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="15">
+      <c r="A155" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20">
         <v>285</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="15">
+      <c r="A156" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20">
         <v>233</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="15">
+      <c r="A157" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20">
         <v>37</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="15">
+      <c r="A158" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20">
         <v>335</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="15">
+      <c r="A159" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20">
         <v>51</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="15">
+      <c r="A160" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20">
         <v>207</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="15">
+      <c r="A161" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20">
         <v>33</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="15">
+      <c r="A162" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20">
         <v>98</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5204,13 +5252,17 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="15">
+      <c r="A166" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="13">
         <v>58</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="9" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5425,90 +5477,122 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="15">
+      <c r="A181" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20">
         <v>351</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="15">
+      <c r="A182" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20">
         <v>308</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="15">
+      <c r="A183" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20">
         <v>130</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="15">
+      <c r="A184" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20">
         <v>139</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="15">
+      <c r="A185" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20">
         <v>175</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E185" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="15">
+      <c r="A186" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20">
         <v>250</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="15">
+      <c r="A187" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20">
         <v>476</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="E187" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="15">
+      <c r="A188" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20">
         <v>457</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E188" s="21" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5543,13 +5627,17 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="15">
+      <c r="A191" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="13">
         <v>105</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5576,24 +5664,32 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="15">
+      <c r="A194" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C194" s="19"/>
+      <c r="D194" s="20">
         <v>120</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="15">
+      <c r="A195" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C195" s="19"/>
+      <c r="D195" s="20">
         <v>350</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5727,24 +5823,32 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="15">
+      <c r="A205" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20">
         <v>651</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="15">
+      <c r="A206" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C206" s="19"/>
+      <c r="D206" s="20">
         <v>205</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E206" s="21" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5760,24 +5864,32 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="15">
+      <c r="A208" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20">
         <v>286</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="15">
+      <c r="A209" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20">
         <v>325</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="21" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6254,13 +6366,17 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="15">
+      <c r="A242" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C242" s="16"/>
+      <c r="D242" s="17">
         <v>237</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="E242" s="18" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6775,13 +6891,17 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="15">
+      <c r="A277" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C277" s="8"/>
+      <c r="D277" s="13">
         <v>395</v>
       </c>
-      <c r="E277" s="6" t="s">
+      <c r="E277" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6935,24 +7055,32 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="15">
+      <c r="A289" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C289" s="19"/>
+      <c r="D289" s="20">
         <v>37</v>
       </c>
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="15">
+      <c r="A290" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C290" s="19"/>
+      <c r="D290" s="20">
         <v>601</v>
       </c>
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="21" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6972,24 +7100,30 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="15">
+      <c r="A292" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C292" s="19"/>
+      <c r="D292" s="20">
         <v>385</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="15">
+      <c r="A293" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="20">
         <v>471</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="21" t="s">
         <v>130</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:542</v>
+        <v>Done:574</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.76847361395089475</v>
+        <v>0.83680021629294177</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:60.9999999999998</v>
+        <v>Classes:60.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7118,7 +7118,9 @@
       <c r="A293" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B293" s="19"/>
+      <c r="B293" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C293" s="19"/>
       <c r="D293" s="20">
         <v>471</v>
@@ -7412,13 +7414,17 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="15">
+      <c r="A314" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C314" s="19"/>
+      <c r="D314" s="20">
         <v>599</v>
       </c>
-      <c r="E314" s="6" t="s">
+      <c r="E314" s="21" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7456,57 +7462,77 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="15">
+      <c r="A318" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C318" s="19"/>
+      <c r="D318" s="20">
         <v>155</v>
       </c>
-      <c r="E318" s="6" t="s">
+      <c r="E318" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="15">
+      <c r="A319" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C319" s="19"/>
+      <c r="D319" s="20">
         <v>51</v>
       </c>
-      <c r="E319" s="6" t="s">
+      <c r="E319" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="15">
+      <c r="A320" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C320" s="19"/>
+      <c r="D320" s="20">
         <v>207</v>
       </c>
-      <c r="E320" s="6" t="s">
+      <c r="E320" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="15">
+      <c r="A321" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C321" s="19"/>
+      <c r="D321" s="20">
         <v>33</v>
       </c>
-      <c r="E321" s="6" t="s">
+      <c r="E321" s="21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="15">
+      <c r="A322" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C322" s="19"/>
+      <c r="D322" s="20">
         <v>98</v>
       </c>
-      <c r="E322" s="6" t="s">
+      <c r="E322" s="21" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7552,13 +7578,17 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="15">
+      <c r="A326" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C326" s="19"/>
+      <c r="D326" s="20">
         <v>339</v>
       </c>
-      <c r="E326" s="6" t="s">
+      <c r="E326" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7574,13 +7604,17 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="15">
+      <c r="A328" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C328" s="19"/>
+      <c r="D328" s="20">
         <v>713</v>
       </c>
-      <c r="E328" s="6" t="s">
+      <c r="E328" s="21" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7735,46 +7769,62 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="15">
+      <c r="A339" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C339" s="19"/>
+      <c r="D339" s="20">
         <v>312</v>
       </c>
-      <c r="E339" s="6" t="s">
+      <c r="E339" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="15">
+      <c r="A340" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C340" s="19"/>
+      <c r="D340" s="20">
         <v>173</v>
       </c>
-      <c r="E340" s="6" t="s">
+      <c r="E340" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="15">
+      <c r="A341" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C341" s="19"/>
+      <c r="D341" s="20">
         <v>249</v>
       </c>
-      <c r="E341" s="6" t="s">
+      <c r="E341" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="15">
+      <c r="A342" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C342" s="19"/>
+      <c r="D342" s="20">
         <v>1272</v>
       </c>
-      <c r="E342" s="6" t="s">
+      <c r="E342" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7845,13 +7895,17 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="15">
+      <c r="A349" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B349" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C349" s="19"/>
+      <c r="D349" s="20">
         <v>57</v>
       </c>
-      <c r="E349" s="6" t="s">
+      <c r="E349" s="21" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7938,68 +7992,92 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="15">
+      <c r="A356" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C356" s="19"/>
+      <c r="D356" s="20">
         <v>192</v>
       </c>
-      <c r="E356" s="6" t="s">
+      <c r="E356" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="15">
+      <c r="A357" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C357" s="19"/>
+      <c r="D357" s="20">
         <v>60</v>
       </c>
-      <c r="E357" s="6" t="s">
+      <c r="E357" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="15">
+      <c r="A358" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C358" s="19"/>
+      <c r="D358" s="20">
         <v>60</v>
       </c>
-      <c r="E358" s="6" t="s">
+      <c r="E358" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="15">
+      <c r="A359" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C359" s="19"/>
+      <c r="D359" s="20">
         <v>60</v>
       </c>
-      <c r="E359" s="6" t="s">
+      <c r="E359" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="15">
+      <c r="A360" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C360" s="19"/>
+      <c r="D360" s="20">
         <v>60</v>
       </c>
-      <c r="E360" s="6" t="s">
+      <c r="E360" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="15">
+      <c r="A361" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C361" s="19"/>
+      <c r="D361" s="20">
         <v>60</v>
       </c>
-      <c r="E361" s="6" t="s">
+      <c r="E361" s="21" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8162,24 +8240,32 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="15">
+      <c r="A374" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C374" s="8"/>
+      <c r="D374" s="13">
         <v>438</v>
       </c>
-      <c r="E374" s="6" t="s">
+      <c r="E374" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="15">
+      <c r="A375" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C375" s="8"/>
+      <c r="D375" s="13">
         <v>51</v>
       </c>
-      <c r="E375" s="6" t="s">
+      <c r="E375" s="9" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8276,13 +8362,17 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="15">
+      <c r="A384" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C384" s="8"/>
+      <c r="D384" s="13">
         <v>435</v>
       </c>
-      <c r="E384" s="6" t="s">
+      <c r="E384" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8342,7 +8432,9 @@
       <c r="A389" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B389" s="19"/>
+      <c r="B389" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C389" s="19"/>
       <c r="D389" s="20">
         <v>109</v>
@@ -8430,7 +8522,9 @@
       <c r="A395" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B395" s="19"/>
+      <c r="B395" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C395" s="19"/>
       <c r="D395" s="20">
         <v>32</v>
@@ -8443,7 +8537,9 @@
       <c r="A396" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B396" s="19"/>
+      <c r="B396" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C396" s="19"/>
       <c r="D396" s="20">
         <v>55</v>
@@ -9884,24 +9980,32 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="15">
+      <c r="A492" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C492" s="19"/>
+      <c r="D492" s="20">
         <v>268</v>
       </c>
-      <c r="E492" s="6" t="s">
+      <c r="E492" s="21" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="15">
+      <c r="A493" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C493" s="19"/>
+      <c r="D493" s="20">
         <v>663</v>
       </c>
-      <c r="E493" s="6" t="s">
+      <c r="E493" s="21" t="s">
         <v>415</v>
       </c>
     </row>
@@ -12046,13 +12150,17 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
-      <c r="C636" s="2"/>
-      <c r="D636" s="15">
+      <c r="A636" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B636" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C636" s="16"/>
+      <c r="D636" s="17">
         <v>24</v>
       </c>
-      <c r="E636" s="6" t="s">
+      <c r="E636" s="18" t="s">
         <v>416</v>
       </c>
     </row>
@@ -12087,13 +12195,17 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
-      <c r="C639" s="2"/>
-      <c r="D639" s="15">
+      <c r="A639" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B639" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C639" s="19"/>
+      <c r="D639" s="20">
         <v>118</v>
       </c>
-      <c r="E639" s="6" t="s">
+      <c r="E639" s="21" t="s">
         <v>417</v>
       </c>
     </row>
@@ -12366,24 +12478,32 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
-      <c r="C662" s="2"/>
-      <c r="D662" s="15">
+      <c r="A662" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B662" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C662" s="19"/>
+      <c r="D662" s="20">
         <v>562</v>
       </c>
-      <c r="E662" s="6" t="s">
+      <c r="E662" s="21" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
-      <c r="C663" s="2"/>
-      <c r="D663" s="15">
+      <c r="A663" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B663" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C663" s="19"/>
+      <c r="D663" s="20">
         <v>111</v>
       </c>
-      <c r="E663" s="6" t="s">
+      <c r="E663" s="21" t="s">
         <v>436</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>TSink</t>
+  </si>
+  <si>
+    <t>midi</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:574</v>
+        <v>Done:579</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2845,11 +2848,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.83680021629294177</v>
+        <v>0.83945318440663075</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:60.9999999999999</v>
+        <v>Classes:61.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5779,46 +5782,62 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="15">
+      <c r="A201" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="13">
         <v>106</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="15">
+      <c r="A202" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C202" s="8"/>
+      <c r="D202" s="13">
         <v>38</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="9" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="15">
+      <c r="A203" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C203" s="8"/>
+      <c r="D203" s="13">
         <v>30</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="9" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="15">
+      <c r="A204" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="13">
         <v>84</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="9" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7451,13 +7470,17 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="15">
+      <c r="A317" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C317" s="8"/>
+      <c r="D317" s="13">
         <v>56</v>
       </c>
-      <c r="E317" s="6" t="s">
+      <c r="E317" s="9" t="s">
         <v>617</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="746">
   <si>
     <t>Function</t>
   </si>
@@ -2021,9 +2021,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Inp</t>
   </si>
   <si>
     <t>TPinballComponent</t>
@@ -2840,15 +2837,15 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:579</v>
+        <v>Done:590</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
-        <v>Inp:1</v>
+        <v>Inp:0</v>
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.83945318440663075</v>
+        <v>0.84898359215262176</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -2866,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2874,13 +2871,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D4" s="13">
         <v>248</v>
@@ -2891,13 +2888,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D5" s="13">
         <v>110</v>
@@ -2908,13 +2905,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -2925,13 +2922,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D7" s="13">
         <v>6</v>
@@ -2942,13 +2939,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D8" s="13">
         <v>6</v>
@@ -2959,13 +2956,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -2976,13 +2973,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D10" s="13">
         <v>6</v>
@@ -2993,13 +2990,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D11" s="13">
         <v>6</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D12" s="13">
         <v>22</v>
@@ -3027,13 +3024,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D13" s="13">
         <v>17</v>
@@ -3044,13 +3041,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D14" s="13">
         <v>59</v>
@@ -3061,13 +3058,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D15" s="13">
         <v>18</v>
@@ -3078,13 +3075,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D16" s="13">
         <v>6</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>668</v>
@@ -3110,7 +3107,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>668</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>668</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>668</v>
@@ -3155,13 +3152,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>668</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D21" s="14">
         <v>454</v>
@@ -3172,13 +3169,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
@@ -3189,13 +3186,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" s="13">
         <v>44</v>
@@ -3206,7 +3203,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>668</v>
@@ -3232,7 +3229,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>668</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>668</v>
@@ -3273,13 +3270,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="D29" s="13">
         <v>76</v>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>668</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>668</v>
@@ -3320,7 +3317,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>668</v>
@@ -3357,7 +3354,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>668</v>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>668</v>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>668</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>668</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>668</v>
@@ -3443,7 +3440,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>668</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>668</v>
@@ -3473,7 +3470,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>668</v>
@@ -3488,7 +3485,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>668</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>668</v>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>668</v>
@@ -3533,7 +3530,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>668</v>
@@ -3559,7 +3556,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>668</v>
@@ -3574,7 +3571,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>668</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>668</v>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>668</v>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>668</v>
@@ -3645,7 +3642,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>668</v>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>668</v>
@@ -3697,7 +3694,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>668</v>
@@ -3712,7 +3709,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>668</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>668</v>
@@ -3764,13 +3761,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D64" s="13">
         <v>225</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>668</v>
@@ -3796,7 +3793,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>668</v>
@@ -3811,7 +3808,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>668</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>668</v>
@@ -3841,7 +3838,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>668</v>
@@ -3856,7 +3853,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>668</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>668</v>
@@ -3886,7 +3883,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>668</v>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>668</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>668</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>668</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>668</v>
@@ -3972,13 +3969,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="D78" s="13">
         <v>247</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>668</v>
@@ -4004,7 +4001,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>668</v>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>668</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>668</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>668</v>
@@ -4064,7 +4061,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>668</v>
@@ -4112,7 +4109,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>668</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>668</v>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>668</v>
@@ -4157,7 +4154,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>668</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>668</v>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>668</v>
@@ -4202,7 +4199,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>668</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>668</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>668</v>
@@ -4247,13 +4244,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D97" s="13">
         <v>121</v>
@@ -4264,13 +4261,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D98" s="13">
         <v>35</v>
@@ -4281,7 +4278,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>668</v>
@@ -4296,13 +4293,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D100" s="13">
         <v>318</v>
@@ -4313,24 +4310,24 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D101" s="13">
         <v>131</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>668</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>668</v>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>668</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>668</v>
@@ -4390,7 +4387,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>668</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>668</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>668</v>
@@ -4435,13 +4432,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D109" s="13">
         <v>35</v>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>668</v>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>668</v>
@@ -4482,7 +4479,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>668</v>
@@ -4497,7 +4494,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>668</v>
@@ -4512,7 +4509,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>668</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>668</v>
@@ -4542,7 +4539,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>668</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>668</v>
@@ -4572,7 +4569,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>668</v>
@@ -4587,7 +4584,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>668</v>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>668</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>668</v>
@@ -4632,7 +4629,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>668</v>
@@ -4647,7 +4644,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>668</v>
@@ -4662,7 +4659,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>668</v>
@@ -4677,7 +4674,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>668</v>
@@ -4692,7 +4689,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>668</v>
@@ -4707,7 +4704,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>668</v>
@@ -4722,13 +4719,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="D128" s="13">
         <v>88</v>
@@ -4739,13 +4736,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>684</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>685</v>
       </c>
       <c r="D129" s="13">
         <v>79</v>
@@ -4756,7 +4753,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>668</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>668</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>668</v>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>668</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>668</v>
@@ -4886,7 +4883,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>668</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>668</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>668</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>668</v>
@@ -4946,7 +4943,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>668</v>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>668</v>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>668</v>
@@ -5002,7 +4999,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>668</v>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>668</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>668</v>
@@ -5080,7 +5077,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>668</v>
@@ -5095,7 +5092,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>668</v>
@@ -5110,7 +5107,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>668</v>
@@ -5125,7 +5122,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>668</v>
@@ -5140,7 +5137,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>668</v>
@@ -5155,7 +5152,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>668</v>
@@ -5170,7 +5167,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>668</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>668</v>
@@ -5200,7 +5197,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>668</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>668</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>668</v>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>668</v>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>668</v>
@@ -5286,7 +5283,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>668</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>668</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>668</v>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>668</v>
@@ -5346,7 +5343,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>668</v>
@@ -5361,7 +5358,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>668</v>
@@ -5376,7 +5373,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>668</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>668</v>
@@ -5406,7 +5403,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>668</v>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>668</v>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>668</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>668</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>668</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>668</v>
@@ -5496,7 +5493,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>668</v>
@@ -5511,7 +5508,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>668</v>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>668</v>
@@ -5541,7 +5538,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>668</v>
@@ -5556,7 +5553,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>668</v>
@@ -5571,7 +5568,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>668</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>668</v>
@@ -5601,7 +5598,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>668</v>
@@ -5616,7 +5613,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>668</v>
@@ -5631,7 +5628,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>668</v>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>668</v>
@@ -5683,7 +5680,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>668</v>
@@ -5698,13 +5695,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D196" s="13">
         <v>17</v>
@@ -5715,13 +5712,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D197" s="13">
         <v>122</v>
@@ -5732,13 +5729,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D198" s="13">
         <v>51</v>
@@ -5749,13 +5746,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D199" s="13">
         <v>117</v>
@@ -5766,13 +5763,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>668</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D200" s="14">
         <v>2106</v>
@@ -5783,7 +5780,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>668</v>
@@ -5798,7 +5795,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>668</v>
@@ -5813,7 +5810,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>668</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>668</v>
@@ -5843,7 +5840,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>668</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>668</v>
@@ -5884,7 +5881,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>668</v>
@@ -5899,7 +5896,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>668</v>
@@ -5947,7 +5944,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>668</v>
@@ -5962,7 +5959,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>668</v>
@@ -5977,7 +5974,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>668</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>668</v>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>668</v>
@@ -6022,7 +6019,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>668</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>668</v>
@@ -6052,7 +6049,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>668</v>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>668</v>
@@ -6082,7 +6079,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>668</v>
@@ -6097,7 +6094,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>668</v>
@@ -6112,7 +6109,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>668</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>668</v>
@@ -6142,13 +6139,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>668</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D226" s="14">
         <v>6</v>
@@ -6159,13 +6156,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B227" s="11" t="s">
         <v>668</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D227" s="14">
         <v>6</v>
@@ -6176,7 +6173,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>668</v>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>668</v>
@@ -6206,7 +6203,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>668</v>
@@ -6221,7 +6218,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>668</v>
@@ -6236,7 +6233,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>668</v>
@@ -6251,7 +6248,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>668</v>
@@ -6266,7 +6263,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>668</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>668</v>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>668</v>
@@ -6311,7 +6308,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>668</v>
@@ -6326,7 +6323,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>668</v>
@@ -6341,7 +6338,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>668</v>
@@ -6356,7 +6353,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>668</v>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>668</v>
@@ -6386,7 +6383,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B242" s="16" t="s">
         <v>668</v>
@@ -6401,7 +6398,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>668</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>668</v>
@@ -6431,7 +6428,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>668</v>
@@ -6446,7 +6443,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>668</v>
@@ -6461,7 +6458,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>668</v>
@@ -6476,7 +6473,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>668</v>
@@ -6491,7 +6488,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>668</v>
@@ -6506,7 +6503,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>668</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>668</v>
@@ -6536,7 +6533,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>668</v>
@@ -6551,7 +6548,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B253" s="11" t="s">
         <v>668</v>
@@ -6566,7 +6563,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>668</v>
@@ -6581,7 +6578,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>668</v>
@@ -6596,7 +6593,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>668</v>
@@ -6611,7 +6608,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>668</v>
@@ -6626,7 +6623,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B258" s="11" t="s">
         <v>668</v>
@@ -6641,7 +6638,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B259" s="11" t="s">
         <v>668</v>
@@ -6656,7 +6653,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>668</v>
@@ -6671,7 +6668,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>668</v>
@@ -6686,7 +6683,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B262" s="11" t="s">
         <v>668</v>
@@ -6701,7 +6698,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B263" s="11" t="s">
         <v>668</v>
@@ -6716,7 +6713,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B264" s="11" t="s">
         <v>668</v>
@@ -6731,7 +6728,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B265" s="11" t="s">
         <v>668</v>
@@ -6746,7 +6743,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B266" s="11" t="s">
         <v>668</v>
@@ -6761,7 +6758,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B267" s="11" t="s">
         <v>668</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B268" s="11" t="s">
         <v>668</v>
@@ -6791,7 +6788,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B269" s="11" t="s">
         <v>668</v>
@@ -6806,7 +6803,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B270" s="11" t="s">
         <v>668</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>668</v>
@@ -6836,7 +6833,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>668</v>
@@ -6851,7 +6848,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>668</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>668</v>
@@ -6881,7 +6878,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B275" s="22" t="s">
         <v>668</v>
@@ -6896,7 +6893,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>668</v>
@@ -6911,7 +6908,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>668</v>
@@ -6926,7 +6923,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>668</v>
@@ -6941,7 +6938,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B279" s="11" t="s">
         <v>668</v>
@@ -6956,7 +6953,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>668</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>668</v>
@@ -6986,7 +6983,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>668</v>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>668</v>
@@ -7016,7 +7013,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>668</v>
@@ -7075,7 +7072,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>668</v>
@@ -7090,7 +7087,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>668</v>
@@ -7105,7 +7102,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>668</v>
@@ -7120,7 +7117,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>668</v>
@@ -7135,7 +7132,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>668</v>
@@ -7183,7 +7180,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>668</v>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>668</v>
@@ -7213,7 +7210,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>668</v>
@@ -7228,7 +7225,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>668</v>
@@ -7243,7 +7240,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>668</v>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>668</v>
@@ -7273,7 +7270,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>668</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>668</v>
@@ -7303,7 +7300,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>668</v>
@@ -7318,7 +7315,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>668</v>
@@ -7333,7 +7330,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>668</v>
@@ -7348,7 +7345,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>668</v>
@@ -7363,7 +7360,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>668</v>
@@ -7378,7 +7375,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>668</v>
@@ -7393,7 +7390,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>668</v>
@@ -7408,7 +7405,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>668</v>
@@ -7434,7 +7431,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B314" s="19" t="s">
         <v>668</v>
@@ -7471,7 +7468,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>668</v>
@@ -7486,7 +7483,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B318" s="19" t="s">
         <v>668</v>
@@ -7501,7 +7498,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B319" s="19" t="s">
         <v>668</v>
@@ -7516,7 +7513,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B320" s="19" t="s">
         <v>668</v>
@@ -7531,7 +7528,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B321" s="19" t="s">
         <v>668</v>
@@ -7546,7 +7543,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B322" s="19" t="s">
         <v>668</v>
@@ -7561,7 +7558,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>668</v>
@@ -7576,7 +7573,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>668</v>
@@ -7602,7 +7599,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B326" s="19" t="s">
         <v>668</v>
@@ -7628,7 +7625,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>668</v>
@@ -7643,7 +7640,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>668</v>
@@ -7658,7 +7655,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>668</v>
@@ -7673,7 +7670,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>668</v>
@@ -7688,7 +7685,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>668</v>
@@ -7703,7 +7700,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>668</v>
@@ -7718,7 +7715,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>668</v>
@@ -7733,7 +7730,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>668</v>
@@ -7748,7 +7745,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>668</v>
@@ -7763,7 +7760,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>668</v>
@@ -7778,7 +7775,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B338" s="16" t="s">
         <v>668</v>
@@ -7793,7 +7790,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>668</v>
@@ -7808,7 +7805,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>668</v>
@@ -7823,7 +7820,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B341" s="19" t="s">
         <v>668</v>
@@ -7838,7 +7835,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>668</v>
@@ -7919,7 +7916,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>668</v>
@@ -7934,7 +7931,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B350" s="16" t="s">
         <v>668</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B351" s="16" t="s">
         <v>668</v>
@@ -7964,7 +7961,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B352" s="16" t="s">
         <v>668</v>
@@ -8001,7 +7998,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>668</v>
@@ -8016,7 +8013,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>668</v>
@@ -8031,7 +8028,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>668</v>
@@ -8046,7 +8043,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>668</v>
@@ -8061,7 +8058,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>668</v>
@@ -8076,7 +8073,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>668</v>
@@ -8091,7 +8088,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>668</v>
@@ -8106,9 +8103,11 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B362" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C362" s="8"/>
       <c r="D362" s="13">
         <v>18</v>
@@ -8119,9 +8118,11 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B363" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C363" s="8"/>
       <c r="D363" s="13">
         <v>61</v>
@@ -8132,9 +8133,11 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B364" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C364" s="8"/>
       <c r="D364" s="13">
         <v>18</v>
@@ -8145,10 +8148,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="13">
@@ -8160,9 +8163,11 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B366" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C366" s="8"/>
       <c r="D366" s="13">
         <v>85</v>
@@ -8173,9 +8178,11 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B367" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C367" s="8"/>
       <c r="D367" s="13">
         <v>33</v>
@@ -8186,9 +8193,11 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B368" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C368" s="8"/>
       <c r="D368" s="13">
         <v>15</v>
@@ -8199,9 +8208,11 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B369" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C369" s="8"/>
       <c r="D369" s="13">
         <v>382</v>
@@ -8212,9 +8223,11 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B370" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C370" s="8"/>
       <c r="D370" s="13">
         <v>39</v>
@@ -8225,7 +8238,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>668</v>
@@ -8235,14 +8248,16 @@
         <v>3</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B372" s="8"/>
+        <v>687</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>668</v>
+      </c>
       <c r="C372" s="8"/>
       <c r="D372" s="13">
         <v>265</v>
@@ -8252,58 +8267,62 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="15">
+      <c r="A373" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C373" s="8"/>
+      <c r="D373" s="13">
         <v>119</v>
       </c>
-      <c r="E373" s="6" t="s">
+      <c r="E373" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C374" s="8"/>
-      <c r="D374" s="13">
+      <c r="A374" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C374" s="19"/>
+      <c r="D374" s="20">
         <v>438</v>
       </c>
-      <c r="E374" s="9" t="s">
+      <c r="E374" s="21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B375" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C375" s="8"/>
-      <c r="D375" s="13">
+      <c r="A375" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="B375" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C375" s="19"/>
+      <c r="D375" s="20">
         <v>51</v>
       </c>
-      <c r="E375" s="9" t="s">
+      <c r="E375" s="21" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B376" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C376" s="8"/>
-      <c r="D376" s="13">
+      <c r="A376" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="B376" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C376" s="19"/>
+      <c r="D376" s="20">
         <v>93</v>
       </c>
-      <c r="E376" s="9" t="s">
+      <c r="E376" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8386,7 +8405,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>668</v>
@@ -8412,7 +8431,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>668</v>
@@ -8438,7 +8457,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>668</v>
@@ -8453,7 +8472,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>668</v>
@@ -8468,7 +8487,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B390" s="19" t="s">
         <v>668</v>
@@ -8483,7 +8502,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>668</v>
@@ -8498,7 +8517,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B392" s="19" t="s">
         <v>668</v>
@@ -8513,7 +8532,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>668</v>
@@ -8528,7 +8547,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B394" s="19" t="s">
         <v>668</v>
@@ -8543,7 +8562,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B395" s="19" t="s">
         <v>668</v>
@@ -8558,7 +8577,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>668</v>
@@ -8573,7 +8592,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>668</v>
@@ -8588,7 +8607,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>668</v>
@@ -8603,7 +8622,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>668</v>
@@ -8618,7 +8637,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>668</v>
@@ -8633,7 +8652,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>668</v>
@@ -8648,7 +8667,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>668</v>
@@ -8663,7 +8682,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>668</v>
@@ -8678,7 +8697,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B404" s="19" t="s">
         <v>668</v>
@@ -8693,7 +8712,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B405" s="16" t="s">
         <v>668</v>
@@ -8708,7 +8727,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B406" s="16" t="s">
         <v>668</v>
@@ -8723,7 +8742,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B407" s="16" t="s">
         <v>668</v>
@@ -8738,7 +8757,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B408" s="16" t="s">
         <v>668</v>
@@ -8753,7 +8772,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B409" s="16" t="s">
         <v>668</v>
@@ -8768,7 +8787,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B410" s="16" t="s">
         <v>668</v>
@@ -8783,7 +8802,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B411" s="16" t="s">
         <v>668</v>
@@ -8798,7 +8817,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B412" s="8" t="s">
         <v>668</v>
@@ -8813,7 +8832,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>668</v>
@@ -8828,7 +8847,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>668</v>
@@ -8843,7 +8862,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>668</v>
@@ -8858,7 +8877,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B416" s="11" t="s">
         <v>668</v>
@@ -8873,7 +8892,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B417" s="11" t="s">
         <v>668</v>
@@ -8888,7 +8907,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B418" s="11" t="s">
         <v>668</v>
@@ -8903,7 +8922,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B419" s="11" t="s">
         <v>668</v>
@@ -8918,7 +8937,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B420" s="11" t="s">
         <v>668</v>
@@ -8933,13 +8952,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D421" s="13">
         <v>33</v>
@@ -8950,7 +8969,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>668</v>
@@ -8965,7 +8984,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>668</v>
@@ -8980,7 +8999,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>668</v>
@@ -8995,7 +9014,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>668</v>
@@ -9010,7 +9029,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B426" s="16" t="s">
         <v>668</v>
@@ -9025,7 +9044,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B427" s="16" t="s">
         <v>668</v>
@@ -9040,7 +9059,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B428" s="16" t="s">
         <v>668</v>
@@ -9055,7 +9074,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B429" s="16" t="s">
         <v>668</v>
@@ -9070,7 +9089,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B430" s="16" t="s">
         <v>668</v>
@@ -9085,7 +9104,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B431" s="16" t="s">
         <v>668</v>
@@ -9100,7 +9119,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B432" s="16" t="s">
         <v>668</v>
@@ -9115,7 +9134,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B433" s="16" t="s">
         <v>668</v>
@@ -9130,7 +9149,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B434" s="16" t="s">
         <v>668</v>
@@ -9145,7 +9164,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>668</v>
@@ -9160,7 +9179,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>668</v>
@@ -9175,7 +9194,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>668</v>
@@ -9190,7 +9209,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>668</v>
@@ -9205,13 +9224,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D439" s="13">
         <v>78</v>
@@ -9222,7 +9241,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>668</v>
@@ -9237,7 +9256,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B441" s="8" t="s">
         <v>668</v>
@@ -9252,13 +9271,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>668</v>
       </c>
       <c r="C442" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D442" s="20">
         <v>33</v>
@@ -9269,7 +9288,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>668</v>
@@ -9284,7 +9303,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>668</v>
@@ -9299,7 +9318,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>668</v>
@@ -9314,7 +9333,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>668</v>
@@ -9329,7 +9348,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>668</v>
@@ -9344,7 +9363,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>668</v>
@@ -9359,7 +9378,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>668</v>
@@ -9374,7 +9393,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>668</v>
@@ -9389,7 +9408,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>668</v>
@@ -9404,7 +9423,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>668</v>
@@ -9419,7 +9438,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>668</v>
@@ -9434,7 +9453,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B454" s="8" t="s">
         <v>668</v>
@@ -9449,7 +9468,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B455" s="16" t="s">
         <v>668</v>
@@ -9464,7 +9483,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B456" s="16" t="s">
         <v>668</v>
@@ -9479,7 +9498,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B457" s="16" t="s">
         <v>668</v>
@@ -9494,7 +9513,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B458" s="16" t="s">
         <v>668</v>
@@ -9509,7 +9528,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B459" s="16" t="s">
         <v>668</v>
@@ -9524,7 +9543,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B460" s="16" t="s">
         <v>668</v>
@@ -9539,7 +9558,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B461" s="16" t="s">
         <v>668</v>
@@ -9554,7 +9573,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>668</v>
@@ -9569,7 +9588,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>668</v>
@@ -9584,7 +9603,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>668</v>
@@ -9599,7 +9618,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>668</v>
@@ -9614,7 +9633,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>668</v>
@@ -9629,7 +9648,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>668</v>
@@ -9644,7 +9663,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>668</v>
@@ -9659,7 +9678,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>668</v>
@@ -9674,7 +9693,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B470" s="8" t="s">
         <v>668</v>
@@ -9689,7 +9708,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B471" s="8" t="s">
         <v>668</v>
@@ -9704,7 +9723,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B472" s="8" t="s">
         <v>668</v>
@@ -9719,7 +9738,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B473" s="8" t="s">
         <v>668</v>
@@ -9734,7 +9753,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>668</v>
@@ -9749,7 +9768,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B475" s="8" t="s">
         <v>668</v>
@@ -9764,7 +9783,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>668</v>
@@ -9779,7 +9798,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B477" s="8" t="s">
         <v>668</v>
@@ -9794,7 +9813,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B478" s="8" t="s">
         <v>668</v>
@@ -9809,7 +9828,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>668</v>
@@ -9824,7 +9843,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>668</v>
@@ -9839,7 +9858,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B481" s="8" t="s">
         <v>668</v>
@@ -9854,7 +9873,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B482" s="8" t="s">
         <v>668</v>
@@ -9869,7 +9888,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B483" s="8" t="s">
         <v>668</v>
@@ -9884,7 +9903,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B484" s="8" t="s">
         <v>668</v>
@@ -9899,7 +9918,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B485" s="8" t="s">
         <v>668</v>
@@ -9914,7 +9933,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>668</v>
@@ -9929,7 +9948,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B487" s="8" t="s">
         <v>668</v>
@@ -9944,7 +9963,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B488" s="8" t="s">
         <v>668</v>
@@ -9959,7 +9978,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B489" s="8" t="s">
         <v>668</v>
@@ -9974,7 +9993,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B490" s="8" t="s">
         <v>668</v>
@@ -9989,7 +10008,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B491" s="8" t="s">
         <v>668</v>
@@ -10004,7 +10023,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>668</v>
@@ -10019,7 +10038,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>668</v>
@@ -10034,7 +10053,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B494" s="8" t="s">
         <v>668</v>
@@ -10049,7 +10068,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B495" s="8" t="s">
         <v>668</v>
@@ -10064,7 +10083,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>668</v>
@@ -10079,7 +10098,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B497" s="8" t="s">
         <v>668</v>
@@ -10094,7 +10113,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>668</v>
@@ -10109,7 +10128,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>668</v>
@@ -10124,7 +10143,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>668</v>
@@ -10139,7 +10158,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>668</v>
@@ -10154,7 +10173,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>668</v>
@@ -10169,7 +10188,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>668</v>
@@ -10184,7 +10203,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>668</v>
@@ -10199,7 +10218,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>668</v>
@@ -10214,7 +10233,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B506" s="8" t="s">
         <v>668</v>
@@ -10229,7 +10248,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B507" s="8" t="s">
         <v>668</v>
@@ -10244,7 +10263,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B508" s="8" t="s">
         <v>668</v>
@@ -10259,7 +10278,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B509" s="8" t="s">
         <v>668</v>
@@ -10274,7 +10293,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B510" s="8" t="s">
         <v>668</v>
@@ -10289,7 +10308,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>668</v>
@@ -10304,7 +10323,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>668</v>
@@ -10319,7 +10338,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>668</v>
@@ -10334,7 +10353,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>668</v>
@@ -10349,7 +10368,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>668</v>
@@ -10364,7 +10383,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B516" s="19" t="s">
         <v>668</v>
@@ -10379,7 +10398,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B517" s="8" t="s">
         <v>668</v>
@@ -10394,7 +10413,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B518" s="8" t="s">
         <v>668</v>
@@ -10409,7 +10428,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B519" s="8" t="s">
         <v>668</v>
@@ -10424,7 +10443,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B520" s="8" t="s">
         <v>668</v>
@@ -10439,7 +10458,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B521" s="8" t="s">
         <v>668</v>
@@ -10454,7 +10473,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B522" s="8" t="s">
         <v>668</v>
@@ -10469,7 +10488,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B523" s="8" t="s">
         <v>668</v>
@@ -10484,7 +10503,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B524" s="8" t="s">
         <v>668</v>
@@ -10499,7 +10518,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B525" s="8" t="s">
         <v>668</v>
@@ -10514,7 +10533,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B526" s="8" t="s">
         <v>668</v>
@@ -10529,7 +10548,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B527" s="8" t="s">
         <v>668</v>
@@ -10544,7 +10563,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B528" s="19" t="s">
         <v>668</v>
@@ -10559,7 +10578,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B529" s="19" t="s">
         <v>668</v>
@@ -10574,7 +10593,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B530" s="19" t="s">
         <v>668</v>
@@ -10589,7 +10608,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B531" s="19" t="s">
         <v>668</v>
@@ -10604,7 +10623,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B532" s="8" t="s">
         <v>668</v>
@@ -10619,7 +10638,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B533" s="8" t="s">
         <v>668</v>
@@ -10634,7 +10653,7 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B534" s="8" t="s">
         <v>668</v>
@@ -10649,7 +10668,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B535" s="8" t="s">
         <v>668</v>
@@ -10664,7 +10683,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B536" s="8" t="s">
         <v>668</v>
@@ -10679,7 +10698,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B537" s="8" t="s">
         <v>668</v>
@@ -10694,7 +10713,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B538" s="19" t="s">
         <v>668</v>
@@ -10709,7 +10728,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B539" s="19" t="s">
         <v>668</v>
@@ -10724,7 +10743,7 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B540" s="19" t="s">
         <v>668</v>
@@ -10739,7 +10758,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B541" s="19" t="s">
         <v>668</v>
@@ -10754,7 +10773,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B542" s="19" t="s">
         <v>668</v>
@@ -10769,7 +10788,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B543" s="8" t="s">
         <v>668</v>
@@ -10784,7 +10803,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B544" s="8" t="s">
         <v>668</v>
@@ -10799,7 +10818,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B545" s="8" t="s">
         <v>668</v>
@@ -10814,7 +10833,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B546" s="8" t="s">
         <v>668</v>
@@ -10829,7 +10848,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B547" s="8" t="s">
         <v>668</v>
@@ -10844,7 +10863,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B548" s="8" t="s">
         <v>668</v>
@@ -10865,7 +10884,7 @@
         <v>668</v>
       </c>
       <c r="C549" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D549" s="14">
         <v>33</v>
@@ -11071,7 +11090,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B563" s="8" t="s">
         <v>668</v>
@@ -11086,7 +11105,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B564" s="8" t="s">
         <v>668</v>
@@ -11101,7 +11120,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B565" s="8" t="s">
         <v>668</v>
@@ -11116,7 +11135,7 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B566" s="8" t="s">
         <v>668</v>
@@ -11131,7 +11150,7 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B567" s="8" t="s">
         <v>668</v>
@@ -11146,7 +11165,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B568" s="8" t="s">
         <v>668</v>
@@ -11161,7 +11180,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>668</v>
@@ -11176,7 +11195,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>668</v>
@@ -11191,7 +11210,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>668</v>
@@ -11206,7 +11225,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>668</v>
@@ -11221,7 +11240,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B573" s="19" t="s">
         <v>668</v>
@@ -11236,7 +11255,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B574" s="19" t="s">
         <v>668</v>
@@ -11251,7 +11270,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B575" s="8" t="s">
         <v>668</v>
@@ -11266,7 +11285,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B576" s="8" t="s">
         <v>668</v>
@@ -11281,7 +11300,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B577" s="8" t="s">
         <v>668</v>
@@ -11296,7 +11315,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B578" s="8" t="s">
         <v>668</v>
@@ -11311,7 +11330,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B579" s="8" t="s">
         <v>668</v>
@@ -11326,7 +11345,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B580" s="8" t="s">
         <v>668</v>
@@ -11341,7 +11360,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B581" s="19" t="s">
         <v>668</v>
@@ -11356,7 +11375,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B582" s="19" t="s">
         <v>668</v>
@@ -11371,7 +11390,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B583" s="19" t="s">
         <v>668</v>
@@ -11386,7 +11405,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B584" s="19" t="s">
         <v>668</v>
@@ -11401,7 +11420,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B585" s="19" t="s">
         <v>668</v>
@@ -11416,7 +11435,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B586" s="19" t="s">
         <v>668</v>
@@ -11431,7 +11450,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B587" s="19" t="s">
         <v>668</v>
@@ -11446,7 +11465,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B588" s="19" t="s">
         <v>668</v>
@@ -11461,7 +11480,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B589" s="8" t="s">
         <v>668</v>
@@ -11476,7 +11495,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B590" s="8" t="s">
         <v>668</v>
@@ -11491,7 +11510,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B591" s="8" t="s">
         <v>668</v>
@@ -11506,7 +11525,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B592" s="8" t="s">
         <v>668</v>
@@ -11521,7 +11540,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B593" s="8" t="s">
         <v>668</v>
@@ -11536,7 +11555,7 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B594" s="8" t="s">
         <v>668</v>
@@ -11551,7 +11570,7 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B595" s="19" t="s">
         <v>668</v>
@@ -11566,7 +11585,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B596" s="19" t="s">
         <v>668</v>
@@ -11581,7 +11600,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B597" s="19" t="s">
         <v>668</v>
@@ -11596,7 +11615,7 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B598" s="19" t="s">
         <v>668</v>
@@ -11611,7 +11630,7 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B599" s="19" t="s">
         <v>668</v>
@@ -11626,7 +11645,7 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B600" s="19" t="s">
         <v>668</v>
@@ -11641,13 +11660,13 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B601" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C601" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D601" s="13">
         <v>33</v>
@@ -11658,7 +11677,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B602" s="8" t="s">
         <v>668</v>
@@ -11673,7 +11692,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B603" s="8" t="s">
         <v>668</v>
@@ -11688,13 +11707,13 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B604" s="16" t="s">
         <v>668</v>
       </c>
       <c r="C604" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D604" s="17">
         <v>33</v>
@@ -11705,7 +11724,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B605" s="16" t="s">
         <v>668</v>
@@ -11720,7 +11739,7 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B606" s="16" t="s">
         <v>668</v>
@@ -11735,7 +11754,7 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B607" s="16" t="s">
         <v>668</v>
@@ -11750,7 +11769,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B608" s="8" t="s">
         <v>668</v>
@@ -11765,7 +11784,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B609" s="8" t="s">
         <v>668</v>
@@ -11780,7 +11799,7 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B610" s="8" t="s">
         <v>668</v>
@@ -11795,7 +11814,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B611" s="8" t="s">
         <v>668</v>
@@ -11810,7 +11829,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B612" s="8" t="s">
         <v>668</v>
@@ -11825,7 +11844,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B613" s="8" t="s">
         <v>668</v>
@@ -11840,7 +11859,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B614" s="8" t="s">
         <v>668</v>
@@ -11855,7 +11874,7 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B615" s="8" t="s">
         <v>668</v>
@@ -11870,7 +11889,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B616" s="11" t="s">
         <v>668</v>
@@ -11885,7 +11904,7 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B617" s="11" t="s">
         <v>668</v>
@@ -11900,7 +11919,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B618" s="11" t="s">
         <v>668</v>
@@ -11915,7 +11934,7 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B619" s="11" t="s">
         <v>668</v>
@@ -11930,7 +11949,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B620" s="8" t="s">
         <v>668</v>
@@ -11945,7 +11964,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B621" s="8" t="s">
         <v>668</v>
@@ -11960,7 +11979,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B622" s="8" t="s">
         <v>668</v>
@@ -11975,7 +11994,7 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B623" s="19" t="s">
         <v>668</v>
@@ -11990,7 +12009,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B624" s="19" t="s">
         <v>668</v>
@@ -12005,7 +12024,7 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B625" s="16" t="s">
         <v>668</v>
@@ -12020,7 +12039,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B626" s="16" t="s">
         <v>668</v>
@@ -12035,7 +12054,7 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B627" s="16" t="s">
         <v>668</v>
@@ -12050,7 +12069,7 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B628" s="16" t="s">
         <v>668</v>
@@ -12065,7 +12084,7 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B629" s="16" t="s">
         <v>668</v>
@@ -12080,7 +12099,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B630" s="16" t="s">
         <v>668</v>
@@ -12095,13 +12114,13 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B631" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C631" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D631" s="13">
         <v>36</v>
@@ -12112,13 +12131,13 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B632" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C632" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D632" s="13">
         <v>26</v>
@@ -12129,7 +12148,7 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B633" s="19" t="s">
         <v>668</v>
@@ -12144,7 +12163,7 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B634" s="19" t="s">
         <v>668</v>
@@ -12159,7 +12178,7 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B635" s="19" t="s">
         <v>668</v>
@@ -12174,7 +12193,7 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B636" s="16" t="s">
         <v>668</v>
@@ -12189,7 +12208,7 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B637" s="8" t="s">
         <v>668</v>
@@ -12204,7 +12223,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B638" s="8" t="s">
         <v>668</v>
@@ -12219,7 +12238,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B639" s="19" t="s">
         <v>668</v>
@@ -12399,7 +12418,7 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B655" s="8" t="s">
         <v>668</v>
@@ -12414,7 +12433,7 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B656" s="8" t="s">
         <v>668</v>
@@ -12429,7 +12448,7 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B657" s="8" t="s">
         <v>668</v>
@@ -12444,7 +12463,7 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B658" s="8" t="s">
         <v>668</v>
@@ -12459,7 +12478,7 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B659" s="8" t="s">
         <v>668</v>
@@ -12474,19 +12493,19 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B660" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C660" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D660" s="13">
         <v>140</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -12502,7 +12521,7 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B662" s="19" t="s">
         <v>668</v>
@@ -12517,7 +12536,7 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B663" s="19" t="s">
         <v>668</v>
@@ -12532,7 +12551,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B664" s="8" t="s">
         <v>668</v>
@@ -12547,7 +12566,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B665" s="8" t="s">
         <v>668</v>
@@ -12562,7 +12581,7 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B666" s="8" t="s">
         <v>668</v>
@@ -12577,7 +12596,7 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B667" s="8" t="s">
         <v>668</v>
@@ -12592,7 +12611,7 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B668" s="8" t="s">
         <v>668</v>
@@ -12607,7 +12626,7 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B669" s="8" t="s">
         <v>668</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>midi</t>
+  </si>
+  <si>
+    <t>WaveMix</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:590</v>
+        <v>Done:606</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2845,11 +2848,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.84898359215262176</v>
+        <v>0.86701363659406205</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:61.9999999999999</v>
+        <v>Classes:63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,24 +3674,32 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="15">
+      <c r="A57" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17">
         <v>82</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="15">
+      <c r="A58" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17">
         <v>39</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4075,35 +4086,43 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="15">
+      <c r="A85" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17">
         <v>29</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="15">
+      <c r="A86" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17">
         <v>204</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="15">
+      <c r="A87" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17">
         <v>78</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5013,24 +5032,32 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="15">
+      <c r="A149" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C149" s="16"/>
+      <c r="D149" s="17">
         <v>35</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="15">
+      <c r="A150" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="17">
         <v>88</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5910,35 +5937,43 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="15">
+      <c r="A210" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C210" s="16"/>
+      <c r="D210" s="17">
         <v>119</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E210" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="15">
+      <c r="A211" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="17">
         <v>47</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="15">
+      <c r="A212" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="17">
         <v>11</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E212" s="18" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7038,35 +7073,45 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="15">
+      <c r="A286" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C286" s="16"/>
+      <c r="D286" s="17">
         <v>411</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="15">
+      <c r="A287" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C287" s="16"/>
+      <c r="D287" s="17">
         <v>81</v>
       </c>
-      <c r="E287" s="6" t="s">
+      <c r="E287" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="15">
+      <c r="A288" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="17">
         <v>180</v>
       </c>
-      <c r="E288" s="6" t="s">
+      <c r="E288" s="18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7168,13 +7213,17 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="15">
+      <c r="A296" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C296" s="16"/>
+      <c r="D296" s="17">
         <v>100</v>
       </c>
-      <c r="E296" s="6" t="s">
+      <c r="E296" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7849,24 +7898,32 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="15">
+      <c r="A343" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C343" s="8"/>
+      <c r="D343" s="13">
         <v>87</v>
       </c>
-      <c r="E343" s="6" t="s">
+      <c r="E343" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="15">
+      <c r="A344" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C344" s="8"/>
+      <c r="D344" s="13">
         <v>64</v>
       </c>
-      <c r="E344" s="6" t="s">
+      <c r="E344" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -7975,24 +8032,30 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="15">
+      <c r="A353" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
+      <c r="D353" s="20">
         <v>225</v>
       </c>
-      <c r="E353" s="6" t="s">
+      <c r="E353" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="15">
+      <c r="A354" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C354" s="19"/>
+      <c r="D354" s="20">
         <v>205</v>
       </c>
-      <c r="E354" s="6" t="s">
+      <c r="E354" s="21" t="s">
         <v>161</v>
       </c>
     </row>
@@ -12252,167 +12315,205 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
-      <c r="C640" s="2"/>
-      <c r="D640" s="15">
+      <c r="A640" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B640" s="16"/>
+      <c r="C640" s="16"/>
+      <c r="D640" s="17">
         <v>156</v>
       </c>
-      <c r="E640" s="6" t="s">
+      <c r="E640" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
-      <c r="C641" s="2"/>
-      <c r="D641" s="15">
+      <c r="A641" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B641" s="16"/>
+      <c r="C641" s="16"/>
+      <c r="D641" s="17">
         <v>213</v>
       </c>
-      <c r="E641" s="6" t="s">
+      <c r="E641" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
-      <c r="C642" s="2"/>
-      <c r="D642" s="15">
+      <c r="A642" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B642" s="16"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="17">
         <v>112</v>
       </c>
-      <c r="E642" s="6" t="s">
+      <c r="E642" s="18" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
-      <c r="C643" s="2"/>
-      <c r="D643" s="15">
+      <c r="A643" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B643" s="16"/>
+      <c r="C643" s="16"/>
+      <c r="D643" s="17">
         <v>86</v>
       </c>
-      <c r="E643" s="6" t="s">
+      <c r="E643" s="18" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
-      <c r="C644" s="2"/>
-      <c r="D644" s="15">
+      <c r="A644" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B644" s="16"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="17">
         <v>1052</v>
       </c>
-      <c r="E644" s="6" t="s">
+      <c r="E644" s="18" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="15">
+      <c r="A645" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B645" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C645" s="16"/>
+      <c r="D645" s="17">
         <v>399</v>
       </c>
-      <c r="E645" s="6" t="s">
+      <c r="E645" s="18" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
-      <c r="C646" s="2"/>
-      <c r="D646" s="15">
+      <c r="A646" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B646" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C646" s="16"/>
+      <c r="D646" s="17">
         <v>188</v>
       </c>
-      <c r="E646" s="6" t="s">
+      <c r="E646" s="18" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
-      <c r="C647" s="2"/>
-      <c r="D647" s="15">
+      <c r="A647" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B647" s="16"/>
+      <c r="C647" s="16"/>
+      <c r="D647" s="17">
         <v>203</v>
       </c>
-      <c r="E647" s="6" t="s">
+      <c r="E647" s="18" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
-      <c r="C648" s="2"/>
-      <c r="D648" s="15">
+      <c r="A648" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B648" s="16"/>
+      <c r="C648" s="16"/>
+      <c r="D648" s="17">
         <v>250</v>
       </c>
-      <c r="E648" s="6" t="s">
+      <c r="E648" s="18" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
-      <c r="C649" s="2"/>
-      <c r="D649" s="15">
+      <c r="A649" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B649" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C649" s="16"/>
+      <c r="D649" s="17">
         <v>8</v>
       </c>
-      <c r="E649" s="6" t="s">
+      <c r="E649" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
-      <c r="C650" s="2"/>
-      <c r="D650" s="15">
+      <c r="A650" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B650" s="16"/>
+      <c r="C650" s="16"/>
+      <c r="D650" s="17">
         <v>202</v>
       </c>
-      <c r="E650" s="6" t="s">
+      <c r="E650" s="18" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
-      <c r="C651" s="2"/>
-      <c r="D651" s="15">
+      <c r="A651" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B651" s="16"/>
+      <c r="C651" s="16"/>
+      <c r="D651" s="17">
         <v>1387</v>
       </c>
-      <c r="E651" s="6" t="s">
+      <c r="E651" s="18" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
-      <c r="C652" s="2"/>
-      <c r="D652" s="15">
+      <c r="A652" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B652" s="16"/>
+      <c r="C652" s="16"/>
+      <c r="D652" s="17">
         <v>1073</v>
       </c>
-      <c r="E652" s="6" t="s">
+      <c r="E652" s="18" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
-      <c r="C653" s="2"/>
-      <c r="D653" s="15">
+      <c r="A653" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B653" s="16"/>
+      <c r="C653" s="16"/>
+      <c r="D653" s="17">
         <v>75</v>
       </c>
-      <c r="E653" s="6" t="s">
+      <c r="E653" s="18" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
-      <c r="C654" s="2"/>
-      <c r="D654" s="15">
+      <c r="A654" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B654" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C654" s="16"/>
+      <c r="D654" s="17">
         <v>199</v>
       </c>
-      <c r="E654" s="6" t="s">
+      <c r="E654" s="18" t="s">
         <v>432</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:606</v>
+        <v>Done:613</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2848,11 +2848,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.86701363659406205</v>
+        <v>0.8768313084033188</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:63</v>
+        <v>Classes:62.9999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,13 +3261,17 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="15">
+      <c r="A28" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17">
         <v>49</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3734,24 +3738,30 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="15">
+      <c r="A61" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17">
         <v>25</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="15">
+      <c r="A62" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17">
         <v>47</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4808,13 +4818,17 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="15">
+      <c r="A133" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="17">
         <v>88</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5896,13 +5910,17 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="15">
+      <c r="A207" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C207" s="16"/>
+      <c r="D207" s="17">
         <v>618</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="18" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7191,24 +7209,30 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="15">
+      <c r="A294" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B294" s="16"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="17">
         <v>90</v>
       </c>
-      <c r="E294" s="6" t="s">
+      <c r="E294" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="15">
+      <c r="A295" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C295" s="16"/>
+      <c r="D295" s="17">
         <v>103</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E295" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8508,13 +8532,17 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="15">
+      <c r="A387" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B387" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C387" s="16"/>
+      <c r="D387" s="17">
         <v>29</v>
       </c>
-      <c r="E387" s="6" t="s">
+      <c r="E387" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -12426,7 +12454,9 @@
       <c r="A648" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B648" s="16"/>
+      <c r="B648" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C648" s="16"/>
       <c r="D648" s="17">
         <v>250</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:613</v>
+        <v>Done:636</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.8768313084033188</v>
+        <v>0.93766369827134621</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -3220,19 +3220,23 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="15">
+      <c r="A25" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17">
         <v>206</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>668</v>
@@ -3338,13 +3342,17 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="15">
+      <c r="A33" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17">
         <v>251</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3756,7 +3764,9 @@
       <c r="A62" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
         <v>47</v>
@@ -3963,13 +3973,17 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="15">
+      <c r="A76" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17">
         <v>60</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4127,7 +4141,9 @@
       <c r="A87" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B87" s="16"/>
+      <c r="B87" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C87" s="16"/>
       <c r="D87" s="17">
         <v>78</v>
@@ -4807,13 +4823,17 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="15">
+      <c r="A132" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="17">
         <v>72</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4833,13 +4853,17 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="15">
+      <c r="A134" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="17">
         <v>354</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5683,24 +5707,32 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="15">
+      <c r="A192" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C192" s="16"/>
+      <c r="D192" s="17">
         <v>156</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="15">
+      <c r="A193" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C193" s="16"/>
+      <c r="D193" s="17">
         <v>627</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5973,7 +6005,9 @@
       <c r="A211" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B211" s="16"/>
+      <c r="B211" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C211" s="16"/>
       <c r="D211" s="17">
         <v>47</v>
@@ -5986,7 +6020,9 @@
       <c r="A212" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B212" s="16"/>
+      <c r="B212" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C212" s="16"/>
       <c r="D212" s="17">
         <v>11</v>
@@ -7080,13 +7116,17 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="15">
+      <c r="A285" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C285" s="16"/>
+      <c r="D285" s="17">
         <v>862</v>
       </c>
-      <c r="E285" s="6" t="s">
+      <c r="E285" s="18" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7124,7 +7164,9 @@
       <c r="A288" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B288" s="16"/>
+      <c r="B288" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C288" s="16"/>
       <c r="D288" s="17">
         <v>180</v>
@@ -7212,7 +7254,9 @@
       <c r="A294" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B294" s="16"/>
+      <c r="B294" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C294" s="16"/>
       <c r="D294" s="17">
         <v>90</v>
@@ -7518,13 +7562,17 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="15">
+      <c r="A315" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C315" s="16"/>
+      <c r="D315" s="17">
         <v>282</v>
       </c>
-      <c r="E315" s="6" t="s">
+      <c r="E315" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7686,13 +7734,17 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="15">
+      <c r="A327" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C327" s="16"/>
+      <c r="D327" s="17">
         <v>572</v>
       </c>
-      <c r="E327" s="6" t="s">
+      <c r="E327" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7952,46 +8004,62 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="15">
+      <c r="A345" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C345" s="16"/>
+      <c r="D345" s="17">
         <v>444</v>
       </c>
-      <c r="E345" s="6" t="s">
+      <c r="E345" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="15">
+      <c r="A346" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C346" s="16"/>
+      <c r="D346" s="17">
         <v>1133</v>
       </c>
-      <c r="E346" s="6" t="s">
+      <c r="E346" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="15">
+      <c r="A347" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C347" s="16"/>
+      <c r="D347" s="17">
         <v>68</v>
       </c>
-      <c r="E347" s="6" t="s">
+      <c r="E347" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="15">
+      <c r="A348" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C348" s="16"/>
+      <c r="D348" s="17">
         <v>170</v>
       </c>
-      <c r="E348" s="6" t="s">
+      <c r="E348" s="18" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8059,7 +8127,9 @@
       <c r="A353" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="B353" s="19"/>
+      <c r="B353" s="19" t="s">
+        <v>668</v>
+      </c>
       <c r="C353" s="19"/>
       <c r="D353" s="20">
         <v>225</v>
@@ -8517,17 +8587,17 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C386" s="8"/>
-      <c r="D386" s="13">
+      <c r="A386" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B386" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C386" s="16"/>
+      <c r="D386" s="17">
         <v>15</v>
       </c>
-      <c r="E386" s="9" t="s">
+      <c r="E386" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12359,7 +12429,9 @@
       <c r="A641" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B641" s="16"/>
+      <c r="B641" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C641" s="16"/>
       <c r="D641" s="17">
         <v>213</v>
@@ -12398,7 +12470,9 @@
       <c r="A644" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B644" s="16"/>
+      <c r="B644" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C644" s="16"/>
       <c r="D644" s="17">
         <v>1052</v>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:636</v>
+        <v>Done:651</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2848,11 +2848,11 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.93766369827134621</v>
+        <v>0.97205934537589345</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
-        <v>Classes:62.9999999999999</v>
+        <v>Classes:63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,13 +3357,17 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="15">
+      <c r="A34" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17">
         <v>133</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3398,13 +3402,17 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="15">
+      <c r="A37" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17">
         <v>264</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3559,13 +3567,17 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="15">
+      <c r="A48" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17">
         <v>293</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3600,13 +3612,17 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="15">
+      <c r="A51" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17">
         <v>519</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="18" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5115,13 +5131,17 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="15">
+      <c r="A152" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="17">
         <v>29</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7536,13 +7556,17 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="15">
+      <c r="A313" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C313" s="16"/>
+      <c r="D313" s="17">
         <v>182</v>
       </c>
-      <c r="E313" s="6" t="s">
+      <c r="E313" s="18" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7708,13 +7732,17 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="15">
+      <c r="A325" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C325" s="16"/>
+      <c r="D325" s="17">
         <v>392</v>
       </c>
-      <c r="E325" s="6" t="s">
+      <c r="E325" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -12416,7 +12444,9 @@
       <c r="A640" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B640" s="16"/>
+      <c r="B640" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C640" s="16"/>
       <c r="D640" s="17">
         <v>156</v>
@@ -12444,7 +12474,9 @@
       <c r="A642" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B642" s="16"/>
+      <c r="B642" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C642" s="16"/>
       <c r="D642" s="17">
         <v>112</v>
@@ -12457,7 +12489,9 @@
       <c r="A643" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B643" s="16"/>
+      <c r="B643" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C643" s="16"/>
       <c r="D643" s="17">
         <v>86</v>
@@ -12515,7 +12549,9 @@
       <c r="A647" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B647" s="16"/>
+      <c r="B647" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C647" s="16"/>
       <c r="D647" s="17">
         <v>203</v>
@@ -12558,7 +12594,9 @@
       <c r="A650" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B650" s="16"/>
+      <c r="B650" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C650" s="16"/>
       <c r="D650" s="17">
         <v>202</v>
@@ -12571,7 +12609,9 @@
       <c r="A651" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B651" s="16"/>
+      <c r="B651" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C651" s="16"/>
       <c r="D651" s="17">
         <v>1387</v>
@@ -12597,7 +12637,9 @@
       <c r="A653" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B653" s="16"/>
+      <c r="B653" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C653" s="16"/>
       <c r="D653" s="17">
         <v>75</v>
@@ -12714,13 +12756,17 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
-      <c r="C661" s="2"/>
-      <c r="D661" s="15">
+      <c r="A661" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B661" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C661" s="16"/>
+      <c r="D661" s="17">
         <v>38</v>
       </c>
-      <c r="E661" s="6" t="s">
+      <c r="E661" s="18" t="s">
         <v>434</v>
       </c>
     </row>

--- a/Doc/FuncStats.xlsx
+++ b/Doc/FuncStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="747">
   <si>
     <t>Function</t>
   </si>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B1" s="3" t="str">
         <f>"Done:"&amp;COUNTIF(B4:B1000,"Done")</f>
-        <v>Done:651</v>
+        <v>Done:656</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>"Inp:"&amp;COUNTIF(B4:B1000,"Inp")</f>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="D1" s="12">
         <f>SUMIF(B4:B1000,{"Done","Inp"},D4:D1000) / SUM(D4:D1000)</f>
-        <v>0.97205934537589345</v>
+        <v>0.98376958042548879</v>
       </c>
       <c r="E1" s="25" t="str">
         <f t="array" ref="E1">"Classes:"&amp;SUM(IF(A4:A1000&lt;&gt;"",1/COUNTIF(A4:A1000, A4:A1000), 0))</f>
@@ -4144,7 +4144,9 @@
       <c r="A86" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C86" s="16"/>
       <c r="D86" s="17">
         <v>204</v>
@@ -4813,28 +4815,32 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="17">
+      <c r="B130" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20">
         <v>63</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="21" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="15">
+      <c r="A131" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="17">
         <v>22</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4914,13 +4920,17 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="15">
+      <c r="A137" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="17">
         <v>38</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7601,13 +7611,17 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="15">
+      <c r="A316" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C316" s="16"/>
+      <c r="D316" s="17">
         <v>49</v>
       </c>
-      <c r="E316" s="6" t="s">
+      <c r="E316" s="18" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12624,7 +12638,9 @@
       <c r="A652" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B652" s="16"/>
+      <c r="B652" s="16" t="s">
+        <v>668</v>
+      </c>
       <c r="C652" s="16"/>
       <c r="D652" s="17">
         <v>1073</v>
